--- a/resources/data/menu.xlsx
+++ b/resources/data/menu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="547">
   <si>
     <t>{"menu":[</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -11706,6 +11706,18 @@
   </si>
   <si>
     <t>08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Placeholder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>placeholder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -11993,15 +12005,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -12061,6 +12064,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12364,11 +12376,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AU64"/>
+  <dimension ref="A2:AU65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF26" sqref="AF26"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -12419,43 +12431,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="19"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="39"/>
       <c r="AJ2" s="5"/>
       <c r="AK2" s="10"/>
       <c r="AL2" s="11"/>
@@ -12608,7 +12620,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="3" t="str">
-        <f t="shared" ref="H4:H43" si="0">CONCATENATE(AK4,"_",AL4,"_",AM4,"_",AN4,"_",AO4)</f>
+        <f t="shared" ref="H4:H44" si="0">CONCATENATE(AK4,"_",AL4,"_",AM4,"_",AN4,"_",AO4)</f>
         <v>G_01_00_00_00</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -12621,7 +12633,7 @@
         <v>4</v>
       </c>
       <c r="L4" s="3" t="str">
-        <f t="shared" ref="L4:L43" si="1">CONCATENATE(AK4,AL4)</f>
+        <f t="shared" ref="L4:L44" si="1">CONCATENATE(AK4,AL4)</f>
         <v>G01</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -12646,14 +12658,14 @@
         <v>10</v>
       </c>
       <c r="X4" s="16" t="str">
-        <f t="shared" ref="X4:X43" si="2">CONCATENATE(AP4,AQ4,AR4,AS4)</f>
+        <f t="shared" ref="X4:X44" si="2">CONCATENATE(AP4,AQ4,AR4,AS4)</f>
         <v>/netiveUI/html/start/introduction.html</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z4" s="16" t="str">
-        <f t="shared" ref="Z4:Z43" si="3">CONCATENATE(AP4,AQ4,AR4,AS4)</f>
+        <f t="shared" ref="Z4:Z44" si="3">CONCATENATE(AP4,AQ4,AR4,AS4)</f>
         <v>/netiveUI/html/start/introduction.html</v>
       </c>
       <c r="AA4" s="1" t="s">
@@ -13811,8 +13823,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>G_02_05_00_00</v>
+        <f t="shared" ref="H14" si="4">CONCATENATE(AK14,"_",AL14,"_",AM14,"_",AN14,"_",AO14)</f>
+        <v>G_02_09_00_00</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>3</v>
@@ -13824,7 +13836,7 @@
         <v>4</v>
       </c>
       <c r="L14" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L14" si="5">CONCATENATE(AK14,AL14)</f>
         <v>G02</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -13834,7 +13846,7 @@
         <v>6</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>413</v>
+        <v>544</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>7</v>
@@ -13849,15 +13861,15 @@
         <v>10</v>
       </c>
       <c r="X14" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>/netiveUI/html/markup/table.html</v>
+        <f t="shared" ref="X14" si="6">CONCATENATE(AP14,AQ14,AR14,AS14)</f>
+        <v>/netiveUI/html/markup/placeholder.html</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z14" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>/netiveUI/html/markup/table.html</v>
+        <f t="shared" ref="Z14" si="7">CONCATENATE(AP14,AQ14,AR14,AS14)</f>
+        <v>/netiveUI/html/markup/placeholder.html</v>
       </c>
       <c r="AA14" s="1" t="s">
         <v>12</v>
@@ -13869,13 +13881,13 @@
         <v>14</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>414</v>
+        <v>544</v>
       </c>
       <c r="AG14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>414</v>
+        <v>544</v>
       </c>
       <c r="AI14" s="1" t="s">
         <v>16</v>
@@ -13887,7 +13899,7 @@
         <v>404</v>
       </c>
       <c r="AM14" s="15" t="s">
-        <v>419</v>
+        <v>546</v>
       </c>
       <c r="AN14" s="12" t="s">
         <v>25</v>
@@ -13902,7 +13914,7 @@
         <v>437</v>
       </c>
       <c r="AR14" s="13" t="s">
-        <v>433</v>
+        <v>545</v>
       </c>
       <c r="AS14" s="6" t="s">
         <v>435</v>
@@ -13932,7 +13944,7 @@
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_02_06_00_00</v>
+        <v>G_02_05_00_00</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>3</v>
@@ -13954,7 +13966,7 @@
         <v>6</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>7</v>
@@ -13970,14 +13982,14 @@
       </c>
       <c r="X15" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/markup/typography.html</v>
+        <v>/netiveUI/html/markup/table.html</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z15" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/markup/typography.html</v>
+        <v>/netiveUI/html/markup/table.html</v>
       </c>
       <c r="AA15" s="1" t="s">
         <v>12</v>
@@ -13989,13 +14001,13 @@
         <v>14</v>
       </c>
       <c r="AF15" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH15" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AI15" s="1" t="s">
         <v>16</v>
@@ -14007,7 +14019,7 @@
         <v>404</v>
       </c>
       <c r="AM15" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AN15" s="12" t="s">
         <v>25</v>
@@ -14022,7 +14034,7 @@
         <v>437</v>
       </c>
       <c r="AR15" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AS15" s="6" t="s">
         <v>435</v>
@@ -14051,8 +14063,8 @@
         <v>2</v>
       </c>
       <c r="H16" s="3" t="str">
-        <f t="shared" ref="H16" si="4">CONCATENATE(AK16,"_",AL16,"_",AM16,"_",AN16,"_",AO16)</f>
-        <v>G_02_08_00_00</v>
+        <f t="shared" si="0"/>
+        <v>G_02_06_00_00</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>3</v>
@@ -14064,7 +14076,7 @@
         <v>4</v>
       </c>
       <c r="L16" s="3" t="str">
-        <f t="shared" ref="L16" si="5">CONCATENATE(AK16,AL16)</f>
+        <f t="shared" si="1"/>
         <v>G02</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -14074,7 +14086,7 @@
         <v>6</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>541</v>
+        <v>415</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>7</v>
@@ -14089,15 +14101,15 @@
         <v>10</v>
       </c>
       <c r="X16" s="16" t="str">
-        <f t="shared" ref="X16" si="6">CONCATENATE(AP16,AQ16,AR16,AS16)</f>
-        <v>/netiveUI/html/markup/units.html</v>
+        <f t="shared" si="2"/>
+        <v>/netiveUI/html/markup/typography.html</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z16" s="16" t="str">
-        <f t="shared" ref="Z16" si="7">CONCATENATE(AP16,AQ16,AR16,AS16)</f>
-        <v>/netiveUI/html/markup/units.html</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/markup/typography.html</v>
       </c>
       <c r="AA16" s="1" t="s">
         <v>12</v>
@@ -14109,13 +14121,13 @@
         <v>14</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>541</v>
+        <v>415</v>
       </c>
       <c r="AG16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>541</v>
+        <v>415</v>
       </c>
       <c r="AI16" s="1" t="s">
         <v>16</v>
@@ -14127,7 +14139,7 @@
         <v>404</v>
       </c>
       <c r="AM16" s="15" t="s">
-        <v>543</v>
+        <v>420</v>
       </c>
       <c r="AN16" s="12" t="s">
         <v>25</v>
@@ -14142,7 +14154,7 @@
         <v>437</v>
       </c>
       <c r="AR16" s="13" t="s">
-        <v>542</v>
+        <v>434</v>
       </c>
       <c r="AS16" s="6" t="s">
         <v>435</v>
@@ -14171,8 +14183,8 @@
         <v>2</v>
       </c>
       <c r="H17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>G_03_00_00_00</v>
+        <f t="shared" ref="H17" si="8">CONCATENATE(AK17,"_",AL17,"_",AM17,"_",AN17,"_",AO17)</f>
+        <v>G_02_08_00_00</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>3</v>
@@ -14184,18 +14196,18 @@
         <v>4</v>
       </c>
       <c r="L17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>G03</v>
+        <f t="shared" ref="L17" si="9">CONCATENATE(AK17,AL17)</f>
+        <v>G02</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>416</v>
-      </c>
       <c r="O17" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P17" s="3" t="s">
+        <v>541</v>
+      </c>
       <c r="Q17" s="1" t="s">
         <v>7</v>
       </c>
@@ -14209,15 +14221,15 @@
         <v>10</v>
       </c>
       <c r="X17" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/accordion.html</v>
+        <f t="shared" ref="X17" si="10">CONCATENATE(AP17,AQ17,AR17,AS17)</f>
+        <v>/netiveUI/html/markup/units.html</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z17" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/accordion.html</v>
+        <f t="shared" ref="Z17" si="11">CONCATENATE(AP17,AQ17,AR17,AS17)</f>
+        <v>/netiveUI/html/markup/units.html</v>
       </c>
       <c r="AA17" s="1" t="s">
         <v>12</v>
@@ -14229,13 +14241,13 @@
         <v>14</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>416</v>
+        <v>541</v>
       </c>
       <c r="AG17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH17" s="3" t="s">
-        <v>416</v>
+        <v>541</v>
       </c>
       <c r="AI17" s="1" t="s">
         <v>16</v>
@@ -14244,10 +14256,10 @@
         <v>24</v>
       </c>
       <c r="AL17" s="15" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="AM17" s="15" t="s">
-        <v>25</v>
+        <v>543</v>
       </c>
       <c r="AN17" s="12" t="s">
         <v>25</v>
@@ -14259,10 +14271,10 @@
         <v>423</v>
       </c>
       <c r="AQ17" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AR17" s="13" t="s">
-        <v>424</v>
+        <v>542</v>
       </c>
       <c r="AS17" s="6" t="s">
         <v>435</v>
@@ -14292,7 +14304,7 @@
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_01_00_00</v>
+        <v>G_03_00_00_00</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>3</v>
@@ -14310,11 +14322,11 @@
       <c r="M18" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N18" s="3" t="s">
+        <v>416</v>
+      </c>
       <c r="O18" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>422</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>7</v>
@@ -14349,13 +14361,13 @@
         <v>14</v>
       </c>
       <c r="AF18" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AG18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH18" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AI18" s="1" t="s">
         <v>16</v>
@@ -14367,7 +14379,7 @@
         <v>417</v>
       </c>
       <c r="AM18" s="15" t="s">
-        <v>439</v>
+        <v>25</v>
       </c>
       <c r="AN18" s="12" t="s">
         <v>25</v>
@@ -14412,7 +14424,7 @@
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_02_00_00</v>
+        <v>G_03_01_00_00</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>3</v>
@@ -14434,7 +14446,7 @@
         <v>6</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>7</v>
@@ -14450,14 +14462,14 @@
       </c>
       <c r="X19" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/brickList.html</v>
+        <v>/netiveUI/html/components/accordion.html</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z19" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/brickList.html</v>
+        <v>/netiveUI/html/components/accordion.html</v>
       </c>
       <c r="AA19" s="1" t="s">
         <v>12</v>
@@ -14469,13 +14481,13 @@
         <v>14</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="AG19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH19" s="3" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="AI19" s="1" t="s">
         <v>16</v>
@@ -14487,7 +14499,7 @@
         <v>417</v>
       </c>
       <c r="AM19" s="15" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="AN19" s="12" t="s">
         <v>25</v>
@@ -14502,7 +14514,7 @@
         <v>436</v>
       </c>
       <c r="AR19" s="13" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="AS19" s="6" t="s">
         <v>435</v>
@@ -14532,7 +14544,7 @@
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_03_00_00</v>
+        <v>G_03_02_00_00</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>3</v>
@@ -14554,7 +14566,7 @@
         <v>6</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>7</v>
@@ -14570,14 +14582,14 @@
       </c>
       <c r="X20" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/capture.html</v>
+        <v>/netiveUI/html/components/brickList.html</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z20" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/capture.html</v>
+        <v>/netiveUI/html/components/brickList.html</v>
       </c>
       <c r="AA20" s="1" t="s">
         <v>12</v>
@@ -14589,13 +14601,13 @@
         <v>14</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH20" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AI20" s="1" t="s">
         <v>16</v>
@@ -14607,7 +14619,7 @@
         <v>417</v>
       </c>
       <c r="AM20" s="15" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="AN20" s="12" t="s">
         <v>25</v>
@@ -14622,7 +14634,7 @@
         <v>436</v>
       </c>
       <c r="AR20" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AS20" s="6" t="s">
         <v>435</v>
@@ -14652,7 +14664,7 @@
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_04_00_00</v>
+        <v>G_03_03_00_00</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>3</v>
@@ -14674,7 +14686,7 @@
         <v>6</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>7</v>
@@ -14690,14 +14702,14 @@
       </c>
       <c r="X21" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/countNumber.html</v>
+        <v>/netiveUI/html/components/capture.html</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z21" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/countNumber.html</v>
+        <v>/netiveUI/html/components/capture.html</v>
       </c>
       <c r="AA21" s="1" t="s">
         <v>12</v>
@@ -14709,13 +14721,13 @@
         <v>14</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AG21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH21" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AI21" s="1" t="s">
         <v>16</v>
@@ -14727,7 +14739,7 @@
         <v>417</v>
       </c>
       <c r="AM21" s="15" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="AN21" s="12" t="s">
         <v>25</v>
@@ -14742,7 +14754,7 @@
         <v>436</v>
       </c>
       <c r="AR21" s="13" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AS21" s="6" t="s">
         <v>435</v>
@@ -14772,7 +14784,7 @@
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_05_00_00</v>
+        <v>G_03_04_00_00</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>3</v>
@@ -14794,7 +14806,7 @@
         <v>6</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>7</v>
@@ -14810,14 +14822,14 @@
       </c>
       <c r="X22" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/datePicker.html</v>
+        <v>/netiveUI/html/components/countNumber.html</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z22" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/datePicker.html</v>
+        <v>/netiveUI/html/components/countNumber.html</v>
       </c>
       <c r="AA22" s="1" t="s">
         <v>12</v>
@@ -14829,13 +14841,13 @@
         <v>14</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AG22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH22" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AI22" s="1" t="s">
         <v>16</v>
@@ -14847,7 +14859,7 @@
         <v>417</v>
       </c>
       <c r="AM22" s="15" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AN22" s="12" t="s">
         <v>25</v>
@@ -14862,7 +14874,7 @@
         <v>436</v>
       </c>
       <c r="AR22" s="13" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AS22" s="6" t="s">
         <v>435</v>
@@ -14892,7 +14904,7 @@
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_06_00_00</v>
+        <v>G_03_05_00_00</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>3</v>
@@ -14914,7 +14926,7 @@
         <v>6</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>7</v>
@@ -14930,14 +14942,14 @@
       </c>
       <c r="X23" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/dropdown.html</v>
+        <v>/netiveUI/html/components/datePicker.html</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z23" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/dropdown.html</v>
+        <v>/netiveUI/html/components/datePicker.html</v>
       </c>
       <c r="AA23" s="1" t="s">
         <v>12</v>
@@ -14949,13 +14961,13 @@
         <v>14</v>
       </c>
       <c r="AF23" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AG23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH23" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AI23" s="1" t="s">
         <v>16</v>
@@ -14967,7 +14979,7 @@
         <v>417</v>
       </c>
       <c r="AM23" s="15" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AN23" s="12" t="s">
         <v>25</v>
@@ -14982,7 +14994,7 @@
         <v>436</v>
       </c>
       <c r="AR23" s="13" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AS23" s="6" t="s">
         <v>435</v>
@@ -15012,7 +15024,7 @@
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_07_00_00</v>
+        <v>G_03_06_00_00</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>3</v>
@@ -15034,7 +15046,7 @@
         <v>6</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>7</v>
@@ -15050,14 +15062,14 @@
       </c>
       <c r="X24" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/fileUpload.html</v>
+        <v>/netiveUI/html/components/dropdown.html</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z24" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/fileUpload.html</v>
+        <v>/netiveUI/html/components/dropdown.html</v>
       </c>
       <c r="AA24" s="1" t="s">
         <v>12</v>
@@ -15069,13 +15081,13 @@
         <v>14</v>
       </c>
       <c r="AF24" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AG24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH24" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AI24" s="1" t="s">
         <v>16</v>
@@ -15087,7 +15099,7 @@
         <v>417</v>
       </c>
       <c r="AM24" s="15" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AN24" s="12" t="s">
         <v>25</v>
@@ -15102,7 +15114,7 @@
         <v>436</v>
       </c>
       <c r="AR24" s="13" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AS24" s="6" t="s">
         <v>435</v>
@@ -15132,7 +15144,7 @@
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_08_00_00</v>
+        <v>G_03_07_00_00</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>3</v>
@@ -15154,7 +15166,7 @@
         <v>6</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>7</v>
@@ -15170,14 +15182,14 @@
       </c>
       <c r="X25" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/floating.html</v>
+        <v>/netiveUI/html/components/fileUpload.html</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z25" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/floating.html</v>
+        <v>/netiveUI/html/components/fileUpload.html</v>
       </c>
       <c r="AA25" s="1" t="s">
         <v>12</v>
@@ -15189,13 +15201,13 @@
         <v>14</v>
       </c>
       <c r="AF25" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AG25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH25" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AI25" s="1" t="s">
         <v>16</v>
@@ -15207,7 +15219,7 @@
         <v>417</v>
       </c>
       <c r="AM25" s="15" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AN25" s="12" t="s">
         <v>25</v>
@@ -15222,7 +15234,7 @@
         <v>436</v>
       </c>
       <c r="AR25" s="13" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AS25" s="6" t="s">
         <v>435</v>
@@ -15252,7 +15264,7 @@
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_24_00_00</v>
+        <v>G_03_08_00_00</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>3</v>
@@ -15274,7 +15286,7 @@
         <v>6</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>7</v>
@@ -15290,14 +15302,14 @@
       </c>
       <c r="X26" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/floatingRange.html</v>
+        <v>/netiveUI/html/components/floating.html</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z26" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/floatingRange.html</v>
+        <v>/netiveUI/html/components/floating.html</v>
       </c>
       <c r="AA26" s="1" t="s">
         <v>12</v>
@@ -15309,13 +15321,13 @@
         <v>14</v>
       </c>
       <c r="AF26" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AG26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH26" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AI26" s="1" t="s">
         <v>16</v>
@@ -15327,7 +15339,7 @@
         <v>417</v>
       </c>
       <c r="AM26" s="15" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AN26" s="12" t="s">
         <v>25</v>
@@ -15342,7 +15354,7 @@
         <v>436</v>
       </c>
       <c r="AR26" s="13" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AS26" s="6" t="s">
         <v>435</v>
@@ -15372,7 +15384,7 @@
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_09_00_00</v>
+        <v>G_03_24_00_00</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>3</v>
@@ -15394,7 +15406,7 @@
         <v>6</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>7</v>
@@ -15410,14 +15422,14 @@
       </c>
       <c r="X27" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/inputFormat.html</v>
+        <v>/netiveUI/html/components/floatingRange.html</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z27" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/inputFormat.html</v>
+        <v>/netiveUI/html/components/floatingRange.html</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>12</v>
@@ -15429,13 +15441,13 @@
         <v>14</v>
       </c>
       <c r="AF27" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AG27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH27" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AI27" s="1" t="s">
         <v>16</v>
@@ -15447,7 +15459,7 @@
         <v>417</v>
       </c>
       <c r="AM27" s="15" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AN27" s="12" t="s">
         <v>25</v>
@@ -15462,7 +15474,7 @@
         <v>436</v>
       </c>
       <c r="AR27" s="13" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AS27" s="6" t="s">
         <v>435</v>
@@ -15492,7 +15504,7 @@
       </c>
       <c r="H28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_10_00_00</v>
+        <v>G_03_09_00_00</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>3</v>
@@ -15514,7 +15526,7 @@
         <v>6</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>7</v>
@@ -15530,14 +15542,14 @@
       </c>
       <c r="X28" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/jsonCodingList.html</v>
+        <v>/netiveUI/html/components/inputFormat.html</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z28" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/jsonCodingList.html</v>
+        <v>/netiveUI/html/components/inputFormat.html</v>
       </c>
       <c r="AA28" s="1" t="s">
         <v>12</v>
@@ -15549,13 +15561,13 @@
         <v>14</v>
       </c>
       <c r="AF28" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AG28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH28" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AI28" s="1" t="s">
         <v>16</v>
@@ -15567,7 +15579,7 @@
         <v>417</v>
       </c>
       <c r="AM28" s="15" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AN28" s="12" t="s">
         <v>25</v>
@@ -15582,7 +15594,7 @@
         <v>436</v>
       </c>
       <c r="AR28" s="13" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AS28" s="6" t="s">
         <v>435</v>
@@ -15612,7 +15624,7 @@
       </c>
       <c r="H29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_11_00_00</v>
+        <v>G_03_10_00_00</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>3</v>
@@ -15634,7 +15646,7 @@
         <v>6</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>7</v>
@@ -15650,14 +15662,14 @@
       </c>
       <c r="X29" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/jsonMenu.html</v>
+        <v>/netiveUI/html/components/jsonCodingList.html</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z29" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/jsonMenu.html</v>
+        <v>/netiveUI/html/components/jsonCodingList.html</v>
       </c>
       <c r="AA29" s="1" t="s">
         <v>12</v>
@@ -15669,13 +15681,13 @@
         <v>14</v>
       </c>
       <c r="AF29" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AG29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH29" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AI29" s="1" t="s">
         <v>16</v>
@@ -15687,7 +15699,7 @@
         <v>417</v>
       </c>
       <c r="AM29" s="15" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AN29" s="12" t="s">
         <v>25</v>
@@ -15702,7 +15714,7 @@
         <v>436</v>
       </c>
       <c r="AR29" s="13" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AS29" s="6" t="s">
         <v>435</v>
@@ -15732,7 +15744,7 @@
       </c>
       <c r="H30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_12_00_00</v>
+        <v>G_03_11_00_00</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>3</v>
@@ -15754,7 +15766,7 @@
         <v>6</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>7</v>
@@ -15770,14 +15782,14 @@
       </c>
       <c r="X30" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/loading.html</v>
+        <v>/netiveUI/html/components/jsonMenu.html</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z30" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/loading.html</v>
+        <v>/netiveUI/html/components/jsonMenu.html</v>
       </c>
       <c r="AA30" s="1" t="s">
         <v>12</v>
@@ -15789,13 +15801,13 @@
         <v>14</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AG30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH30" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AI30" s="1" t="s">
         <v>16</v>
@@ -15807,7 +15819,7 @@
         <v>417</v>
       </c>
       <c r="AM30" s="15" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AN30" s="12" t="s">
         <v>25</v>
@@ -15822,7 +15834,7 @@
         <v>436</v>
       </c>
       <c r="AR30" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AS30" s="6" t="s">
         <v>435</v>
@@ -15852,7 +15864,7 @@
       </c>
       <c r="H31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_13_00_00</v>
+        <v>G_03_12_00_00</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>3</v>
@@ -15874,7 +15886,7 @@
         <v>6</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>7</v>
@@ -15890,14 +15902,14 @@
       </c>
       <c r="X31" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/modal.html</v>
+        <v>/netiveUI/html/components/loading.html</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z31" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/modal.html</v>
+        <v>/netiveUI/html/components/loading.html</v>
       </c>
       <c r="AA31" s="1" t="s">
         <v>12</v>
@@ -15909,13 +15921,13 @@
         <v>14</v>
       </c>
       <c r="AF31" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AG31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH31" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AI31" s="1" t="s">
         <v>16</v>
@@ -15927,7 +15939,7 @@
         <v>417</v>
       </c>
       <c r="AM31" s="15" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AN31" s="12" t="s">
         <v>25</v>
@@ -15942,7 +15954,7 @@
         <v>436</v>
       </c>
       <c r="AR31" s="13" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AS31" s="6" t="s">
         <v>435</v>
@@ -15972,7 +15984,7 @@
       </c>
       <c r="H32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_14_00_00</v>
+        <v>G_03_13_00_00</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>3</v>
@@ -15994,7 +16006,7 @@
         <v>6</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>7</v>
@@ -16010,14 +16022,14 @@
       </c>
       <c r="X32" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/popup.html</v>
+        <v>/netiveUI/html/components/modal.html</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z32" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/popup.html</v>
+        <v>/netiveUI/html/components/modal.html</v>
       </c>
       <c r="AA32" s="1" t="s">
         <v>12</v>
@@ -16029,13 +16041,13 @@
         <v>14</v>
       </c>
       <c r="AF32" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AG32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH32" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AI32" s="1" t="s">
         <v>16</v>
@@ -16047,7 +16059,7 @@
         <v>417</v>
       </c>
       <c r="AM32" s="15" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AN32" s="12" t="s">
         <v>25</v>
@@ -16062,7 +16074,7 @@
         <v>436</v>
       </c>
       <c r="AR32" s="13" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AS32" s="6" t="s">
         <v>435</v>
@@ -16092,7 +16104,7 @@
       </c>
       <c r="H33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_23_00_00</v>
+        <v>G_03_14_00_00</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>3</v>
@@ -16114,7 +16126,7 @@
         <v>6</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>7</v>
@@ -16130,14 +16142,14 @@
       </c>
       <c r="X33" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/print.html</v>
+        <v>/netiveUI/html/components/popup.html</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z33" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/print.html</v>
+        <v>/netiveUI/html/components/popup.html</v>
       </c>
       <c r="AA33" s="1" t="s">
         <v>12</v>
@@ -16149,13 +16161,13 @@
         <v>14</v>
       </c>
       <c r="AF33" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AG33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH33" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AI33" s="1" t="s">
         <v>16</v>
@@ -16167,7 +16179,7 @@
         <v>417</v>
       </c>
       <c r="AM33" s="15" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AN33" s="12" t="s">
         <v>25</v>
@@ -16182,7 +16194,7 @@
         <v>436</v>
       </c>
       <c r="AR33" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AS33" s="6" t="s">
         <v>435</v>
@@ -16212,7 +16224,7 @@
       </c>
       <c r="H34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_25_00_00</v>
+        <v>G_03_23_00_00</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>3</v>
@@ -16234,7 +16246,7 @@
         <v>6</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>7</v>
@@ -16250,14 +16262,14 @@
       </c>
       <c r="X34" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/scrollBar.html</v>
+        <v>/netiveUI/html/components/print.html</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z34" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/scrollBar.html</v>
+        <v>/netiveUI/html/components/print.html</v>
       </c>
       <c r="AA34" s="1" t="s">
         <v>12</v>
@@ -16269,13 +16281,13 @@
         <v>14</v>
       </c>
       <c r="AF34" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AG34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH34" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AI34" s="1" t="s">
         <v>16</v>
@@ -16287,7 +16299,7 @@
         <v>417</v>
       </c>
       <c r="AM34" s="15" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AN34" s="12" t="s">
         <v>25</v>
@@ -16302,7 +16314,7 @@
         <v>436</v>
       </c>
       <c r="AR34" s="13" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AS34" s="6" t="s">
         <v>435</v>
@@ -16332,7 +16344,7 @@
       </c>
       <c r="H35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_26_00_00</v>
+        <v>G_03_25_00_00</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>3</v>
@@ -16354,7 +16366,7 @@
         <v>6</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>7</v>
@@ -16370,14 +16382,14 @@
       </c>
       <c r="X35" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/scrollBgImg.html</v>
+        <v>/netiveUI/html/components/scrollBar.html</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z35" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/scrollBgImg.html</v>
+        <v>/netiveUI/html/components/scrollBar.html</v>
       </c>
       <c r="AA35" s="1" t="s">
         <v>12</v>
@@ -16389,13 +16401,13 @@
         <v>14</v>
       </c>
       <c r="AF35" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AG35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH35" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AI35" s="1" t="s">
         <v>16</v>
@@ -16407,7 +16419,7 @@
         <v>417</v>
       </c>
       <c r="AM35" s="15" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AN35" s="12" t="s">
         <v>25</v>
@@ -16422,7 +16434,7 @@
         <v>436</v>
       </c>
       <c r="AR35" s="13" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AS35" s="6" t="s">
         <v>435</v>
@@ -16452,7 +16464,7 @@
       </c>
       <c r="H36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_15_00_00</v>
+        <v>G_03_26_00_00</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>3</v>
@@ -16474,7 +16486,7 @@
         <v>6</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>7</v>
@@ -16490,14 +16502,14 @@
       </c>
       <c r="X36" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/scrollMove.html</v>
+        <v>/netiveUI/html/components/scrollBgImg.html</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z36" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/scrollMove.html</v>
+        <v>/netiveUI/html/components/scrollBgImg.html</v>
       </c>
       <c r="AA36" s="1" t="s">
         <v>12</v>
@@ -16509,13 +16521,13 @@
         <v>14</v>
       </c>
       <c r="AF36" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AG36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH36" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AI36" s="1" t="s">
         <v>16</v>
@@ -16527,7 +16539,7 @@
         <v>417</v>
       </c>
       <c r="AM36" s="15" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AN36" s="12" t="s">
         <v>25</v>
@@ -16542,7 +16554,7 @@
         <v>436</v>
       </c>
       <c r="AR36" s="13" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AS36" s="6" t="s">
         <v>435</v>
@@ -16572,7 +16584,7 @@
       </c>
       <c r="H37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_16_00_00</v>
+        <v>G_03_15_00_00</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>3</v>
@@ -16594,7 +16606,7 @@
         <v>6</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>7</v>
@@ -16610,14 +16622,14 @@
       </c>
       <c r="X37" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/select.html</v>
+        <v>/netiveUI/html/components/scrollMove.html</v>
       </c>
       <c r="Y37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z37" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/select.html</v>
+        <v>/netiveUI/html/components/scrollMove.html</v>
       </c>
       <c r="AA37" s="1" t="s">
         <v>12</v>
@@ -16629,13 +16641,13 @@
         <v>14</v>
       </c>
       <c r="AF37" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AG37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH37" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AI37" s="1" t="s">
         <v>16</v>
@@ -16647,7 +16659,7 @@
         <v>417</v>
       </c>
       <c r="AM37" s="15" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AN37" s="12" t="s">
         <v>25</v>
@@ -16662,7 +16674,7 @@
         <v>436</v>
       </c>
       <c r="AR37" s="13" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AS37" s="6" t="s">
         <v>435</v>
@@ -16692,7 +16704,7 @@
       </c>
       <c r="H38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_17_00_00</v>
+        <v>G_03_16_00_00</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>3</v>
@@ -16714,7 +16726,7 @@
         <v>6</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>7</v>
@@ -16730,14 +16742,14 @@
       </c>
       <c r="X38" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/selection.html</v>
+        <v>/netiveUI/html/components/select.html</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z38" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/selection.html</v>
+        <v>/netiveUI/html/components/select.html</v>
       </c>
       <c r="AA38" s="1" t="s">
         <v>12</v>
@@ -16749,13 +16761,13 @@
         <v>14</v>
       </c>
       <c r="AF38" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AG38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH38" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AI38" s="1" t="s">
         <v>16</v>
@@ -16767,7 +16779,7 @@
         <v>417</v>
       </c>
       <c r="AM38" s="15" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AN38" s="12" t="s">
         <v>25</v>
@@ -16782,7 +16794,7 @@
         <v>436</v>
       </c>
       <c r="AR38" s="13" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AS38" s="6" t="s">
         <v>435</v>
@@ -16812,7 +16824,7 @@
       </c>
       <c r="H39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_18_00_00</v>
+        <v>G_03_17_00_00</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>3</v>
@@ -16834,7 +16846,7 @@
         <v>6</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>7</v>
@@ -16850,14 +16862,14 @@
       </c>
       <c r="X39" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/slide.html</v>
+        <v>/netiveUI/html/components/selection.html</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z39" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/slide.html</v>
+        <v>/netiveUI/html/components/selection.html</v>
       </c>
       <c r="AA39" s="1" t="s">
         <v>12</v>
@@ -16869,13 +16881,13 @@
         <v>14</v>
       </c>
       <c r="AF39" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AG39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH39" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AI39" s="1" t="s">
         <v>16</v>
@@ -16887,7 +16899,7 @@
         <v>417</v>
       </c>
       <c r="AM39" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AN39" s="12" t="s">
         <v>25</v>
@@ -16902,7 +16914,7 @@
         <v>436</v>
       </c>
       <c r="AR39" s="13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AS39" s="6" t="s">
         <v>435</v>
@@ -16932,7 +16944,7 @@
       </c>
       <c r="H40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_19_00_00</v>
+        <v>G_03_18_00_00</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>3</v>
@@ -16954,7 +16966,7 @@
         <v>6</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>7</v>
@@ -16970,14 +16982,14 @@
       </c>
       <c r="X40" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/slider.html</v>
+        <v>/netiveUI/html/components/slide.html</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z40" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/slider.html</v>
+        <v>/netiveUI/html/components/slide.html</v>
       </c>
       <c r="AA40" s="1" t="s">
         <v>12</v>
@@ -16989,13 +17001,13 @@
         <v>14</v>
       </c>
       <c r="AF40" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AG40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH40" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AI40" s="1" t="s">
         <v>16</v>
@@ -17007,7 +17019,7 @@
         <v>417</v>
       </c>
       <c r="AM40" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AN40" s="12" t="s">
         <v>25</v>
@@ -17022,7 +17034,7 @@
         <v>436</v>
       </c>
       <c r="AR40" s="13" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AS40" s="6" t="s">
         <v>435</v>
@@ -17052,7 +17064,7 @@
       </c>
       <c r="H41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_20_00_00</v>
+        <v>G_03_19_00_00</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>3</v>
@@ -17074,7 +17086,7 @@
         <v>6</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>7</v>
@@ -17090,14 +17102,14 @@
       </c>
       <c r="X41" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/slot.html</v>
+        <v>/netiveUI/html/components/slider.html</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z41" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/slot.html</v>
+        <v>/netiveUI/html/components/slider.html</v>
       </c>
       <c r="AA41" s="1" t="s">
         <v>12</v>
@@ -17109,13 +17121,13 @@
         <v>14</v>
       </c>
       <c r="AF41" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AG41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH41" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AI41" s="1" t="s">
         <v>16</v>
@@ -17127,7 +17139,7 @@
         <v>417</v>
       </c>
       <c r="AM41" s="15" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AN41" s="12" t="s">
         <v>25</v>
@@ -17142,7 +17154,7 @@
         <v>436</v>
       </c>
       <c r="AR41" s="13" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AS41" s="6" t="s">
         <v>435</v>
@@ -17172,7 +17184,7 @@
       </c>
       <c r="H42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_21_00_00</v>
+        <v>G_03_20_00_00</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>3</v>
@@ -17194,7 +17206,7 @@
         <v>6</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>7</v>
@@ -17210,14 +17222,14 @@
       </c>
       <c r="X42" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/tab.html</v>
+        <v>/netiveUI/html/components/slot.html</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z42" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/tab.html</v>
+        <v>/netiveUI/html/components/slot.html</v>
       </c>
       <c r="AA42" s="1" t="s">
         <v>12</v>
@@ -17229,13 +17241,13 @@
         <v>14</v>
       </c>
       <c r="AF42" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AG42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH42" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AI42" s="1" t="s">
         <v>16</v>
@@ -17247,7 +17259,7 @@
         <v>417</v>
       </c>
       <c r="AM42" s="15" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AN42" s="12" t="s">
         <v>25</v>
@@ -17262,363 +17274,371 @@
         <v>436</v>
       </c>
       <c r="AR42" s="13" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AS42" s="6" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:47" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="30" t="s">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F43" s="31" t="s">
+      <c r="F43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="30" t="s">
+      <c r="G43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H43" s="32" t="str">
+      <c r="H43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>G_03_21_00_00</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>G03</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X43" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>/netiveUI/html/components/tab.html</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z43" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components/tab.html</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF43" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="AG43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH43" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="AI43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK43" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL43" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="AM43" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="AN43" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO43" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP43" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="AQ43" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="AR43" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="AS43" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="29" t="str">
         <f t="shared" si="0"/>
         <v>G_03_22_00_00</v>
       </c>
-      <c r="I43" s="30" t="s">
+      <c r="I44" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="32" t="s">
+      <c r="J44" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="K43" s="30" t="s">
+      <c r="K44" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="32" t="str">
+      <c r="L44" s="29" t="str">
         <f t="shared" si="1"/>
         <v>G03</v>
       </c>
-      <c r="M43" s="30" t="s">
+      <c r="M44" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O43" s="30" t="s">
+      <c r="O44" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P43" s="32" t="s">
+      <c r="P44" s="29" t="s">
         <v>512</v>
       </c>
-      <c r="Q43" s="30" t="s">
+      <c r="Q44" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S43" s="30" t="s">
+      <c r="S44" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="U43" s="30" t="s">
+      <c r="U44" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="W43" s="30" t="s">
+      <c r="W44" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="X43" s="33" t="str">
+      <c r="X44" s="30" t="str">
         <f t="shared" si="2"/>
         <v>/netiveUI/html/components/tooltip.html</v>
       </c>
-      <c r="Y43" s="30" t="s">
+      <c r="Y44" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="Z43" s="33" t="str">
+      <c r="Z44" s="30" t="str">
         <f t="shared" si="3"/>
         <v>/netiveUI/html/components/tooltip.html</v>
       </c>
-      <c r="AA43" s="30" t="s">
+      <c r="AA44" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AC43" s="30" t="s">
+      <c r="AC44" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AE43" s="30" t="s">
+      <c r="AE44" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AF43" s="32" t="s">
+      <c r="AF44" s="29" t="s">
         <v>512</v>
       </c>
-      <c r="AG43" s="30" t="s">
+      <c r="AG44" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AH43" s="32" t="s">
+      <c r="AH44" s="29" t="s">
         <v>512</v>
-      </c>
-      <c r="AI43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ43" s="34"/>
-      <c r="AK43" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL43" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="AM43" s="36" t="s">
-        <v>513</v>
-      </c>
-      <c r="AN43" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO43" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP43" s="38" t="s">
-        <v>423</v>
-      </c>
-      <c r="AQ43" s="38" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR43" s="38" t="s">
-        <v>514</v>
-      </c>
-      <c r="AS43" s="39" t="s">
-        <v>435</v>
-      </c>
-      <c r="AT43" s="39"/>
-      <c r="AU43" s="39"/>
-    </row>
-    <row r="44" spans="1:47" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" s="22" t="str">
-        <f t="shared" ref="H44" si="8">CONCATENATE(AK44,"_",AL44,"_",AM44,"_",AN44,"_",AO44)</f>
-        <v>P_00_00_00_00</v>
-      </c>
-      <c r="I44" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="22" t="s">
-        <v>540</v>
-      </c>
-      <c r="K44" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="22" t="str">
-        <f t="shared" ref="L44" si="9">CONCATENATE(AK44,AL44)</f>
-        <v>P00</v>
-      </c>
-      <c r="M44" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="O44" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q44" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="S44" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="U44" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="W44" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="X44" s="23" t="str">
-        <f t="shared" ref="X44" si="10">CONCATENATE(AP44,AQ44,AR44,AS44)</f>
-        <v>#</v>
-      </c>
-      <c r="Y44" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z44" s="23" t="str">
-        <f t="shared" ref="Z44" si="11">CONCATENATE(AP44,AQ44,AR44,AS44)</f>
-        <v>#</v>
-      </c>
-      <c r="AA44" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC44" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE44" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF44" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="AG44" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH44" s="22" t="s">
-        <v>517</v>
       </c>
       <c r="AI44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AJ44" s="24"/>
-      <c r="AK44" s="25" t="s">
-        <v>516</v>
-      </c>
-      <c r="AL44" s="26" t="s">
+      <c r="AJ44" s="31"/>
+      <c r="AK44" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL44" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="AM44" s="33" t="s">
+        <v>513</v>
+      </c>
+      <c r="AN44" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AM44" s="26" t="s">
+      <c r="AO44" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AN44" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO44" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP44" s="28" t="s">
-        <v>539</v>
-      </c>
-      <c r="AQ44" s="28"/>
-      <c r="AR44" s="28"/>
-      <c r="AS44" s="29"/>
-      <c r="AT44" s="29"/>
-      <c r="AU44" s="29"/>
-    </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="AP44" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="AQ44" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="AR44" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="AS44" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="AT44" s="36"/>
+      <c r="AU44" s="36"/>
+    </row>
+    <row r="45" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H45" s="3" t="str">
-        <f t="shared" ref="H45:H63" si="12">CONCATENATE(AK45,"_",AL45,"_",AM45,"_",AN45,"_",AO45)</f>
-        <v>P_01_00_00_00</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="H45" s="19" t="str">
+        <f t="shared" ref="H45" si="12">CONCATENATE(AK45,"_",AL45,"_",AM45,"_",AN45,"_",AO45)</f>
+        <v>P_00_00_00_00</v>
+      </c>
+      <c r="I45" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="22" t="s">
+      <c r="J45" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K45" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3" t="str">
-        <f t="shared" ref="L45:L63" si="13">CONCATENATE(AK45,AL45)</f>
-        <v>P01</v>
-      </c>
-      <c r="M45" s="1" t="s">
+      <c r="L45" s="19" t="str">
+        <f t="shared" ref="L45" si="13">CONCATENATE(AK45,AL45)</f>
+        <v>P00</v>
+      </c>
+      <c r="M45" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="O45" s="1" t="s">
+      <c r="N45" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="O45" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="Q45" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="S45" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="1" t="s">
+      <c r="U45" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="W45" s="1" t="s">
+      <c r="W45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="X45" s="16" t="str">
-        <f t="shared" ref="X45:X63" si="14">CONCATENATE(AP45,AQ45,AR45,AS45)</f>
+      <c r="X45" s="20" t="str">
+        <f t="shared" ref="X45" si="14">CONCATENATE(AP45,AQ45,AR45,AS45)</f>
         <v>#</v>
       </c>
-      <c r="Y45" s="1" t="s">
+      <c r="Y45" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Z45" s="16" t="str">
-        <f t="shared" ref="Z45:Z63" si="15">CONCATENATE(AP45,AQ45,AR45,AS45)</f>
+      <c r="Z45" s="20" t="str">
+        <f t="shared" ref="Z45" si="15">CONCATENATE(AP45,AQ45,AR45,AS45)</f>
         <v>#</v>
       </c>
-      <c r="AA45" s="1" t="s">
+      <c r="AA45" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AC45" s="1" t="s">
+      <c r="AC45" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AE45" s="1" t="s">
+      <c r="AE45" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AF45" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="AG45" s="1" t="s">
+      <c r="AF45" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="AG45" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AH45" s="3" t="s">
-        <v>518</v>
+      <c r="AH45" s="19" t="s">
+        <v>517</v>
       </c>
       <c r="AI45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AK45" s="14" t="s">
+      <c r="AJ45" s="21"/>
+      <c r="AK45" s="22" t="s">
         <v>516</v>
       </c>
-      <c r="AL45" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM45" s="15" t="s">
+      <c r="AL45" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AN45" s="12" t="s">
+      <c r="AM45" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AO45" s="12" t="s">
+      <c r="AN45" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AP45" s="28" t="s">
+      <c r="AO45" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP45" s="25" t="s">
         <v>539</v>
       </c>
-      <c r="AQ45" s="13"/>
+      <c r="AQ45" s="25"/>
+      <c r="AR45" s="25"/>
+      <c r="AS45" s="26"/>
+      <c r="AT45" s="26"/>
+      <c r="AU45" s="26"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
@@ -17643,31 +17663,31 @@
         <v>2</v>
       </c>
       <c r="H46" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>P_01_01_00_00</v>
+        <f t="shared" ref="H46:H64" si="16">CONCATENATE(AK46,"_",AL46,"_",AM46,"_",AN46,"_",AO46)</f>
+        <v>P_01_00_00_00</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J46" s="22" t="s">
+      <c r="J46" s="19" t="s">
         <v>540</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L46" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="L46:L64" si="17">CONCATENATE(AK46,AL46)</f>
         <v>P01</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N46" s="3" t="s">
+        <v>518</v>
+      </c>
       <c r="O46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>519</v>
-      </c>
       <c r="Q46" s="1" t="s">
         <v>7</v>
       </c>
@@ -17681,14 +17701,14 @@
         <v>10</v>
       </c>
       <c r="X46" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="X46:X64" si="18">CONCATENATE(AP46,AQ46,AR46,AS46)</f>
         <v>#</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z46" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="Z46:Z64" si="19">CONCATENATE(AP46,AQ46,AR46,AS46)</f>
         <v>#</v>
       </c>
       <c r="AA46" s="1" t="s">
@@ -17701,13 +17721,13 @@
         <v>14</v>
       </c>
       <c r="AF46" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AG46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH46" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AI46" s="1" t="s">
         <v>16</v>
@@ -17719,7 +17739,7 @@
         <v>30</v>
       </c>
       <c r="AM46" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AN46" s="12" t="s">
         <v>25</v>
@@ -17727,7 +17747,7 @@
       <c r="AO46" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AP46" s="28" t="s">
+      <c r="AP46" s="25" t="s">
         <v>539</v>
       </c>
       <c r="AQ46" s="13"/>
@@ -17755,20 +17775,20 @@
         <v>2</v>
       </c>
       <c r="H47" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>P_01_02_00_00</v>
+        <f t="shared" si="16"/>
+        <v>P_01_01_00_00</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="22" t="s">
+      <c r="J47" s="19" t="s">
         <v>540</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L47" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>P01</v>
       </c>
       <c r="M47" s="1" t="s">
@@ -17778,7 +17798,7 @@
         <v>6</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>7</v>
@@ -17793,14 +17813,14 @@
         <v>10</v>
       </c>
       <c r="X47" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z47" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#</v>
       </c>
       <c r="AA47" s="1" t="s">
@@ -17813,13 +17833,13 @@
         <v>14</v>
       </c>
       <c r="AF47" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AG47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH47" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI47" s="1" t="s">
         <v>16</v>
@@ -17831,7 +17851,7 @@
         <v>30</v>
       </c>
       <c r="AM47" s="15" t="s">
-        <v>403</v>
+        <v>29</v>
       </c>
       <c r="AN47" s="12" t="s">
         <v>25</v>
@@ -17839,7 +17859,7 @@
       <c r="AO47" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AP47" s="28" t="s">
+      <c r="AP47" s="25" t="s">
         <v>539</v>
       </c>
       <c r="AQ47" s="13"/>
@@ -17867,20 +17887,20 @@
         <v>2</v>
       </c>
       <c r="H48" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>P_01_03_00_00</v>
+        <f t="shared" si="16"/>
+        <v>P_01_02_00_00</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J48" s="22" t="s">
+      <c r="J48" s="19" t="s">
         <v>540</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L48" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>P01</v>
       </c>
       <c r="M48" s="1" t="s">
@@ -17890,7 +17910,7 @@
         <v>6</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>7</v>
@@ -17905,14 +17925,14 @@
         <v>10</v>
       </c>
       <c r="X48" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z48" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#</v>
       </c>
       <c r="AA48" s="1" t="s">
@@ -17925,13 +17945,13 @@
         <v>14</v>
       </c>
       <c r="AF48" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH48" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AI48" s="1" t="s">
         <v>16</v>
@@ -17943,7 +17963,7 @@
         <v>30</v>
       </c>
       <c r="AM48" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AN48" s="12" t="s">
         <v>25</v>
@@ -17951,12 +17971,12 @@
       <c r="AO48" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AP48" s="28" t="s">
+      <c r="AP48" s="25" t="s">
         <v>539</v>
       </c>
       <c r="AQ48" s="13"/>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
@@ -17979,31 +17999,31 @@
         <v>2</v>
       </c>
       <c r="H49" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>P_02_00_00_00</v>
+        <f t="shared" si="16"/>
+        <v>P_01_03_00_00</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J49" s="22" t="s">
+      <c r="J49" s="19" t="s">
         <v>540</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L49" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>P02</v>
+        <f t="shared" si="17"/>
+        <v>P01</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>522</v>
-      </c>
       <c r="O49" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P49" s="3" t="s">
+        <v>521</v>
+      </c>
       <c r="Q49" s="1" t="s">
         <v>7</v>
       </c>
@@ -18017,14 +18037,14 @@
         <v>10</v>
       </c>
       <c r="X49" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z49" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#</v>
       </c>
       <c r="AA49" s="1" t="s">
@@ -18037,13 +18057,13 @@
         <v>14</v>
       </c>
       <c r="AF49" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH49" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AI49" s="1" t="s">
         <v>16</v>
@@ -18052,10 +18072,10 @@
         <v>516</v>
       </c>
       <c r="AL49" s="15" t="s">
-        <v>404</v>
+        <v>30</v>
       </c>
       <c r="AM49" s="15" t="s">
-        <v>25</v>
+        <v>405</v>
       </c>
       <c r="AN49" s="12" t="s">
         <v>25</v>
@@ -18063,12 +18083,12 @@
       <c r="AO49" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AP49" s="28" t="s">
+      <c r="AP49" s="25" t="s">
         <v>539</v>
       </c>
       <c r="AQ49" s="13"/>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
@@ -18091,31 +18111,31 @@
         <v>2</v>
       </c>
       <c r="H50" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>P_02_01_00_00</v>
+        <f t="shared" si="16"/>
+        <v>P_02_00_00_00</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J50" s="22" t="s">
+      <c r="J50" s="19" t="s">
         <v>540</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L50" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>P02</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N50" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="O50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P50" s="3" t="s">
-        <v>523</v>
-      </c>
       <c r="Q50" s="1" t="s">
         <v>7</v>
       </c>
@@ -18129,14 +18149,14 @@
         <v>10</v>
       </c>
       <c r="X50" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z50" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#</v>
       </c>
       <c r="AA50" s="1" t="s">
@@ -18149,13 +18169,13 @@
         <v>14</v>
       </c>
       <c r="AF50" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH50" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AI50" s="1" t="s">
         <v>16</v>
@@ -18167,7 +18187,7 @@
         <v>404</v>
       </c>
       <c r="AM50" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AN50" s="12" t="s">
         <v>25</v>
@@ -18175,12 +18195,12 @@
       <c r="AO50" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AP50" s="28" t="s">
+      <c r="AP50" s="25" t="s">
         <v>539</v>
       </c>
       <c r="AQ50" s="13"/>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
@@ -18203,20 +18223,20 @@
         <v>2</v>
       </c>
       <c r="H51" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>P_02_01_01_00</v>
+        <f t="shared" si="16"/>
+        <v>P_02_01_00_00</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="22" t="s">
+      <c r="J51" s="19" t="s">
         <v>540</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L51" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>P02</v>
       </c>
       <c r="M51" s="1" t="s">
@@ -18225,15 +18245,15 @@
       <c r="O51" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P51" s="3" t="s">
+        <v>523</v>
+      </c>
       <c r="Q51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T51" s="3" t="s">
-        <v>524</v>
-      </c>
       <c r="U51" s="1" t="s">
         <v>9</v>
       </c>
@@ -18241,14 +18261,14 @@
         <v>10</v>
       </c>
       <c r="X51" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z51" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#</v>
       </c>
       <c r="AA51" s="1" t="s">
@@ -18261,13 +18281,13 @@
         <v>14</v>
       </c>
       <c r="AF51" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AG51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH51" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AI51" s="1" t="s">
         <v>16</v>
@@ -18282,17 +18302,17 @@
         <v>30</v>
       </c>
       <c r="AN51" s="12" t="s">
-        <v>439</v>
+        <v>25</v>
       </c>
       <c r="AO51" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AP51" s="28" t="s">
+      <c r="AP51" s="25" t="s">
         <v>539</v>
       </c>
       <c r="AQ51" s="13"/>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
@@ -18315,20 +18335,20 @@
         <v>2</v>
       </c>
       <c r="H52" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>P_02_01_02_00</v>
+        <f t="shared" si="16"/>
+        <v>P_02_01_01_00</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="22" t="s">
+      <c r="J52" s="19" t="s">
         <v>540</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L52" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>P02</v>
       </c>
       <c r="M52" s="1" t="s">
@@ -18344,7 +18364,7 @@
         <v>8</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>9</v>
@@ -18353,14 +18373,14 @@
         <v>10</v>
       </c>
       <c r="X52" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z52" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#</v>
       </c>
       <c r="AA52" s="1" t="s">
@@ -18373,13 +18393,13 @@
         <v>14</v>
       </c>
       <c r="AF52" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH52" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AI52" s="1" t="s">
         <v>16</v>
@@ -18394,17 +18414,17 @@
         <v>30</v>
       </c>
       <c r="AN52" s="12" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="AO52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AP52" s="28" t="s">
+      <c r="AP52" s="25" t="s">
         <v>539</v>
       </c>
       <c r="AQ52" s="13"/>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -18427,20 +18447,20 @@
         <v>2</v>
       </c>
       <c r="H53" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>P_02_01_02_01</v>
+        <f t="shared" si="16"/>
+        <v>P_02_01_02_00</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J53" s="22" t="s">
+      <c r="J53" s="19" t="s">
         <v>540</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L53" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>P02</v>
       </c>
       <c r="M53" s="1" t="s">
@@ -18455,24 +18475,24 @@
       <c r="S53" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="T53" s="3" t="s">
+        <v>525</v>
+      </c>
       <c r="U53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V53" s="3" t="s">
-        <v>526</v>
-      </c>
       <c r="W53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X53" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z53" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#</v>
       </c>
       <c r="AA53" s="1" t="s">
@@ -18485,13 +18505,13 @@
         <v>14</v>
       </c>
       <c r="AF53" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AG53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH53" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AI53" s="1" t="s">
         <v>16</v>
@@ -18509,14 +18529,14 @@
         <v>403</v>
       </c>
       <c r="AO53" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="AP53" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP53" s="25" t="s">
         <v>539</v>
       </c>
       <c r="AQ53" s="13"/>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -18539,20 +18559,20 @@
         <v>2</v>
       </c>
       <c r="H54" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>P_02_02_00_00</v>
+        <f t="shared" si="16"/>
+        <v>P_02_01_02_01</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J54" s="22" t="s">
+      <c r="J54" s="19" t="s">
         <v>540</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L54" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>P02</v>
       </c>
       <c r="M54" s="1" t="s">
@@ -18561,9 +18581,6 @@
       <c r="O54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>527</v>
-      </c>
       <c r="Q54" s="1" t="s">
         <v>7</v>
       </c>
@@ -18573,18 +18590,21 @@
       <c r="U54" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="V54" s="3" t="s">
+        <v>526</v>
+      </c>
       <c r="W54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X54" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z54" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#</v>
       </c>
       <c r="AA54" s="1" t="s">
@@ -18597,13 +18617,13 @@
         <v>14</v>
       </c>
       <c r="AF54" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH54" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AI54" s="1" t="s">
         <v>16</v>
@@ -18615,20 +18635,20 @@
         <v>404</v>
       </c>
       <c r="AM54" s="15" t="s">
-        <v>404</v>
+        <v>30</v>
       </c>
       <c r="AN54" s="12" t="s">
-        <v>25</v>
+        <v>403</v>
       </c>
       <c r="AO54" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP54" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="AP54" s="25" t="s">
         <v>539</v>
       </c>
       <c r="AQ54" s="13"/>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>17</v>
       </c>
@@ -18651,20 +18671,20 @@
         <v>2</v>
       </c>
       <c r="H55" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>P_02_02_01_00</v>
+        <f t="shared" si="16"/>
+        <v>P_02_02_00_00</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J55" s="22" t="s">
+      <c r="J55" s="19" t="s">
         <v>540</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L55" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>P02</v>
       </c>
       <c r="M55" s="1" t="s">
@@ -18673,15 +18693,15 @@
       <c r="O55" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P55" s="3" t="s">
+        <v>527</v>
+      </c>
       <c r="Q55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T55" s="3" t="s">
-        <v>534</v>
-      </c>
       <c r="U55" s="1" t="s">
         <v>9</v>
       </c>
@@ -18689,14 +18709,14 @@
         <v>10</v>
       </c>
       <c r="X55" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z55" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#</v>
       </c>
       <c r="AA55" s="1" t="s">
@@ -18709,13 +18729,13 @@
         <v>14</v>
       </c>
       <c r="AF55" s="3" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="AG55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH55" s="3" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="AI55" s="1" t="s">
         <v>16</v>
@@ -18730,17 +18750,17 @@
         <v>404</v>
       </c>
       <c r="AN55" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AO55" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AP55" s="28" t="s">
+      <c r="AP55" s="25" t="s">
         <v>539</v>
       </c>
       <c r="AQ55" s="13"/>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>17</v>
       </c>
@@ -18763,20 +18783,20 @@
         <v>2</v>
       </c>
       <c r="H56" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>P_02_02_01_01</v>
+        <f t="shared" si="16"/>
+        <v>P_02_02_01_00</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J56" s="22" t="s">
+      <c r="J56" s="19" t="s">
         <v>540</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L56" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>P02</v>
       </c>
       <c r="M56" s="1" t="s">
@@ -18791,24 +18811,24 @@
       <c r="S56" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="T56" s="3" t="s">
+        <v>534</v>
+      </c>
       <c r="U56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V56" s="3" t="s">
-        <v>536</v>
-      </c>
       <c r="W56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X56" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#</v>
       </c>
       <c r="Y56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z56" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#</v>
       </c>
       <c r="AA56" s="1" t="s">
@@ -18821,13 +18841,13 @@
         <v>14</v>
       </c>
       <c r="AF56" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AG56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH56" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AI56" s="1" t="s">
         <v>16</v>
@@ -18845,14 +18865,14 @@
         <v>30</v>
       </c>
       <c r="AO56" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP56" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP56" s="25" t="s">
         <v>539</v>
       </c>
       <c r="AQ56" s="13"/>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>17</v>
       </c>
@@ -18875,20 +18895,20 @@
         <v>2</v>
       </c>
       <c r="H57" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>P_02_02_01_02</v>
+        <f t="shared" si="16"/>
+        <v>P_02_02_01_01</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J57" s="22" t="s">
+      <c r="J57" s="19" t="s">
         <v>540</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L57" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>P02</v>
       </c>
       <c r="M57" s="1" t="s">
@@ -18907,20 +18927,20 @@
         <v>9</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="W57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X57" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#</v>
       </c>
       <c r="Y57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z57" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#</v>
       </c>
       <c r="AA57" s="1" t="s">
@@ -18933,13 +18953,13 @@
         <v>14</v>
       </c>
       <c r="AF57" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AG57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH57" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AI57" s="1" t="s">
         <v>16</v>
@@ -18957,14 +18977,14 @@
         <v>30</v>
       </c>
       <c r="AO57" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="AP57" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP57" s="25" t="s">
         <v>539</v>
       </c>
       <c r="AQ57" s="13"/>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>17</v>
       </c>
@@ -18987,20 +19007,20 @@
         <v>2</v>
       </c>
       <c r="H58" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>P_02_02_01_03</v>
+        <f t="shared" si="16"/>
+        <v>P_02_02_01_02</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="22" t="s">
+      <c r="J58" s="19" t="s">
         <v>540</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L58" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>P02</v>
       </c>
       <c r="M58" s="1" t="s">
@@ -19019,20 +19039,20 @@
         <v>9</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="W58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X58" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#</v>
       </c>
       <c r="Y58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z58" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#</v>
       </c>
       <c r="AA58" s="1" t="s">
@@ -19045,13 +19065,13 @@
         <v>14</v>
       </c>
       <c r="AF58" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AG58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH58" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AI58" s="1" t="s">
         <v>16</v>
@@ -19069,14 +19089,14 @@
         <v>30</v>
       </c>
       <c r="AO58" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="AP58" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="AP58" s="25" t="s">
         <v>539</v>
       </c>
       <c r="AQ58" s="13"/>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>17</v>
       </c>
@@ -19099,20 +19119,20 @@
         <v>2</v>
       </c>
       <c r="H59" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>P_02_02_02_00</v>
+        <f t="shared" si="16"/>
+        <v>P_02_02_01_03</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J59" s="22" t="s">
+      <c r="J59" s="19" t="s">
         <v>540</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L59" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>P02</v>
       </c>
       <c r="M59" s="1" t="s">
@@ -19127,24 +19147,24 @@
       <c r="S59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>535</v>
-      </c>
       <c r="U59" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="V59" s="3" t="s">
+        <v>538</v>
+      </c>
       <c r="W59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X59" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#</v>
       </c>
       <c r="Y59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z59" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#</v>
       </c>
       <c r="AA59" s="1" t="s">
@@ -19157,13 +19177,13 @@
         <v>14</v>
       </c>
       <c r="AF59" s="3" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AG59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH59" s="3" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AI59" s="1" t="s">
         <v>16</v>
@@ -19178,17 +19198,17 @@
         <v>404</v>
       </c>
       <c r="AN59" s="12" t="s">
-        <v>533</v>
+        <v>30</v>
       </c>
       <c r="AO59" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP59" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="AP59" s="25" t="s">
         <v>539</v>
       </c>
       <c r="AQ59" s="13"/>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>17</v>
       </c>
@@ -19211,28 +19231,25 @@
         <v>2</v>
       </c>
       <c r="H60" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>P_03_00_00_00</v>
+        <f t="shared" si="16"/>
+        <v>P_02_02_02_00</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J60" s="22" t="s">
+      <c r="J60" s="19" t="s">
         <v>540</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L60" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>P03</v>
+        <f t="shared" si="17"/>
+        <v>P02</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>528</v>
-      </c>
       <c r="O60" s="1" t="s">
         <v>6</v>
       </c>
@@ -19242,6 +19259,9 @@
       <c r="S60" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="T60" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="U60" s="1" t="s">
         <v>9</v>
       </c>
@@ -19249,14 +19269,14 @@
         <v>10</v>
       </c>
       <c r="X60" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#</v>
       </c>
       <c r="Y60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z60" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#</v>
       </c>
       <c r="AA60" s="1" t="s">
@@ -19269,13 +19289,13 @@
         <v>14</v>
       </c>
       <c r="AF60" s="3" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="AG60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH60" s="3" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="AI60" s="1" t="s">
         <v>16</v>
@@ -19284,23 +19304,23 @@
         <v>516</v>
       </c>
       <c r="AL60" s="15" t="s">
-        <v>532</v>
+        <v>404</v>
       </c>
       <c r="AM60" s="15" t="s">
-        <v>25</v>
+        <v>404</v>
       </c>
       <c r="AN60" s="12" t="s">
-        <v>25</v>
+        <v>533</v>
       </c>
       <c r="AO60" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AP60" s="28" t="s">
+      <c r="AP60" s="25" t="s">
         <v>539</v>
       </c>
       <c r="AQ60" s="13"/>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>17</v>
       </c>
@@ -19323,31 +19343,31 @@
         <v>2</v>
       </c>
       <c r="H61" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>P_03_01_00_00</v>
+        <f t="shared" si="16"/>
+        <v>P_03_00_00_00</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J61" s="22" t="s">
+      <c r="J61" s="19" t="s">
         <v>540</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L61" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>P03</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N61" s="3" t="s">
+        <v>528</v>
+      </c>
       <c r="O61" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P61" s="3" t="s">
-        <v>529</v>
-      </c>
       <c r="Q61" s="1" t="s">
         <v>7</v>
       </c>
@@ -19361,14 +19381,14 @@
         <v>10</v>
       </c>
       <c r="X61" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#</v>
       </c>
       <c r="Y61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z61" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#</v>
       </c>
       <c r="AA61" s="1" t="s">
@@ -19381,13 +19401,13 @@
         <v>14</v>
       </c>
       <c r="AF61" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH61" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AI61" s="1" t="s">
         <v>16</v>
@@ -19399,7 +19419,7 @@
         <v>532</v>
       </c>
       <c r="AM61" s="15" t="s">
-        <v>439</v>
+        <v>25</v>
       </c>
       <c r="AN61" s="12" t="s">
         <v>25</v>
@@ -19407,12 +19427,12 @@
       <c r="AO61" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AP61" s="28" t="s">
+      <c r="AP61" s="25" t="s">
         <v>539</v>
       </c>
       <c r="AQ61" s="13"/>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
@@ -19435,20 +19455,20 @@
         <v>2</v>
       </c>
       <c r="H62" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>P_03_02_00_00</v>
+        <f t="shared" si="16"/>
+        <v>P_03_01_00_00</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J62" s="22" t="s">
+      <c r="J62" s="19" t="s">
         <v>540</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L62" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>P03</v>
       </c>
       <c r="M62" s="1" t="s">
@@ -19458,7 +19478,7 @@
         <v>6</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q62" s="1" t="s">
         <v>7</v>
@@ -19473,14 +19493,14 @@
         <v>10</v>
       </c>
       <c r="X62" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#</v>
       </c>
       <c r="Y62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z62" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#</v>
       </c>
       <c r="AA62" s="1" t="s">
@@ -19493,13 +19513,13 @@
         <v>14</v>
       </c>
       <c r="AF62" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH62" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AI62" s="1" t="s">
         <v>16</v>
@@ -19511,7 +19531,7 @@
         <v>532</v>
       </c>
       <c r="AM62" s="15" t="s">
-        <v>533</v>
+        <v>439</v>
       </c>
       <c r="AN62" s="12" t="s">
         <v>25</v>
@@ -19519,12 +19539,12 @@
       <c r="AO62" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AP62" s="28" t="s">
+      <c r="AP62" s="25" t="s">
         <v>539</v>
       </c>
       <c r="AQ62" s="13"/>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>17</v>
       </c>
@@ -19547,20 +19567,20 @@
         <v>2</v>
       </c>
       <c r="H63" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>P_03_02_01_00</v>
+        <f t="shared" si="16"/>
+        <v>P_03_02_00_00</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J63" s="22" t="s">
+      <c r="J63" s="19" t="s">
         <v>540</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L63" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>P03</v>
       </c>
       <c r="M63" s="1" t="s">
@@ -19569,15 +19589,15 @@
       <c r="O63" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P63" s="3" t="s">
+        <v>530</v>
+      </c>
       <c r="Q63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T63" s="3" t="s">
-        <v>531</v>
-      </c>
       <c r="U63" s="1" t="s">
         <v>9</v>
       </c>
@@ -19585,14 +19605,14 @@
         <v>10</v>
       </c>
       <c r="X63" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#</v>
       </c>
       <c r="Y63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z63" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#</v>
       </c>
       <c r="AA63" s="1" t="s">
@@ -19605,13 +19625,13 @@
         <v>14</v>
       </c>
       <c r="AF63" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH63" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AI63" s="1" t="s">
         <v>16</v>
@@ -19626,70 +19646,182 @@
         <v>533</v>
       </c>
       <c r="AN63" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AO63" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AP63" s="28" t="s">
+      <c r="AP63" s="25" t="s">
         <v>539</v>
       </c>
       <c r="AQ63" s="13"/>
     </row>
-    <row r="64" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>P_03_02_01_00</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J64" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L64" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>P03</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T64" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X64" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v>#</v>
+      </c>
+      <c r="Y64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z64" s="16" t="str">
+        <f t="shared" si="19"/>
+        <v>#</v>
+      </c>
+      <c r="AA64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF64" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="AG64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH64" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="AI64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK64" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="AL64" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="AM64" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="AN64" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO64" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP64" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="AQ64" s="13"/>
+    </row>
+    <row r="65" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="37" t="s">
         <v>515</v>
       </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
-      <c r="T64" s="18"/>
-      <c r="U64" s="18"/>
-      <c r="V64" s="18"/>
-      <c r="W64" s="18"/>
-      <c r="X64" s="18"/>
-      <c r="Y64" s="18"/>
-      <c r="Z64" s="18"/>
-      <c r="AA64" s="18"/>
-      <c r="AB64" s="18"/>
-      <c r="AC64" s="18"/>
-      <c r="AD64" s="18"/>
-      <c r="AE64" s="18"/>
-      <c r="AF64" s="18"/>
-      <c r="AG64" s="18"/>
-      <c r="AH64" s="18"/>
-      <c r="AI64" s="19"/>
-      <c r="AJ64" s="5"/>
-      <c r="AK64" s="10"/>
-      <c r="AL64" s="11"/>
-      <c r="AM64" s="11"/>
-      <c r="AU64" s="6" t="s">
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="38"/>
+      <c r="AA65" s="38"/>
+      <c r="AB65" s="38"/>
+      <c r="AC65" s="38"/>
+      <c r="AD65" s="38"/>
+      <c r="AE65" s="38"/>
+      <c r="AF65" s="38"/>
+      <c r="AG65" s="38"/>
+      <c r="AH65" s="38"/>
+      <c r="AI65" s="39"/>
+      <c r="AJ65" s="5"/>
+      <c r="AK65" s="10"/>
+      <c r="AL65" s="11"/>
+      <c r="AM65" s="11"/>
+      <c r="AU65" s="6" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:AI2"/>
-    <mergeCell ref="A64:AI64"/>
+    <mergeCell ref="A65:AI65"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D63 B3:B63 F3:F63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F64 B3:B64 D3:D64">
       <formula1>$AU$3:$AU$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/resources/data/menu.xlsx
+++ b/resources/data/menu.xlsx
@@ -11172,10 +11172,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HTML Makeup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
@@ -11718,6 +11714,10 @@
   </si>
   <si>
     <t>09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML Markup</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -12379,8 +12379,8 @@
   <dimension ref="A2:AU65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD17" sqref="AD17"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -12584,14 +12584,14 @@
         <v>25</v>
       </c>
       <c r="AP3" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ3" s="13"/>
       <c r="AR3" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AS3" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AU3" s="7" t="s">
         <v>20</v>
@@ -12705,16 +12705,16 @@
         <v>25</v>
       </c>
       <c r="AP4" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ4" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AR4" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AS4" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AU4" s="6" t="s">
         <v>22</v>
@@ -12828,16 +12828,16 @@
         <v>25</v>
       </c>
       <c r="AP5" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ5" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AR5" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AS5" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.3">
@@ -12939,7 +12939,7 @@
         <v>30</v>
       </c>
       <c r="AM6" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AN6" s="12" t="s">
         <v>25</v>
@@ -12948,16 +12948,16 @@
         <v>25</v>
       </c>
       <c r="AP6" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ6" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AR6" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AS6" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.3">
@@ -13059,7 +13059,7 @@
         <v>30</v>
       </c>
       <c r="AM7" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AN7" s="12" t="s">
         <v>25</v>
@@ -13068,16 +13068,16 @@
         <v>25</v>
       </c>
       <c r="AP7" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ7" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AR7" s="13" t="s">
         <v>400</v>
       </c>
       <c r="AS7" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.3">
@@ -13123,7 +13123,7 @@
         <v>5</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>402</v>
+        <v>546</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>6</v>
@@ -13161,13 +13161,13 @@
         <v>14</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>402</v>
+        <v>546</v>
       </c>
       <c r="AG8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>402</v>
+        <v>546</v>
       </c>
       <c r="AI8" s="1" t="s">
         <v>16</v>
@@ -13176,7 +13176,7 @@
         <v>24</v>
       </c>
       <c r="AL8" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM8" s="15" t="s">
         <v>25</v>
@@ -13188,16 +13188,16 @@
         <v>25</v>
       </c>
       <c r="AP8" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ8" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AR8" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AS8" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.3">
@@ -13246,7 +13246,7 @@
         <v>6</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>7</v>
@@ -13281,13 +13281,13 @@
         <v>14</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AI9" s="1" t="s">
         <v>16</v>
@@ -13296,7 +13296,7 @@
         <v>24</v>
       </c>
       <c r="AL9" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM9" s="15" t="s">
         <v>29</v>
@@ -13308,16 +13308,16 @@
         <v>25</v>
       </c>
       <c r="AP9" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ9" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AR9" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AS9" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.3">
@@ -13366,7 +13366,7 @@
         <v>6</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>7</v>
@@ -13401,13 +13401,13 @@
         <v>14</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH10" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AI10" s="1" t="s">
         <v>16</v>
@@ -13416,10 +13416,10 @@
         <v>24</v>
       </c>
       <c r="AL10" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM10" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AN10" s="12" t="s">
         <v>25</v>
@@ -13428,16 +13428,16 @@
         <v>25</v>
       </c>
       <c r="AP10" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ10" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AR10" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AS10" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.3">
@@ -13486,7 +13486,7 @@
         <v>6</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>7</v>
@@ -13521,13 +13521,13 @@
         <v>14</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH11" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>16</v>
@@ -13536,10 +13536,10 @@
         <v>24</v>
       </c>
       <c r="AL11" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="AM11" s="15" t="s">
         <v>404</v>
-      </c>
-      <c r="AM11" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="AN11" s="12" t="s">
         <v>25</v>
@@ -13548,16 +13548,16 @@
         <v>25</v>
       </c>
       <c r="AP11" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ11" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AR11" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AS11" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.3">
@@ -13606,7 +13606,7 @@
         <v>6</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>7</v>
@@ -13641,13 +13641,13 @@
         <v>14</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AI12" s="1" t="s">
         <v>16</v>
@@ -13656,10 +13656,10 @@
         <v>24</v>
       </c>
       <c r="AL12" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM12" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AN12" s="12" t="s">
         <v>25</v>
@@ -13668,16 +13668,16 @@
         <v>25</v>
       </c>
       <c r="AP12" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ12" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AR12" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AS12" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.3">
@@ -13726,7 +13726,7 @@
         <v>6</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>7</v>
@@ -13761,13 +13761,13 @@
         <v>14</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AI13" s="1" t="s">
         <v>16</v>
@@ -13776,10 +13776,10 @@
         <v>24</v>
       </c>
       <c r="AL13" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM13" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AN13" s="12" t="s">
         <v>25</v>
@@ -13788,16 +13788,16 @@
         <v>25</v>
       </c>
       <c r="AP13" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ13" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AR13" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AS13" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.3">
@@ -13846,7 +13846,7 @@
         <v>6</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>7</v>
@@ -13881,13 +13881,13 @@
         <v>14</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AI14" s="1" t="s">
         <v>16</v>
@@ -13896,10 +13896,10 @@
         <v>24</v>
       </c>
       <c r="AL14" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM14" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AN14" s="12" t="s">
         <v>25</v>
@@ -13908,16 +13908,16 @@
         <v>25</v>
       </c>
       <c r="AP14" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ14" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AR14" s="13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AS14" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.3">
@@ -13966,7 +13966,7 @@
         <v>6</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>7</v>
@@ -14001,13 +14001,13 @@
         <v>14</v>
       </c>
       <c r="AF15" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH15" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AI15" s="1" t="s">
         <v>16</v>
@@ -14016,10 +14016,10 @@
         <v>24</v>
       </c>
       <c r="AL15" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM15" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN15" s="12" t="s">
         <v>25</v>
@@ -14028,16 +14028,16 @@
         <v>25</v>
       </c>
       <c r="AP15" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ15" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AR15" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AS15" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.3">
@@ -14086,7 +14086,7 @@
         <v>6</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>7</v>
@@ -14121,13 +14121,13 @@
         <v>14</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AI16" s="1" t="s">
         <v>16</v>
@@ -14136,10 +14136,10 @@
         <v>24</v>
       </c>
       <c r="AL16" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM16" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AN16" s="12" t="s">
         <v>25</v>
@@ -14148,16 +14148,16 @@
         <v>25</v>
       </c>
       <c r="AP16" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ16" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AR16" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="AS16" s="6" t="s">
         <v>434</v>
-      </c>
-      <c r="AS16" s="6" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.3">
@@ -14206,7 +14206,7 @@
         <v>6</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>7</v>
@@ -14241,13 +14241,13 @@
         <v>14</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH17" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AI17" s="1" t="s">
         <v>16</v>
@@ -14256,10 +14256,10 @@
         <v>24</v>
       </c>
       <c r="AL17" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM17" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AN17" s="12" t="s">
         <v>25</v>
@@ -14268,16 +14268,16 @@
         <v>25</v>
       </c>
       <c r="AP17" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ17" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AR17" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AS17" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.3">
@@ -14323,7 +14323,7 @@
         <v>5</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>6</v>
@@ -14361,13 +14361,13 @@
         <v>14</v>
       </c>
       <c r="AF18" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH18" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AI18" s="1" t="s">
         <v>16</v>
@@ -14376,7 +14376,7 @@
         <v>24</v>
       </c>
       <c r="AL18" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM18" s="15" t="s">
         <v>25</v>
@@ -14388,16 +14388,16 @@
         <v>25</v>
       </c>
       <c r="AP18" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ18" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="AR18" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="AQ18" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR18" s="13" t="s">
-        <v>424</v>
-      </c>
       <c r="AS18" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.3">
@@ -14446,7 +14446,7 @@
         <v>6</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>7</v>
@@ -14481,13 +14481,13 @@
         <v>14</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH19" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AI19" s="1" t="s">
         <v>16</v>
@@ -14496,10 +14496,10 @@
         <v>24</v>
       </c>
       <c r="AL19" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM19" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AN19" s="12" t="s">
         <v>25</v>
@@ -14508,16 +14508,16 @@
         <v>25</v>
       </c>
       <c r="AP19" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ19" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="AR19" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="AQ19" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR19" s="13" t="s">
-        <v>424</v>
-      </c>
       <c r="AS19" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.3">
@@ -14566,7 +14566,7 @@
         <v>6</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>7</v>
@@ -14601,13 +14601,13 @@
         <v>14</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH20" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AI20" s="1" t="s">
         <v>16</v>
@@ -14616,10 +14616,10 @@
         <v>24</v>
       </c>
       <c r="AL20" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM20" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AN20" s="12" t="s">
         <v>25</v>
@@ -14628,16 +14628,16 @@
         <v>25</v>
       </c>
       <c r="AP20" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ20" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR20" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AS20" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.3">
@@ -14686,7 +14686,7 @@
         <v>6</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>7</v>
@@ -14721,13 +14721,13 @@
         <v>14</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH21" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AI21" s="1" t="s">
         <v>16</v>
@@ -14736,10 +14736,10 @@
         <v>24</v>
       </c>
       <c r="AL21" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM21" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AN21" s="12" t="s">
         <v>25</v>
@@ -14748,16 +14748,16 @@
         <v>25</v>
       </c>
       <c r="AP21" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ21" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR21" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AS21" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.3">
@@ -14806,7 +14806,7 @@
         <v>6</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>7</v>
@@ -14841,13 +14841,13 @@
         <v>14</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH22" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AI22" s="1" t="s">
         <v>16</v>
@@ -14856,10 +14856,10 @@
         <v>24</v>
       </c>
       <c r="AL22" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM22" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AN22" s="12" t="s">
         <v>25</v>
@@ -14868,16 +14868,16 @@
         <v>25</v>
       </c>
       <c r="AP22" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ22" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR22" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AS22" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.3">
@@ -14926,7 +14926,7 @@
         <v>6</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>7</v>
@@ -14961,13 +14961,13 @@
         <v>14</v>
       </c>
       <c r="AF23" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH23" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AI23" s="1" t="s">
         <v>16</v>
@@ -14976,10 +14976,10 @@
         <v>24</v>
       </c>
       <c r="AL23" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM23" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AN23" s="12" t="s">
         <v>25</v>
@@ -14988,16 +14988,16 @@
         <v>25</v>
       </c>
       <c r="AP23" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ23" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR23" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AS23" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.3">
@@ -15046,7 +15046,7 @@
         <v>6</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>7</v>
@@ -15081,13 +15081,13 @@
         <v>14</v>
       </c>
       <c r="AF24" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH24" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AI24" s="1" t="s">
         <v>16</v>
@@ -15096,10 +15096,10 @@
         <v>24</v>
       </c>
       <c r="AL24" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM24" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AN24" s="12" t="s">
         <v>25</v>
@@ -15108,16 +15108,16 @@
         <v>25</v>
       </c>
       <c r="AP24" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ24" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR24" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AS24" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.3">
@@ -15166,7 +15166,7 @@
         <v>6</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>7</v>
@@ -15201,13 +15201,13 @@
         <v>14</v>
       </c>
       <c r="AF25" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH25" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AI25" s="1" t="s">
         <v>16</v>
@@ -15216,10 +15216,10 @@
         <v>24</v>
       </c>
       <c r="AL25" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM25" s="15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AN25" s="12" t="s">
         <v>25</v>
@@ -15228,16 +15228,16 @@
         <v>25</v>
       </c>
       <c r="AP25" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ25" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR25" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AS25" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.3">
@@ -15286,7 +15286,7 @@
         <v>6</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>7</v>
@@ -15321,13 +15321,13 @@
         <v>14</v>
       </c>
       <c r="AF26" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH26" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AI26" s="1" t="s">
         <v>16</v>
@@ -15336,10 +15336,10 @@
         <v>24</v>
       </c>
       <c r="AL26" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM26" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AN26" s="12" t="s">
         <v>25</v>
@@ -15348,16 +15348,16 @@
         <v>25</v>
       </c>
       <c r="AP26" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ26" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR26" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AS26" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.3">
@@ -15406,7 +15406,7 @@
         <v>6</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>7</v>
@@ -15441,13 +15441,13 @@
         <v>14</v>
       </c>
       <c r="AF27" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH27" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AI27" s="1" t="s">
         <v>16</v>
@@ -15456,10 +15456,10 @@
         <v>24</v>
       </c>
       <c r="AL27" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM27" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AN27" s="12" t="s">
         <v>25</v>
@@ -15468,16 +15468,16 @@
         <v>25</v>
       </c>
       <c r="AP27" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ27" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR27" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AS27" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.3">
@@ -15526,7 +15526,7 @@
         <v>6</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>7</v>
@@ -15561,13 +15561,13 @@
         <v>14</v>
       </c>
       <c r="AF28" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AG28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH28" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AI28" s="1" t="s">
         <v>16</v>
@@ -15576,10 +15576,10 @@
         <v>24</v>
       </c>
       <c r="AL28" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM28" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AN28" s="12" t="s">
         <v>25</v>
@@ -15588,16 +15588,16 @@
         <v>25</v>
       </c>
       <c r="AP28" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ28" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR28" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AS28" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.3">
@@ -15646,7 +15646,7 @@
         <v>6</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>7</v>
@@ -15681,13 +15681,13 @@
         <v>14</v>
       </c>
       <c r="AF29" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH29" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AI29" s="1" t="s">
         <v>16</v>
@@ -15696,10 +15696,10 @@
         <v>24</v>
       </c>
       <c r="AL29" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM29" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN29" s="12" t="s">
         <v>25</v>
@@ -15708,16 +15708,16 @@
         <v>25</v>
       </c>
       <c r="AP29" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ29" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR29" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AS29" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.3">
@@ -15766,7 +15766,7 @@
         <v>6</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>7</v>
@@ -15801,13 +15801,13 @@
         <v>14</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AG30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH30" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI30" s="1" t="s">
         <v>16</v>
@@ -15816,10 +15816,10 @@
         <v>24</v>
       </c>
       <c r="AL30" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM30" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AN30" s="12" t="s">
         <v>25</v>
@@ -15828,16 +15828,16 @@
         <v>25</v>
       </c>
       <c r="AP30" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ30" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR30" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AS30" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.3">
@@ -15886,7 +15886,7 @@
         <v>6</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>7</v>
@@ -15921,13 +15921,13 @@
         <v>14</v>
       </c>
       <c r="AF31" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH31" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AI31" s="1" t="s">
         <v>16</v>
@@ -15936,10 +15936,10 @@
         <v>24</v>
       </c>
       <c r="AL31" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM31" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN31" s="12" t="s">
         <v>25</v>
@@ -15948,16 +15948,16 @@
         <v>25</v>
       </c>
       <c r="AP31" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ31" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR31" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AS31" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.3">
@@ -16006,7 +16006,7 @@
         <v>6</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>7</v>
@@ -16041,13 +16041,13 @@
         <v>14</v>
       </c>
       <c r="AF32" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH32" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AI32" s="1" t="s">
         <v>16</v>
@@ -16056,10 +16056,10 @@
         <v>24</v>
       </c>
       <c r="AL32" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM32" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AN32" s="12" t="s">
         <v>25</v>
@@ -16068,16 +16068,16 @@
         <v>25</v>
       </c>
       <c r="AP32" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ32" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR32" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AS32" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.3">
@@ -16126,7 +16126,7 @@
         <v>6</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>7</v>
@@ -16161,13 +16161,13 @@
         <v>14</v>
       </c>
       <c r="AF33" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH33" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI33" s="1" t="s">
         <v>16</v>
@@ -16176,10 +16176,10 @@
         <v>24</v>
       </c>
       <c r="AL33" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM33" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AN33" s="12" t="s">
         <v>25</v>
@@ -16188,16 +16188,16 @@
         <v>25</v>
       </c>
       <c r="AP33" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ33" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR33" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AS33" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.3">
@@ -16246,7 +16246,7 @@
         <v>6</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>7</v>
@@ -16281,13 +16281,13 @@
         <v>14</v>
       </c>
       <c r="AF34" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH34" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AI34" s="1" t="s">
         <v>16</v>
@@ -16296,10 +16296,10 @@
         <v>24</v>
       </c>
       <c r="AL34" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM34" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AN34" s="12" t="s">
         <v>25</v>
@@ -16308,16 +16308,16 @@
         <v>25</v>
       </c>
       <c r="AP34" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ34" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR34" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AS34" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.3">
@@ -16366,7 +16366,7 @@
         <v>6</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>7</v>
@@ -16401,13 +16401,13 @@
         <v>14</v>
       </c>
       <c r="AF35" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH35" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AI35" s="1" t="s">
         <v>16</v>
@@ -16416,10 +16416,10 @@
         <v>24</v>
       </c>
       <c r="AL35" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM35" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AN35" s="12" t="s">
         <v>25</v>
@@ -16428,16 +16428,16 @@
         <v>25</v>
       </c>
       <c r="AP35" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ35" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR35" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AS35" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.3">
@@ -16486,7 +16486,7 @@
         <v>6</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>7</v>
@@ -16521,13 +16521,13 @@
         <v>14</v>
       </c>
       <c r="AF36" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AG36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH36" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AI36" s="1" t="s">
         <v>16</v>
@@ -16536,10 +16536,10 @@
         <v>24</v>
       </c>
       <c r="AL36" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM36" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AN36" s="12" t="s">
         <v>25</v>
@@ -16548,16 +16548,16 @@
         <v>25</v>
       </c>
       <c r="AP36" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ36" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR36" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AS36" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.3">
@@ -16606,7 +16606,7 @@
         <v>6</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>7</v>
@@ -16641,13 +16641,13 @@
         <v>14</v>
       </c>
       <c r="AF37" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AG37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH37" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AI37" s="1" t="s">
         <v>16</v>
@@ -16656,10 +16656,10 @@
         <v>24</v>
       </c>
       <c r="AL37" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM37" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AN37" s="12" t="s">
         <v>25</v>
@@ -16668,16 +16668,16 @@
         <v>25</v>
       </c>
       <c r="AP37" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ37" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR37" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AS37" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.3">
@@ -16726,7 +16726,7 @@
         <v>6</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>7</v>
@@ -16761,13 +16761,13 @@
         <v>14</v>
       </c>
       <c r="AF38" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH38" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AI38" s="1" t="s">
         <v>16</v>
@@ -16776,10 +16776,10 @@
         <v>24</v>
       </c>
       <c r="AL38" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM38" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AN38" s="12" t="s">
         <v>25</v>
@@ -16788,16 +16788,16 @@
         <v>25</v>
       </c>
       <c r="AP38" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ38" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR38" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AS38" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.3">
@@ -16846,7 +16846,7 @@
         <v>6</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>7</v>
@@ -16881,13 +16881,13 @@
         <v>14</v>
       </c>
       <c r="AF39" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH39" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AI39" s="1" t="s">
         <v>16</v>
@@ -16896,10 +16896,10 @@
         <v>24</v>
       </c>
       <c r="AL39" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM39" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AN39" s="12" t="s">
         <v>25</v>
@@ -16908,16 +16908,16 @@
         <v>25</v>
       </c>
       <c r="AP39" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ39" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR39" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AS39" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.3">
@@ -16966,7 +16966,7 @@
         <v>6</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>7</v>
@@ -17001,13 +17001,13 @@
         <v>14</v>
       </c>
       <c r="AF40" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH40" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AI40" s="1" t="s">
         <v>16</v>
@@ -17016,10 +17016,10 @@
         <v>24</v>
       </c>
       <c r="AL40" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM40" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AN40" s="12" t="s">
         <v>25</v>
@@ -17028,16 +17028,16 @@
         <v>25</v>
       </c>
       <c r="AP40" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ40" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR40" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AS40" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.3">
@@ -17086,7 +17086,7 @@
         <v>6</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>7</v>
@@ -17121,13 +17121,13 @@
         <v>14</v>
       </c>
       <c r="AF41" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AG41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH41" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AI41" s="1" t="s">
         <v>16</v>
@@ -17136,10 +17136,10 @@
         <v>24</v>
       </c>
       <c r="AL41" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM41" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AN41" s="12" t="s">
         <v>25</v>
@@ -17148,16 +17148,16 @@
         <v>25</v>
       </c>
       <c r="AP41" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ41" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR41" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AS41" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.3">
@@ -17206,7 +17206,7 @@
         <v>6</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>7</v>
@@ -17241,13 +17241,13 @@
         <v>14</v>
       </c>
       <c r="AF42" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AG42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH42" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AI42" s="1" t="s">
         <v>16</v>
@@ -17256,10 +17256,10 @@
         <v>24</v>
       </c>
       <c r="AL42" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM42" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AN42" s="12" t="s">
         <v>25</v>
@@ -17268,16 +17268,16 @@
         <v>25</v>
       </c>
       <c r="AP42" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ42" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR42" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AS42" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.3">
@@ -17326,7 +17326,7 @@
         <v>6</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>7</v>
@@ -17361,13 +17361,13 @@
         <v>14</v>
       </c>
       <c r="AF43" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH43" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI43" s="1" t="s">
         <v>16</v>
@@ -17376,10 +17376,10 @@
         <v>24</v>
       </c>
       <c r="AL43" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM43" s="15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AN43" s="12" t="s">
         <v>25</v>
@@ -17388,16 +17388,16 @@
         <v>25</v>
       </c>
       <c r="AP43" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ43" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR43" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AS43" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:47" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -17446,7 +17446,7 @@
         <v>6</v>
       </c>
       <c r="P44" s="29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Q44" s="27" t="s">
         <v>7</v>
@@ -17481,13 +17481,13 @@
         <v>14</v>
       </c>
       <c r="AF44" s="29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AG44" s="27" t="s">
         <v>15</v>
       </c>
       <c r="AH44" s="29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AI44" s="1" t="s">
         <v>16</v>
@@ -17497,10 +17497,10 @@
         <v>24</v>
       </c>
       <c r="AL44" s="33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM44" s="33" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AN44" s="34" t="s">
         <v>25</v>
@@ -17509,16 +17509,16 @@
         <v>25</v>
       </c>
       <c r="AP44" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ44" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AR44" s="35" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AS44" s="36" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AT44" s="36"/>
       <c r="AU44" s="36"/>
@@ -17553,7 +17553,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K45" s="17" t="s">
         <v>4</v>
@@ -17566,7 +17566,7 @@
         <v>5</v>
       </c>
       <c r="N45" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O45" s="17" t="s">
         <v>6</v>
@@ -17604,20 +17604,20 @@
         <v>14</v>
       </c>
       <c r="AF45" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AG45" s="17" t="s">
         <v>15</v>
       </c>
       <c r="AH45" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AJ45" s="21"/>
       <c r="AK45" s="22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL45" s="23" t="s">
         <v>25</v>
@@ -17632,7 +17632,7 @@
         <v>25</v>
       </c>
       <c r="AP45" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ45" s="25"/>
       <c r="AR45" s="25"/>
@@ -17670,7 +17670,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>4</v>
@@ -17683,7 +17683,7 @@
         <v>5</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>6</v>
@@ -17721,19 +17721,19 @@
         <v>14</v>
       </c>
       <c r="AF46" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH46" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI46" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK46" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL46" s="15" t="s">
         <v>30</v>
@@ -17748,7 +17748,7 @@
         <v>25</v>
       </c>
       <c r="AP46" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ46" s="13"/>
     </row>
@@ -17782,7 +17782,7 @@
         <v>3</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>4</v>
@@ -17798,7 +17798,7 @@
         <v>6</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>7</v>
@@ -17833,19 +17833,19 @@
         <v>14</v>
       </c>
       <c r="AF47" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AG47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH47" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AI47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK47" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL47" s="15" t="s">
         <v>30</v>
@@ -17860,7 +17860,7 @@
         <v>25</v>
       </c>
       <c r="AP47" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ47" s="13"/>
     </row>
@@ -17894,7 +17894,7 @@
         <v>3</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>4</v>
@@ -17910,7 +17910,7 @@
         <v>6</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>7</v>
@@ -17945,25 +17945,25 @@
         <v>14</v>
       </c>
       <c r="AF48" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AG48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH48" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK48" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL48" s="15" t="s">
         <v>30</v>
       </c>
       <c r="AM48" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AN48" s="12" t="s">
         <v>25</v>
@@ -17972,7 +17972,7 @@
         <v>25</v>
       </c>
       <c r="AP48" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ48" s="13"/>
     </row>
@@ -18006,7 +18006,7 @@
         <v>3</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>4</v>
@@ -18022,7 +18022,7 @@
         <v>6</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>7</v>
@@ -18057,25 +18057,25 @@
         <v>14</v>
       </c>
       <c r="AF49" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH49" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AI49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK49" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL49" s="15" t="s">
         <v>30</v>
       </c>
       <c r="AM49" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AN49" s="12" t="s">
         <v>25</v>
@@ -18084,7 +18084,7 @@
         <v>25</v>
       </c>
       <c r="AP49" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ49" s="13"/>
     </row>
@@ -18118,7 +18118,7 @@
         <v>3</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>4</v>
@@ -18131,7 +18131,7 @@
         <v>5</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>6</v>
@@ -18169,22 +18169,22 @@
         <v>14</v>
       </c>
       <c r="AF50" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH50" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AI50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK50" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL50" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM50" s="15" t="s">
         <v>25</v>
@@ -18196,7 +18196,7 @@
         <v>25</v>
       </c>
       <c r="AP50" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ50" s="13"/>
     </row>
@@ -18230,7 +18230,7 @@
         <v>3</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>4</v>
@@ -18246,7 +18246,7 @@
         <v>6</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>7</v>
@@ -18281,22 +18281,22 @@
         <v>14</v>
       </c>
       <c r="AF51" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH51" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AI51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK51" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL51" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM51" s="15" t="s">
         <v>30</v>
@@ -18308,7 +18308,7 @@
         <v>25</v>
       </c>
       <c r="AP51" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ51" s="13"/>
     </row>
@@ -18342,7 +18342,7 @@
         <v>3</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>4</v>
@@ -18364,7 +18364,7 @@
         <v>8</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>9</v>
@@ -18393,34 +18393,34 @@
         <v>14</v>
       </c>
       <c r="AF52" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AG52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH52" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AI52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK52" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL52" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM52" s="15" t="s">
         <v>30</v>
       </c>
       <c r="AN52" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AO52" s="12" t="s">
         <v>25</v>
       </c>
       <c r="AP52" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ52" s="13"/>
     </row>
@@ -18454,7 +18454,7 @@
         <v>3</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>4</v>
@@ -18476,7 +18476,7 @@
         <v>8</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>9</v>
@@ -18505,34 +18505,34 @@
         <v>14</v>
       </c>
       <c r="AF53" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH53" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AI53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK53" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL53" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM53" s="15" t="s">
         <v>30</v>
       </c>
       <c r="AN53" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AO53" s="12" t="s">
         <v>25</v>
       </c>
       <c r="AP53" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ53" s="13"/>
     </row>
@@ -18566,7 +18566,7 @@
         <v>3</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>4</v>
@@ -18591,7 +18591,7 @@
         <v>9</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="W54" s="1" t="s">
         <v>10</v>
@@ -18617,34 +18617,34 @@
         <v>14</v>
       </c>
       <c r="AF54" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AG54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH54" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AI54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK54" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL54" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM54" s="15" t="s">
         <v>30</v>
       </c>
       <c r="AN54" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AO54" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AP54" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ54" s="13"/>
     </row>
@@ -18678,7 +18678,7 @@
         <v>3</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>4</v>
@@ -18694,7 +18694,7 @@
         <v>6</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>7</v>
@@ -18729,25 +18729,25 @@
         <v>14</v>
       </c>
       <c r="AF55" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH55" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AI55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK55" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL55" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM55" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AN55" s="12" t="s">
         <v>25</v>
@@ -18756,7 +18756,7 @@
         <v>25</v>
       </c>
       <c r="AP55" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ55" s="13"/>
     </row>
@@ -18790,7 +18790,7 @@
         <v>3</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>4</v>
@@ -18812,7 +18812,7 @@
         <v>8</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>9</v>
@@ -18841,25 +18841,25 @@
         <v>14</v>
       </c>
       <c r="AF56" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AG56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH56" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI56" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK56" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL56" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM56" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AN56" s="12" t="s">
         <v>30</v>
@@ -18868,7 +18868,7 @@
         <v>25</v>
       </c>
       <c r="AP56" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ56" s="13"/>
     </row>
@@ -18902,7 +18902,7 @@
         <v>3</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>4</v>
@@ -18927,7 +18927,7 @@
         <v>9</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="W57" s="1" t="s">
         <v>10</v>
@@ -18953,25 +18953,25 @@
         <v>14</v>
       </c>
       <c r="AF57" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AG57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH57" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AI57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK57" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL57" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM57" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AN57" s="12" t="s">
         <v>30</v>
@@ -18980,7 +18980,7 @@
         <v>29</v>
       </c>
       <c r="AP57" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ57" s="13"/>
     </row>
@@ -19014,7 +19014,7 @@
         <v>3</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>4</v>
@@ -19039,7 +19039,7 @@
         <v>9</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="W58" s="1" t="s">
         <v>10</v>
@@ -19065,34 +19065,34 @@
         <v>14</v>
       </c>
       <c r="AF58" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AG58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH58" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AI58" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK58" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL58" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM58" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AN58" s="12" t="s">
         <v>30</v>
       </c>
       <c r="AO58" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AP58" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ58" s="13"/>
     </row>
@@ -19126,7 +19126,7 @@
         <v>3</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>4</v>
@@ -19151,7 +19151,7 @@
         <v>9</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="W59" s="1" t="s">
         <v>10</v>
@@ -19177,34 +19177,34 @@
         <v>14</v>
       </c>
       <c r="AF59" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AG59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH59" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AI59" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK59" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL59" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM59" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AN59" s="12" t="s">
         <v>30</v>
       </c>
       <c r="AO59" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AP59" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ59" s="13"/>
     </row>
@@ -19238,7 +19238,7 @@
         <v>3</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>4</v>
@@ -19260,7 +19260,7 @@
         <v>8</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U60" s="1" t="s">
         <v>9</v>
@@ -19289,34 +19289,34 @@
         <v>14</v>
       </c>
       <c r="AF60" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AG60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH60" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AI60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK60" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL60" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM60" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AN60" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AO60" s="12" t="s">
         <v>25</v>
       </c>
       <c r="AP60" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ60" s="13"/>
     </row>
@@ -19350,7 +19350,7 @@
         <v>3</v>
       </c>
       <c r="J61" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>4</v>
@@ -19363,7 +19363,7 @@
         <v>5</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>6</v>
@@ -19401,22 +19401,22 @@
         <v>14</v>
       </c>
       <c r="AF61" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AG61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH61" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AI61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK61" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL61" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AM61" s="15" t="s">
         <v>25</v>
@@ -19428,7 +19428,7 @@
         <v>25</v>
       </c>
       <c r="AP61" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ61" s="13"/>
     </row>
@@ -19462,7 +19462,7 @@
         <v>3</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>4</v>
@@ -19478,7 +19478,7 @@
         <v>6</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q62" s="1" t="s">
         <v>7</v>
@@ -19513,25 +19513,25 @@
         <v>14</v>
       </c>
       <c r="AF62" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH62" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AI62" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK62" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL62" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AM62" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AN62" s="12" t="s">
         <v>25</v>
@@ -19540,7 +19540,7 @@
         <v>25</v>
       </c>
       <c r="AP62" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ62" s="13"/>
     </row>
@@ -19574,7 +19574,7 @@
         <v>3</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>4</v>
@@ -19590,7 +19590,7 @@
         <v>6</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q63" s="1" t="s">
         <v>7</v>
@@ -19625,25 +19625,25 @@
         <v>14</v>
       </c>
       <c r="AF63" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH63" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AI63" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK63" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL63" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM63" s="15" t="s">
         <v>532</v>
-      </c>
-      <c r="AM63" s="15" t="s">
-        <v>533</v>
       </c>
       <c r="AN63" s="12" t="s">
         <v>25</v>
@@ -19652,7 +19652,7 @@
         <v>25</v>
       </c>
       <c r="AP63" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ63" s="13"/>
     </row>
@@ -19686,7 +19686,7 @@
         <v>3</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>4</v>
@@ -19708,7 +19708,7 @@
         <v>8</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="U64" s="1" t="s">
         <v>9</v>
@@ -19737,25 +19737,25 @@
         <v>14</v>
       </c>
       <c r="AF64" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH64" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AI64" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK64" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL64" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM64" s="15" t="s">
         <v>532</v>
-      </c>
-      <c r="AM64" s="15" t="s">
-        <v>533</v>
       </c>
       <c r="AN64" s="12" t="s">
         <v>30</v>
@@ -19764,13 +19764,13 @@
         <v>25</v>
       </c>
       <c r="AP64" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ64" s="13"/>
     </row>
     <row r="65" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="37" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B65" s="38"/>
       <c r="C65" s="38"/>

--- a/resources/data/menu.xlsx
+++ b/resources/data/menu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3295" uniqueCount="549">
   <si>
     <t>{"menu":[</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -11718,6 +11718,14 @@
   </si>
   <si>
     <t>HTML Markup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>markup/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -12376,11 +12384,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AU65"/>
+  <dimension ref="A2:AU66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V40" sqref="V40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:AI66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -12620,7 +12628,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="3" t="str">
-        <f t="shared" ref="H4:H44" si="0">CONCATENATE(AK4,"_",AL4,"_",AM4,"_",AN4,"_",AO4)</f>
+        <f t="shared" ref="H4:H45" si="0">CONCATENATE(AK4,"_",AL4,"_",AM4,"_",AN4,"_",AO4)</f>
         <v>G_01_00_00_00</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -12633,7 +12641,7 @@
         <v>4</v>
       </c>
       <c r="L4" s="3" t="str">
-        <f t="shared" ref="L4:L44" si="1">CONCATENATE(AK4,AL4)</f>
+        <f t="shared" ref="L4:L45" si="1">CONCATENATE(AK4,AL4)</f>
         <v>G01</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -12658,14 +12666,14 @@
         <v>10</v>
       </c>
       <c r="X4" s="16" t="str">
-        <f t="shared" ref="X4:X44" si="2">CONCATENATE(AP4,AQ4,AR4,AS4)</f>
+        <f t="shared" ref="X4:X45" si="2">CONCATENATE(AP4,AQ4,AR4,AS4)</f>
         <v>/netiveUI/html/start/introduction.html</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z4" s="16" t="str">
-        <f t="shared" ref="Z4:Z44" si="3">CONCATENATE(AP4,AQ4,AR4,AS4)</f>
+        <f t="shared" ref="Z4:Z45" si="3">CONCATENATE(AP4,AQ4,AR4,AS4)</f>
         <v>/netiveUI/html/start/introduction.html</v>
       </c>
       <c r="AA4" s="1" t="s">
@@ -12960,245 +12968,251 @@
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:47" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="29" t="str">
         <f t="shared" si="0"/>
         <v>G_01_03_00_00</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="3" t="str">
+      <c r="L7" s="29" t="str">
         <f t="shared" si="1"/>
         <v>G01</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="X7" s="16" t="str">
+      <c r="X7" s="30" t="str">
         <f t="shared" si="2"/>
         <v>/netiveUI/html/start/title.html</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="Z7" s="16" t="str">
+      <c r="Z7" s="30" t="str">
         <f t="shared" si="3"/>
         <v>/netiveUI/html/start/title.html</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AA7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AC7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AE7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AF7" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="AG7" s="1" t="s">
+      <c r="AG7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AH7" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AI7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AK7" s="14" t="s">
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AL7" s="15" t="s">
+      <c r="AL7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AM7" s="15" t="s">
+      <c r="AM7" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="AN7" s="12" t="s">
+      <c r="AN7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AO7" s="12" t="s">
+      <c r="AO7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AP7" s="13" t="s">
+      <c r="AP7" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="AQ7" s="13" t="s">
+      <c r="AQ7" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="AR7" s="13" t="s">
+      <c r="AR7" s="35" t="s">
         <v>400</v>
       </c>
-      <c r="AS7" s="6" t="s">
+      <c r="AS7" s="36" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="AT7" s="36"/>
+      <c r="AU7" s="36"/>
+    </row>
+    <row r="8" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="3" t="str">
+      <c r="H8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>G_02_00_00_00</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3" t="str">
+      <c r="L8" s="19" t="str">
         <f t="shared" si="1"/>
         <v>G02</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="X8" s="16" t="str">
+      <c r="X8" s="20" t="str">
         <f t="shared" si="2"/>
         <v>/netiveUI/html/markup/list.html</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Y8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Z8" s="16" t="str">
+      <c r="Z8" s="20" t="str">
         <f t="shared" si="3"/>
         <v>/netiveUI/html/markup/list.html</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AA8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AC8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AE8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AF8" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="AG8" s="1" t="s">
+      <c r="AG8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AH8" s="3" t="s">
+      <c r="AH8" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AI8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AK8" s="14" t="s">
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AL8" s="15" t="s">
+      <c r="AL8" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="AM8" s="15" t="s">
+      <c r="AM8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AN8" s="12" t="s">
+      <c r="AN8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AO8" s="12" t="s">
+      <c r="AO8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AP8" s="13" t="s">
+      <c r="AP8" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="AQ8" s="13" t="s">
+      <c r="AQ8" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="AR8" s="13" t="s">
+      <c r="AR8" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="AS8" s="6" t="s">
+      <c r="AS8" s="26" t="s">
         <v>434</v>
       </c>
+      <c r="AT8" s="26"/>
+      <c r="AU8" s="26"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -13583,8 +13597,8 @@
         <v>2</v>
       </c>
       <c r="H12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>G_02_07_00_00</v>
+        <f t="shared" ref="H12" si="4">CONCATENATE(AK12,"_",AL12,"_",AM12,"_",AN12,"_",AO12)</f>
+        <v>G_02_10_00_00</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>3</v>
@@ -13596,7 +13610,7 @@
         <v>4</v>
       </c>
       <c r="L12" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L12" si="5">CONCATENATE(AK12,AL12)</f>
         <v>G02</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -13606,7 +13620,7 @@
         <v>6</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>7</v>
@@ -13621,15 +13635,15 @@
         <v>10</v>
       </c>
       <c r="X12" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>/netiveUI/html/markup/layout.html</v>
+        <f t="shared" ref="X12" si="6">CONCATENATE(AP12,AQ12,AR12,AS12)</f>
+        <v>/netiveUI/html/markup/inputFormat.html</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z12" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>/netiveUI/html/markup/layout.html</v>
+        <f t="shared" ref="Z12" si="7">CONCATENATE(AP12,AQ12,AR12,AS12)</f>
+        <v>/netiveUI/html/markup/inputFormat.html</v>
       </c>
       <c r="AA12" s="1" t="s">
         <v>12</v>
@@ -13641,13 +13655,13 @@
         <v>14</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="AG12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="AI12" s="1" t="s">
         <v>16</v>
@@ -13659,7 +13673,7 @@
         <v>403</v>
       </c>
       <c r="AM12" s="15" t="s">
-        <v>420</v>
+        <v>548</v>
       </c>
       <c r="AN12" s="12" t="s">
         <v>25</v>
@@ -13674,7 +13688,7 @@
         <v>436</v>
       </c>
       <c r="AR12" s="13" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="AS12" s="6" t="s">
         <v>434</v>
@@ -13704,7 +13718,7 @@
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_02_04_00_00</v>
+        <v>G_02_07_00_00</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>3</v>
@@ -13726,7 +13740,7 @@
         <v>6</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>7</v>
@@ -13742,14 +13756,14 @@
       </c>
       <c r="X13" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/markup/margin.html</v>
+        <v>/netiveUI/html/markup/layout.html</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z13" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/markup/margin.html</v>
+        <v>/netiveUI/html/markup/layout.html</v>
       </c>
       <c r="AA13" s="1" t="s">
         <v>12</v>
@@ -13761,13 +13775,13 @@
         <v>14</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AG13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AI13" s="1" t="s">
         <v>16</v>
@@ -13779,7 +13793,7 @@
         <v>403</v>
       </c>
       <c r="AM13" s="15" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AN13" s="12" t="s">
         <v>25</v>
@@ -13794,7 +13808,7 @@
         <v>436</v>
       </c>
       <c r="AR13" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AS13" s="6" t="s">
         <v>434</v>
@@ -13823,8 +13837,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="3" t="str">
-        <f t="shared" ref="H14" si="4">CONCATENATE(AK14,"_",AL14,"_",AM14,"_",AN14,"_",AO14)</f>
-        <v>G_02_09_00_00</v>
+        <f t="shared" si="0"/>
+        <v>G_02_04_00_00</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>3</v>
@@ -13836,7 +13850,7 @@
         <v>4</v>
       </c>
       <c r="L14" s="3" t="str">
-        <f t="shared" ref="L14" si="5">CONCATENATE(AK14,AL14)</f>
+        <f t="shared" si="1"/>
         <v>G02</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -13846,7 +13860,7 @@
         <v>6</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>543</v>
+        <v>411</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>7</v>
@@ -13861,15 +13875,15 @@
         <v>10</v>
       </c>
       <c r="X14" s="16" t="str">
-        <f t="shared" ref="X14" si="6">CONCATENATE(AP14,AQ14,AR14,AS14)</f>
-        <v>/netiveUI/html/markup/placeholder.html</v>
+        <f t="shared" si="2"/>
+        <v>/netiveUI/html/markup/margin.html</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z14" s="16" t="str">
-        <f t="shared" ref="Z14" si="7">CONCATENATE(AP14,AQ14,AR14,AS14)</f>
-        <v>/netiveUI/html/markup/placeholder.html</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/markup/margin.html</v>
       </c>
       <c r="AA14" s="1" t="s">
         <v>12</v>
@@ -13881,13 +13895,13 @@
         <v>14</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>543</v>
+        <v>411</v>
       </c>
       <c r="AG14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>543</v>
+        <v>411</v>
       </c>
       <c r="AI14" s="1" t="s">
         <v>16</v>
@@ -13899,7 +13913,7 @@
         <v>403</v>
       </c>
       <c r="AM14" s="15" t="s">
-        <v>545</v>
+        <v>417</v>
       </c>
       <c r="AN14" s="12" t="s">
         <v>25</v>
@@ -13914,7 +13928,7 @@
         <v>436</v>
       </c>
       <c r="AR14" s="13" t="s">
-        <v>544</v>
+        <v>431</v>
       </c>
       <c r="AS14" s="6" t="s">
         <v>434</v>
@@ -13943,8 +13957,8 @@
         <v>2</v>
       </c>
       <c r="H15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>G_02_05_00_00</v>
+        <f t="shared" ref="H15" si="8">CONCATENATE(AK15,"_",AL15,"_",AM15,"_",AN15,"_",AO15)</f>
+        <v>G_02_09_00_00</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>3</v>
@@ -13956,7 +13970,7 @@
         <v>4</v>
       </c>
       <c r="L15" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L15" si="9">CONCATENATE(AK15,AL15)</f>
         <v>G02</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -13966,7 +13980,7 @@
         <v>6</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>412</v>
+        <v>543</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>7</v>
@@ -13981,15 +13995,15 @@
         <v>10</v>
       </c>
       <c r="X15" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>/netiveUI/html/markup/table.html</v>
+        <f t="shared" ref="X15" si="10">CONCATENATE(AP15,AQ15,AR15,AS15)</f>
+        <v>/netiveUI/html/markup/placeholder.html</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z15" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>/netiveUI/html/markup/table.html</v>
+        <f t="shared" ref="Z15" si="11">CONCATENATE(AP15,AQ15,AR15,AS15)</f>
+        <v>/netiveUI/html/markup/placeholder.html</v>
       </c>
       <c r="AA15" s="1" t="s">
         <v>12</v>
@@ -14001,13 +14015,13 @@
         <v>14</v>
       </c>
       <c r="AF15" s="3" t="s">
-        <v>413</v>
+        <v>543</v>
       </c>
       <c r="AG15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH15" s="3" t="s">
-        <v>413</v>
+        <v>543</v>
       </c>
       <c r="AI15" s="1" t="s">
         <v>16</v>
@@ -14019,7 +14033,7 @@
         <v>403</v>
       </c>
       <c r="AM15" s="15" t="s">
-        <v>418</v>
+        <v>545</v>
       </c>
       <c r="AN15" s="12" t="s">
         <v>25</v>
@@ -14031,10 +14045,10 @@
         <v>422</v>
       </c>
       <c r="AQ15" s="13" t="s">
-        <v>436</v>
+        <v>547</v>
       </c>
       <c r="AR15" s="13" t="s">
-        <v>432</v>
+        <v>544</v>
       </c>
       <c r="AS15" s="6" t="s">
         <v>434</v>
@@ -14064,7 +14078,7 @@
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_02_06_00_00</v>
+        <v>G_02_05_00_00</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>3</v>
@@ -14086,7 +14100,7 @@
         <v>6</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>7</v>
@@ -14102,14 +14116,14 @@
       </c>
       <c r="X16" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/markup/typography.html</v>
+        <v>/netiveUI/html/markup/table.html</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z16" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/markup/typography.html</v>
+        <v>/netiveUI/html/markup/table.html</v>
       </c>
       <c r="AA16" s="1" t="s">
         <v>12</v>
@@ -14121,13 +14135,13 @@
         <v>14</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AI16" s="1" t="s">
         <v>16</v>
@@ -14139,7 +14153,7 @@
         <v>403</v>
       </c>
       <c r="AM16" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN16" s="12" t="s">
         <v>25</v>
@@ -14154,13 +14168,13 @@
         <v>436</v>
       </c>
       <c r="AR16" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AS16" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -14183,8 +14197,8 @@
         <v>2</v>
       </c>
       <c r="H17" s="3" t="str">
-        <f t="shared" ref="H17" si="8">CONCATENATE(AK17,"_",AL17,"_",AM17,"_",AN17,"_",AO17)</f>
-        <v>G_02_08_00_00</v>
+        <f t="shared" si="0"/>
+        <v>G_02_06_00_00</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>3</v>
@@ -14196,7 +14210,7 @@
         <v>4</v>
       </c>
       <c r="L17" s="3" t="str">
-        <f t="shared" ref="L17" si="9">CONCATENATE(AK17,AL17)</f>
+        <f t="shared" si="1"/>
         <v>G02</v>
       </c>
       <c r="M17" s="1" t="s">
@@ -14206,7 +14220,7 @@
         <v>6</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>540</v>
+        <v>414</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>7</v>
@@ -14221,15 +14235,15 @@
         <v>10</v>
       </c>
       <c r="X17" s="16" t="str">
-        <f t="shared" ref="X17" si="10">CONCATENATE(AP17,AQ17,AR17,AS17)</f>
-        <v>/netiveUI/html/markup/units.html</v>
+        <f t="shared" si="2"/>
+        <v>/netiveUI/html/markup/typography.html</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z17" s="16" t="str">
-        <f t="shared" ref="Z17" si="11">CONCATENATE(AP17,AQ17,AR17,AS17)</f>
-        <v>/netiveUI/html/markup/units.html</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/markup/typography.html</v>
       </c>
       <c r="AA17" s="1" t="s">
         <v>12</v>
@@ -14241,13 +14255,13 @@
         <v>14</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>540</v>
+        <v>414</v>
       </c>
       <c r="AG17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH17" s="3" t="s">
-        <v>540</v>
+        <v>414</v>
       </c>
       <c r="AI17" s="1" t="s">
         <v>16</v>
@@ -14259,7 +14273,7 @@
         <v>403</v>
       </c>
       <c r="AM17" s="15" t="s">
-        <v>542</v>
+        <v>419</v>
       </c>
       <c r="AN17" s="12" t="s">
         <v>25</v>
@@ -14274,277 +14288,283 @@
         <v>436</v>
       </c>
       <c r="AR17" s="13" t="s">
-        <v>541</v>
+        <v>433</v>
       </c>
       <c r="AS17" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:47" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="3" t="str">
+      <c r="H18" s="29" t="str">
+        <f t="shared" ref="H18" si="12">CONCATENATE(AK18,"_",AL18,"_",AM18,"_",AN18,"_",AO18)</f>
+        <v>G_02_08_00_00</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="29" t="str">
+        <f t="shared" ref="L18" si="13">CONCATENATE(AK18,AL18)</f>
+        <v>G02</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="W18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="X18" s="30" t="str">
+        <f t="shared" ref="X18" si="14">CONCATENATE(AP18,AQ18,AR18,AS18)</f>
+        <v>/netiveUI/html/markup/units.html</v>
+      </c>
+      <c r="Y18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z18" s="30" t="str">
+        <f t="shared" ref="Z18" si="15">CONCATENATE(AP18,AQ18,AR18,AS18)</f>
+        <v>/netiveUI/html/markup/units.html</v>
+      </c>
+      <c r="AA18" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC18" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE18" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF18" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="AG18" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH18" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="AI18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL18" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="AM18" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="AN18" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO18" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP18" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ18" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="AR18" s="35" t="s">
+        <v>541</v>
+      </c>
+      <c r="AS18" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="AT18" s="36"/>
+      <c r="AU18" s="36"/>
+    </row>
+    <row r="19" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="19" t="str">
         <f t="shared" si="0"/>
         <v>G_03_00_00_00</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I19" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J19" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3" t="str">
+      <c r="L19" s="19" t="str">
         <f t="shared" si="1"/>
         <v>G03</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N19" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q19" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="W19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="X18" s="16" t="str">
+      <c r="X19" s="20" t="str">
         <f t="shared" si="2"/>
         <v>/netiveUI/html/components/accordion.html</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Y19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Z18" s="16" t="str">
+      <c r="Z19" s="20" t="str">
         <f t="shared" si="3"/>
         <v>/netiveUI/html/components/accordion.html</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AA19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AC19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AE18" s="1" t="s">
+      <c r="AE19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AF18" s="3" t="s">
+      <c r="AF19" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="AG18" s="1" t="s">
+      <c r="AG19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AH18" s="3" t="s">
+      <c r="AH19" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="AI18" s="1" t="s">
+      <c r="AI19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AK18" s="14" t="s">
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AL18" s="15" t="s">
+      <c r="AL19" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="AM18" s="15" t="s">
+      <c r="AM19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AN18" s="12" t="s">
+      <c r="AN19" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AO18" s="12" t="s">
+      <c r="AO19" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AP18" s="13" t="s">
+      <c r="AP19" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="AQ18" s="13" t="s">
+      <c r="AQ19" s="25" t="s">
         <v>435</v>
       </c>
-      <c r="AR18" s="13" t="s">
+      <c r="AR19" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="AS18" s="6" t="s">
+      <c r="AS19" s="26" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="AT19" s="26"/>
+      <c r="AU19" s="26"/>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="3" t="str">
+      <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>G_03_01_00_00</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>G03</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X19" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/accordion.html</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z19" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/accordion.html</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="AG19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH19" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="AI19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL19" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="AM19" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="AN19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP19" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="AQ19" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="AR19" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="AS19" s="6" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>G_03_02_00_00</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>3</v>
@@ -14566,7 +14586,7 @@
         <v>6</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>7</v>
@@ -14582,14 +14602,14 @@
       </c>
       <c r="X20" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/brickList.html</v>
+        <v>/netiveUI/html/components/accordion.html</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z20" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/brickList.html</v>
+        <v>/netiveUI/html/components/accordion.html</v>
       </c>
       <c r="AA20" s="1" t="s">
         <v>12</v>
@@ -14601,13 +14621,13 @@
         <v>14</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="AG20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH20" s="3" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="AI20" s="1" t="s">
         <v>16</v>
@@ -14619,7 +14639,7 @@
         <v>416</v>
       </c>
       <c r="AM20" s="15" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="AN20" s="12" t="s">
         <v>25</v>
@@ -14634,13 +14654,13 @@
         <v>435</v>
       </c>
       <c r="AR20" s="13" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="AS20" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -14664,7 +14684,7 @@
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_03_00_00</v>
+        <v>G_03_02_00_00</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>3</v>
@@ -14686,7 +14706,7 @@
         <v>6</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>7</v>
@@ -14702,14 +14722,14 @@
       </c>
       <c r="X21" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/capture.html</v>
+        <v>/netiveUI/html/components/brickList.html</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z21" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/capture.html</v>
+        <v>/netiveUI/html/components/brickList.html</v>
       </c>
       <c r="AA21" s="1" t="s">
         <v>12</v>
@@ -14721,13 +14741,13 @@
         <v>14</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH21" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AI21" s="1" t="s">
         <v>16</v>
@@ -14739,7 +14759,7 @@
         <v>416</v>
       </c>
       <c r="AM21" s="15" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="AN21" s="12" t="s">
         <v>25</v>
@@ -14754,13 +14774,13 @@
         <v>435</v>
       </c>
       <c r="AR21" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AS21" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -14784,7 +14804,7 @@
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_04_00_00</v>
+        <v>G_03_03_00_00</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>3</v>
@@ -14806,7 +14826,7 @@
         <v>6</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>7</v>
@@ -14822,14 +14842,14 @@
       </c>
       <c r="X22" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/countNumber.html</v>
+        <v>/netiveUI/html/components/capture.html</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z22" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/countNumber.html</v>
+        <v>/netiveUI/html/components/capture.html</v>
       </c>
       <c r="AA22" s="1" t="s">
         <v>12</v>
@@ -14841,13 +14861,13 @@
         <v>14</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AG22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH22" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AI22" s="1" t="s">
         <v>16</v>
@@ -14859,7 +14879,7 @@
         <v>416</v>
       </c>
       <c r="AM22" s="15" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="AN22" s="12" t="s">
         <v>25</v>
@@ -14874,13 +14894,13 @@
         <v>435</v>
       </c>
       <c r="AR22" s="13" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AS22" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -14904,7 +14924,7 @@
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_05_00_00</v>
+        <v>G_03_04_00_00</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>3</v>
@@ -14926,7 +14946,7 @@
         <v>6</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>7</v>
@@ -14942,14 +14962,14 @@
       </c>
       <c r="X23" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/datePicker.html</v>
+        <v>/netiveUI/html/components/countNumber.html</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z23" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/datePicker.html</v>
+        <v>/netiveUI/html/components/countNumber.html</v>
       </c>
       <c r="AA23" s="1" t="s">
         <v>12</v>
@@ -14961,13 +14981,13 @@
         <v>14</v>
       </c>
       <c r="AF23" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AG23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH23" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AI23" s="1" t="s">
         <v>16</v>
@@ -14979,7 +14999,7 @@
         <v>416</v>
       </c>
       <c r="AM23" s="15" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AN23" s="12" t="s">
         <v>25</v>
@@ -14994,13 +15014,13 @@
         <v>435</v>
       </c>
       <c r="AR23" s="13" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AS23" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -15024,7 +15044,7 @@
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_06_00_00</v>
+        <v>G_03_05_00_00</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>3</v>
@@ -15046,7 +15066,7 @@
         <v>6</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>7</v>
@@ -15062,14 +15082,14 @@
       </c>
       <c r="X24" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/dropdown.html</v>
+        <v>/netiveUI/html/components/datePicker.html</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z24" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/dropdown.html</v>
+        <v>/netiveUI/html/components/datePicker.html</v>
       </c>
       <c r="AA24" s="1" t="s">
         <v>12</v>
@@ -15081,13 +15101,13 @@
         <v>14</v>
       </c>
       <c r="AF24" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AG24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH24" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AI24" s="1" t="s">
         <v>16</v>
@@ -15099,7 +15119,7 @@
         <v>416</v>
       </c>
       <c r="AM24" s="15" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AN24" s="12" t="s">
         <v>25</v>
@@ -15114,13 +15134,13 @@
         <v>435</v>
       </c>
       <c r="AR24" s="13" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AS24" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -15144,7 +15164,7 @@
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_07_00_00</v>
+        <v>G_03_06_00_00</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>3</v>
@@ -15166,7 +15186,7 @@
         <v>6</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>7</v>
@@ -15182,14 +15202,14 @@
       </c>
       <c r="X25" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/fileUpload.html</v>
+        <v>/netiveUI/html/components/dropdown.html</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z25" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/fileUpload.html</v>
+        <v>/netiveUI/html/components/dropdown.html</v>
       </c>
       <c r="AA25" s="1" t="s">
         <v>12</v>
@@ -15201,13 +15221,13 @@
         <v>14</v>
       </c>
       <c r="AF25" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AG25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH25" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AI25" s="1" t="s">
         <v>16</v>
@@ -15219,7 +15239,7 @@
         <v>416</v>
       </c>
       <c r="AM25" s="15" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AN25" s="12" t="s">
         <v>25</v>
@@ -15234,13 +15254,13 @@
         <v>435</v>
       </c>
       <c r="AR25" s="13" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AS25" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -15264,7 +15284,7 @@
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_08_00_00</v>
+        <v>G_03_07_00_00</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>3</v>
@@ -15286,7 +15306,7 @@
         <v>6</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>7</v>
@@ -15302,14 +15322,14 @@
       </c>
       <c r="X26" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/floating.html</v>
+        <v>/netiveUI/html/components/fileUpload.html</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z26" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/floating.html</v>
+        <v>/netiveUI/html/components/fileUpload.html</v>
       </c>
       <c r="AA26" s="1" t="s">
         <v>12</v>
@@ -15321,13 +15341,13 @@
         <v>14</v>
       </c>
       <c r="AF26" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AG26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH26" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AI26" s="1" t="s">
         <v>16</v>
@@ -15339,7 +15359,7 @@
         <v>416</v>
       </c>
       <c r="AM26" s="15" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AN26" s="12" t="s">
         <v>25</v>
@@ -15354,13 +15374,13 @@
         <v>435</v>
       </c>
       <c r="AR26" s="13" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AS26" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -15384,7 +15404,7 @@
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_24_00_00</v>
+        <v>G_03_08_00_00</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>3</v>
@@ -15406,7 +15426,7 @@
         <v>6</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>7</v>
@@ -15422,14 +15442,14 @@
       </c>
       <c r="X27" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/floatingRange.html</v>
+        <v>/netiveUI/html/components/floating.html</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z27" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/floatingRange.html</v>
+        <v>/netiveUI/html/components/floating.html</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>12</v>
@@ -15441,13 +15461,13 @@
         <v>14</v>
       </c>
       <c r="AF27" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AG27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH27" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AI27" s="1" t="s">
         <v>16</v>
@@ -15459,7 +15479,7 @@
         <v>416</v>
       </c>
       <c r="AM27" s="15" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AN27" s="12" t="s">
         <v>25</v>
@@ -15474,13 +15494,13 @@
         <v>435</v>
       </c>
       <c r="AR27" s="13" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AS27" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -15504,7 +15524,7 @@
       </c>
       <c r="H28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_09_00_00</v>
+        <v>G_03_24_00_00</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>3</v>
@@ -15526,7 +15546,7 @@
         <v>6</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>7</v>
@@ -15542,14 +15562,14 @@
       </c>
       <c r="X28" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/inputFormat.html</v>
+        <v>/netiveUI/html/components/floatingRange.html</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z28" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/inputFormat.html</v>
+        <v>/netiveUI/html/components/floatingRange.html</v>
       </c>
       <c r="AA28" s="1" t="s">
         <v>12</v>
@@ -15561,13 +15581,13 @@
         <v>14</v>
       </c>
       <c r="AF28" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AG28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH28" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AI28" s="1" t="s">
         <v>16</v>
@@ -15579,7 +15599,7 @@
         <v>416</v>
       </c>
       <c r="AM28" s="15" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AN28" s="12" t="s">
         <v>25</v>
@@ -15594,13 +15614,13 @@
         <v>435</v>
       </c>
       <c r="AR28" s="13" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AS28" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -15624,7 +15644,7 @@
       </c>
       <c r="H29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_10_00_00</v>
+        <v>G_03_09_00_00</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>3</v>
@@ -15646,7 +15666,7 @@
         <v>6</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>7</v>
@@ -15662,14 +15682,14 @@
       </c>
       <c r="X29" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/jsonCodingList.html</v>
+        <v>/netiveUI/html/components/inputFormat.html</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z29" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/jsonCodingList.html</v>
+        <v>/netiveUI/html/components/inputFormat.html</v>
       </c>
       <c r="AA29" s="1" t="s">
         <v>12</v>
@@ -15681,13 +15701,13 @@
         <v>14</v>
       </c>
       <c r="AF29" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AG29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH29" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AI29" s="1" t="s">
         <v>16</v>
@@ -15699,7 +15719,7 @@
         <v>416</v>
       </c>
       <c r="AM29" s="15" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AN29" s="12" t="s">
         <v>25</v>
@@ -15714,13 +15734,13 @@
         <v>435</v>
       </c>
       <c r="AR29" s="13" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AS29" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -15744,7 +15764,7 @@
       </c>
       <c r="H30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_11_00_00</v>
+        <v>G_03_10_00_00</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>3</v>
@@ -15766,7 +15786,7 @@
         <v>6</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>7</v>
@@ -15782,14 +15802,14 @@
       </c>
       <c r="X30" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/jsonMenu.html</v>
+        <v>/netiveUI/html/components/jsonCodingList.html</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z30" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/jsonMenu.html</v>
+        <v>/netiveUI/html/components/jsonCodingList.html</v>
       </c>
       <c r="AA30" s="1" t="s">
         <v>12</v>
@@ -15801,13 +15821,13 @@
         <v>14</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AG30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH30" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AI30" s="1" t="s">
         <v>16</v>
@@ -15819,7 +15839,7 @@
         <v>416</v>
       </c>
       <c r="AM30" s="15" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AN30" s="12" t="s">
         <v>25</v>
@@ -15834,13 +15854,13 @@
         <v>435</v>
       </c>
       <c r="AR30" s="13" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AS30" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -15864,7 +15884,7 @@
       </c>
       <c r="H31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_12_00_00</v>
+        <v>G_03_11_00_00</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>3</v>
@@ -15886,7 +15906,7 @@
         <v>6</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>7</v>
@@ -15902,14 +15922,14 @@
       </c>
       <c r="X31" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/loading.html</v>
+        <v>/netiveUI/html/components/jsonMenu.html</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z31" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/loading.html</v>
+        <v>/netiveUI/html/components/jsonMenu.html</v>
       </c>
       <c r="AA31" s="1" t="s">
         <v>12</v>
@@ -15921,13 +15941,13 @@
         <v>14</v>
       </c>
       <c r="AF31" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AG31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH31" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AI31" s="1" t="s">
         <v>16</v>
@@ -15939,7 +15959,7 @@
         <v>416</v>
       </c>
       <c r="AM31" s="15" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AN31" s="12" t="s">
         <v>25</v>
@@ -15954,13 +15974,13 @@
         <v>435</v>
       </c>
       <c r="AR31" s="13" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AS31" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
@@ -15984,7 +16004,7 @@
       </c>
       <c r="H32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_13_00_00</v>
+        <v>G_03_12_00_00</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>3</v>
@@ -16006,7 +16026,7 @@
         <v>6</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>7</v>
@@ -16022,14 +16042,14 @@
       </c>
       <c r="X32" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/modal.html</v>
+        <v>/netiveUI/html/components/loading.html</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z32" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/modal.html</v>
+        <v>/netiveUI/html/components/loading.html</v>
       </c>
       <c r="AA32" s="1" t="s">
         <v>12</v>
@@ -16041,13 +16061,13 @@
         <v>14</v>
       </c>
       <c r="AF32" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AG32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH32" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AI32" s="1" t="s">
         <v>16</v>
@@ -16059,7 +16079,7 @@
         <v>416</v>
       </c>
       <c r="AM32" s="15" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AN32" s="12" t="s">
         <v>25</v>
@@ -16074,7 +16094,7 @@
         <v>435</v>
       </c>
       <c r="AR32" s="13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AS32" s="6" t="s">
         <v>434</v>
@@ -16104,7 +16124,7 @@
       </c>
       <c r="H33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_14_00_00</v>
+        <v>G_03_13_00_00</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>3</v>
@@ -16126,7 +16146,7 @@
         <v>6</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>7</v>
@@ -16142,14 +16162,14 @@
       </c>
       <c r="X33" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/popup.html</v>
+        <v>/netiveUI/html/components/modal.html</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z33" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/popup.html</v>
+        <v>/netiveUI/html/components/modal.html</v>
       </c>
       <c r="AA33" s="1" t="s">
         <v>12</v>
@@ -16161,13 +16181,13 @@
         <v>14</v>
       </c>
       <c r="AF33" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AG33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH33" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AI33" s="1" t="s">
         <v>16</v>
@@ -16179,7 +16199,7 @@
         <v>416</v>
       </c>
       <c r="AM33" s="15" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AN33" s="12" t="s">
         <v>25</v>
@@ -16194,7 +16214,7 @@
         <v>435</v>
       </c>
       <c r="AR33" s="13" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AS33" s="6" t="s">
         <v>434</v>
@@ -16224,7 +16244,7 @@
       </c>
       <c r="H34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_23_00_00</v>
+        <v>G_03_14_00_00</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>3</v>
@@ -16246,7 +16266,7 @@
         <v>6</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>7</v>
@@ -16262,14 +16282,14 @@
       </c>
       <c r="X34" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/print.html</v>
+        <v>/netiveUI/html/components/popup.html</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z34" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/print.html</v>
+        <v>/netiveUI/html/components/popup.html</v>
       </c>
       <c r="AA34" s="1" t="s">
         <v>12</v>
@@ -16281,13 +16301,13 @@
         <v>14</v>
       </c>
       <c r="AF34" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AG34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH34" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AI34" s="1" t="s">
         <v>16</v>
@@ -16299,7 +16319,7 @@
         <v>416</v>
       </c>
       <c r="AM34" s="15" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AN34" s="12" t="s">
         <v>25</v>
@@ -16314,7 +16334,7 @@
         <v>435</v>
       </c>
       <c r="AR34" s="13" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AS34" s="6" t="s">
         <v>434</v>
@@ -16344,7 +16364,7 @@
       </c>
       <c r="H35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_25_00_00</v>
+        <v>G_03_23_00_00</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>3</v>
@@ -16366,7 +16386,7 @@
         <v>6</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>7</v>
@@ -16382,14 +16402,14 @@
       </c>
       <c r="X35" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/scrollBar.html</v>
+        <v>/netiveUI/html/components/print.html</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z35" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/scrollBar.html</v>
+        <v>/netiveUI/html/components/print.html</v>
       </c>
       <c r="AA35" s="1" t="s">
         <v>12</v>
@@ -16401,13 +16421,13 @@
         <v>14</v>
       </c>
       <c r="AF35" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AG35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH35" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AI35" s="1" t="s">
         <v>16</v>
@@ -16419,7 +16439,7 @@
         <v>416</v>
       </c>
       <c r="AM35" s="15" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AN35" s="12" t="s">
         <v>25</v>
@@ -16434,7 +16454,7 @@
         <v>435</v>
       </c>
       <c r="AR35" s="13" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AS35" s="6" t="s">
         <v>434</v>
@@ -16464,7 +16484,7 @@
       </c>
       <c r="H36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_26_00_00</v>
+        <v>G_03_25_00_00</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>3</v>
@@ -16486,7 +16506,7 @@
         <v>6</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>7</v>
@@ -16502,14 +16522,14 @@
       </c>
       <c r="X36" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/scrollBgImg.html</v>
+        <v>/netiveUI/html/components/scrollBar.html</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z36" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/scrollBgImg.html</v>
+        <v>/netiveUI/html/components/scrollBar.html</v>
       </c>
       <c r="AA36" s="1" t="s">
         <v>12</v>
@@ -16521,13 +16541,13 @@
         <v>14</v>
       </c>
       <c r="AF36" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AG36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH36" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AI36" s="1" t="s">
         <v>16</v>
@@ -16539,7 +16559,7 @@
         <v>416</v>
       </c>
       <c r="AM36" s="15" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AN36" s="12" t="s">
         <v>25</v>
@@ -16554,7 +16574,7 @@
         <v>435</v>
       </c>
       <c r="AR36" s="13" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AS36" s="6" t="s">
         <v>434</v>
@@ -16584,7 +16604,7 @@
       </c>
       <c r="H37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_15_00_00</v>
+        <v>G_03_26_00_00</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>3</v>
@@ -16606,7 +16626,7 @@
         <v>6</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>7</v>
@@ -16622,14 +16642,14 @@
       </c>
       <c r="X37" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/scrollMove.html</v>
+        <v>/netiveUI/html/components/scrollBgImg.html</v>
       </c>
       <c r="Y37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z37" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/scrollMove.html</v>
+        <v>/netiveUI/html/components/scrollBgImg.html</v>
       </c>
       <c r="AA37" s="1" t="s">
         <v>12</v>
@@ -16641,13 +16661,13 @@
         <v>14</v>
       </c>
       <c r="AF37" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AG37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH37" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AI37" s="1" t="s">
         <v>16</v>
@@ -16659,7 +16679,7 @@
         <v>416</v>
       </c>
       <c r="AM37" s="15" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AN37" s="12" t="s">
         <v>25</v>
@@ -16674,7 +16694,7 @@
         <v>435</v>
       </c>
       <c r="AR37" s="13" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AS37" s="6" t="s">
         <v>434</v>
@@ -16704,7 +16724,7 @@
       </c>
       <c r="H38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_16_00_00</v>
+        <v>G_03_15_00_00</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>3</v>
@@ -16726,7 +16746,7 @@
         <v>6</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>7</v>
@@ -16742,14 +16762,14 @@
       </c>
       <c r="X38" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/select.html</v>
+        <v>/netiveUI/html/components/scrollMove.html</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z38" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/select.html</v>
+        <v>/netiveUI/html/components/scrollMove.html</v>
       </c>
       <c r="AA38" s="1" t="s">
         <v>12</v>
@@ -16761,13 +16781,13 @@
         <v>14</v>
       </c>
       <c r="AF38" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AG38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH38" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AI38" s="1" t="s">
         <v>16</v>
@@ -16779,7 +16799,7 @@
         <v>416</v>
       </c>
       <c r="AM38" s="15" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AN38" s="12" t="s">
         <v>25</v>
@@ -16794,7 +16814,7 @@
         <v>435</v>
       </c>
       <c r="AR38" s="13" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AS38" s="6" t="s">
         <v>434</v>
@@ -16824,7 +16844,7 @@
       </c>
       <c r="H39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_17_00_00</v>
+        <v>G_03_16_00_00</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>3</v>
@@ -16846,7 +16866,7 @@
         <v>6</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>7</v>
@@ -16862,14 +16882,14 @@
       </c>
       <c r="X39" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/selection.html</v>
+        <v>/netiveUI/html/components/select.html</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z39" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/selection.html</v>
+        <v>/netiveUI/html/components/select.html</v>
       </c>
       <c r="AA39" s="1" t="s">
         <v>12</v>
@@ -16881,13 +16901,13 @@
         <v>14</v>
       </c>
       <c r="AF39" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AG39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH39" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AI39" s="1" t="s">
         <v>16</v>
@@ -16899,7 +16919,7 @@
         <v>416</v>
       </c>
       <c r="AM39" s="15" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AN39" s="12" t="s">
         <v>25</v>
@@ -16914,7 +16934,7 @@
         <v>435</v>
       </c>
       <c r="AR39" s="13" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AS39" s="6" t="s">
         <v>434</v>
@@ -16944,7 +16964,7 @@
       </c>
       <c r="H40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_18_00_00</v>
+        <v>G_03_17_00_00</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>3</v>
@@ -16966,7 +16986,7 @@
         <v>6</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>7</v>
@@ -16982,14 +17002,14 @@
       </c>
       <c r="X40" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/slide.html</v>
+        <v>/netiveUI/html/components/selection.html</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z40" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/slide.html</v>
+        <v>/netiveUI/html/components/selection.html</v>
       </c>
       <c r="AA40" s="1" t="s">
         <v>12</v>
@@ -17001,13 +17021,13 @@
         <v>14</v>
       </c>
       <c r="AF40" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AG40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH40" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AI40" s="1" t="s">
         <v>16</v>
@@ -17019,7 +17039,7 @@
         <v>416</v>
       </c>
       <c r="AM40" s="15" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AN40" s="12" t="s">
         <v>25</v>
@@ -17034,7 +17054,7 @@
         <v>435</v>
       </c>
       <c r="AR40" s="13" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AS40" s="6" t="s">
         <v>434</v>
@@ -17064,7 +17084,7 @@
       </c>
       <c r="H41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_19_00_00</v>
+        <v>G_03_18_00_00</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>3</v>
@@ -17086,7 +17106,7 @@
         <v>6</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>7</v>
@@ -17102,14 +17122,14 @@
       </c>
       <c r="X41" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/slider.html</v>
+        <v>/netiveUI/html/components/slide.html</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z41" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/slider.html</v>
+        <v>/netiveUI/html/components/slide.html</v>
       </c>
       <c r="AA41" s="1" t="s">
         <v>12</v>
@@ -17121,13 +17141,13 @@
         <v>14</v>
       </c>
       <c r="AF41" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AG41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH41" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AI41" s="1" t="s">
         <v>16</v>
@@ -17139,7 +17159,7 @@
         <v>416</v>
       </c>
       <c r="AM41" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AN41" s="12" t="s">
         <v>25</v>
@@ -17154,7 +17174,7 @@
         <v>435</v>
       </c>
       <c r="AR41" s="13" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AS41" s="6" t="s">
         <v>434</v>
@@ -17184,7 +17204,7 @@
       </c>
       <c r="H42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_20_00_00</v>
+        <v>G_03_19_00_00</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>3</v>
@@ -17206,7 +17226,7 @@
         <v>6</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>7</v>
@@ -17222,14 +17242,14 @@
       </c>
       <c r="X42" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/slot.html</v>
+        <v>/netiveUI/html/components/slider.html</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z42" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/slot.html</v>
+        <v>/netiveUI/html/components/slider.html</v>
       </c>
       <c r="AA42" s="1" t="s">
         <v>12</v>
@@ -17241,13 +17261,13 @@
         <v>14</v>
       </c>
       <c r="AF42" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AG42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH42" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AI42" s="1" t="s">
         <v>16</v>
@@ -17259,7 +17279,7 @@
         <v>416</v>
       </c>
       <c r="AM42" s="15" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AN42" s="12" t="s">
         <v>25</v>
@@ -17274,7 +17294,7 @@
         <v>435</v>
       </c>
       <c r="AR42" s="13" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AS42" s="6" t="s">
         <v>434</v>
@@ -17304,7 +17324,7 @@
       </c>
       <c r="H43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_21_00_00</v>
+        <v>G_03_20_00_00</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>3</v>
@@ -17326,7 +17346,7 @@
         <v>6</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>7</v>
@@ -17342,14 +17362,14 @@
       </c>
       <c r="X43" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/tab.html</v>
+        <v>/netiveUI/html/components/slot.html</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z43" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/tab.html</v>
+        <v>/netiveUI/html/components/slot.html</v>
       </c>
       <c r="AA43" s="1" t="s">
         <v>12</v>
@@ -17361,13 +17381,13 @@
         <v>14</v>
       </c>
       <c r="AF43" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AG43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH43" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AI43" s="1" t="s">
         <v>16</v>
@@ -17379,7 +17399,7 @@
         <v>416</v>
       </c>
       <c r="AM43" s="15" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AN43" s="12" t="s">
         <v>25</v>
@@ -17394,363 +17414,371 @@
         <v>435</v>
       </c>
       <c r="AR43" s="13" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AS43" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="44" spans="1:47" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="27" t="s">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="27" t="s">
+      <c r="G44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="29" t="str">
+      <c r="H44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>G_03_21_00_00</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>G03</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X44" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>/netiveUI/html/components/tab.html</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z44" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components/tab.html</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF44" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="AG44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH44" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="AI44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK44" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL44" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="AM44" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="AN44" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO44" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP44" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ44" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="AR44" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS44" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="29" t="str">
         <f t="shared" si="0"/>
         <v>G_03_22_00_00</v>
       </c>
-      <c r="I44" s="27" t="s">
+      <c r="I45" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J44" s="29" t="s">
+      <c r="J45" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="K44" s="27" t="s">
+      <c r="K45" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="29" t="str">
+      <c r="L45" s="29" t="str">
         <f t="shared" si="1"/>
         <v>G03</v>
       </c>
-      <c r="M44" s="27" t="s">
+      <c r="M45" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O44" s="27" t="s">
+      <c r="O45" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P44" s="29" t="s">
+      <c r="P45" s="29" t="s">
         <v>511</v>
       </c>
-      <c r="Q44" s="27" t="s">
+      <c r="Q45" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S44" s="27" t="s">
+      <c r="S45" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="U44" s="27" t="s">
+      <c r="U45" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="W44" s="27" t="s">
+      <c r="W45" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="X44" s="30" t="str">
+      <c r="X45" s="30" t="str">
         <f t="shared" si="2"/>
         <v>/netiveUI/html/components/tooltip.html</v>
       </c>
-      <c r="Y44" s="27" t="s">
+      <c r="Y45" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="Z44" s="30" t="str">
+      <c r="Z45" s="30" t="str">
         <f t="shared" si="3"/>
         <v>/netiveUI/html/components/tooltip.html</v>
       </c>
-      <c r="AA44" s="27" t="s">
+      <c r="AA45" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AC44" s="27" t="s">
+      <c r="AC45" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AE44" s="27" t="s">
+      <c r="AE45" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AF44" s="29" t="s">
+      <c r="AF45" s="29" t="s">
         <v>511</v>
       </c>
-      <c r="AG44" s="27" t="s">
+      <c r="AG45" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AH44" s="29" t="s">
+      <c r="AH45" s="29" t="s">
         <v>511</v>
-      </c>
-      <c r="AI44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ44" s="31"/>
-      <c r="AK44" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL44" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="AM44" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="AN44" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO44" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP44" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="AQ44" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="AR44" s="35" t="s">
-        <v>513</v>
-      </c>
-      <c r="AS44" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="AT44" s="36"/>
-      <c r="AU44" s="36"/>
-    </row>
-    <row r="45" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H45" s="19" t="str">
-        <f t="shared" ref="H45" si="12">CONCATENATE(AK45,"_",AL45,"_",AM45,"_",AN45,"_",AO45)</f>
-        <v>P_00_00_00_00</v>
-      </c>
-      <c r="I45" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="19" t="s">
-        <v>539</v>
-      </c>
-      <c r="K45" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="19" t="str">
-        <f t="shared" ref="L45" si="13">CONCATENATE(AK45,AL45)</f>
-        <v>P00</v>
-      </c>
-      <c r="M45" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="O45" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q45" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="S45" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="U45" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="W45" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="X45" s="20" t="str">
-        <f t="shared" ref="X45" si="14">CONCATENATE(AP45,AQ45,AR45,AS45)</f>
-        <v>#</v>
-      </c>
-      <c r="Y45" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z45" s="20" t="str">
-        <f t="shared" ref="Z45" si="15">CONCATENATE(AP45,AQ45,AR45,AS45)</f>
-        <v>#</v>
-      </c>
-      <c r="AA45" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC45" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE45" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF45" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="AG45" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH45" s="19" t="s">
-        <v>516</v>
       </c>
       <c r="AI45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AJ45" s="21"/>
-      <c r="AK45" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="AL45" s="23" t="s">
+      <c r="AJ45" s="31"/>
+      <c r="AK45" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL45" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AM45" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="AN45" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AM45" s="23" t="s">
+      <c r="AO45" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AN45" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO45" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP45" s="25" t="s">
-        <v>538</v>
-      </c>
-      <c r="AQ45" s="25"/>
-      <c r="AR45" s="25"/>
-      <c r="AS45" s="26"/>
-      <c r="AT45" s="26"/>
-      <c r="AU45" s="26"/>
-    </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="AP45" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ45" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="AR45" s="35" t="s">
+        <v>513</v>
+      </c>
+      <c r="AS45" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="AT45" s="36"/>
+      <c r="AU45" s="36"/>
+    </row>
+    <row r="46" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H46" s="3" t="str">
-        <f t="shared" ref="H46:H64" si="16">CONCATENATE(AK46,"_",AL46,"_",AM46,"_",AN46,"_",AO46)</f>
-        <v>P_01_00_00_00</v>
-      </c>
-      <c r="I46" s="1" t="s">
+      <c r="H46" s="19" t="str">
+        <f t="shared" ref="H46" si="16">CONCATENATE(AK46,"_",AL46,"_",AM46,"_",AN46,"_",AO46)</f>
+        <v>P_00_00_00_00</v>
+      </c>
+      <c r="I46" s="17" t="s">
         <v>3</v>
       </c>
       <c r="J46" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K46" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="3" t="str">
-        <f t="shared" ref="L46:L64" si="17">CONCATENATE(AK46,AL46)</f>
-        <v>P01</v>
-      </c>
-      <c r="M46" s="1" t="s">
+      <c r="L46" s="19" t="str">
+        <f t="shared" ref="L46" si="17">CONCATENATE(AK46,AL46)</f>
+        <v>P00</v>
+      </c>
+      <c r="M46" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="O46" s="1" t="s">
+      <c r="N46" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="O46" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="Q46" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="S46" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="U46" s="1" t="s">
+      <c r="U46" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="W46" s="1" t="s">
+      <c r="W46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="X46" s="16" t="str">
-        <f t="shared" ref="X46:X64" si="18">CONCATENATE(AP46,AQ46,AR46,AS46)</f>
+      <c r="X46" s="20" t="str">
+        <f t="shared" ref="X46" si="18">CONCATENATE(AP46,AQ46,AR46,AS46)</f>
         <v>#</v>
       </c>
-      <c r="Y46" s="1" t="s">
+      <c r="Y46" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Z46" s="16" t="str">
-        <f t="shared" ref="Z46:Z64" si="19">CONCATENATE(AP46,AQ46,AR46,AS46)</f>
+      <c r="Z46" s="20" t="str">
+        <f t="shared" ref="Z46" si="19">CONCATENATE(AP46,AQ46,AR46,AS46)</f>
         <v>#</v>
       </c>
-      <c r="AA46" s="1" t="s">
+      <c r="AA46" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AC46" s="1" t="s">
+      <c r="AC46" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AE46" s="1" t="s">
+      <c r="AE46" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AF46" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="AG46" s="1" t="s">
+      <c r="AF46" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="AG46" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AH46" s="3" t="s">
-        <v>517</v>
+      <c r="AH46" s="19" t="s">
+        <v>516</v>
       </c>
       <c r="AI46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AK46" s="14" t="s">
+      <c r="AJ46" s="21"/>
+      <c r="AK46" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="AL46" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM46" s="15" t="s">
+      <c r="AL46" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AN46" s="12" t="s">
+      <c r="AM46" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AO46" s="12" t="s">
+      <c r="AN46" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO46" s="24" t="s">
         <v>25</v>
       </c>
       <c r="AP46" s="25" t="s">
         <v>538</v>
       </c>
-      <c r="AQ46" s="13"/>
+      <c r="AQ46" s="25"/>
+      <c r="AR46" s="25"/>
+      <c r="AS46" s="26"/>
+      <c r="AT46" s="26"/>
+      <c r="AU46" s="26"/>
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -17775,8 +17803,8 @@
         <v>2</v>
       </c>
       <c r="H47" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>P_01_01_00_00</v>
+        <f t="shared" ref="H47:H65" si="20">CONCATENATE(AK47,"_",AL47,"_",AM47,"_",AN47,"_",AO47)</f>
+        <v>P_01_00_00_00</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>3</v>
@@ -17788,18 +17816,18 @@
         <v>4</v>
       </c>
       <c r="L47" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="L47:L65" si="21">CONCATENATE(AK47,AL47)</f>
         <v>P01</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N47" s="3" t="s">
+        <v>517</v>
+      </c>
       <c r="O47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>518</v>
-      </c>
       <c r="Q47" s="1" t="s">
         <v>7</v>
       </c>
@@ -17813,14 +17841,14 @@
         <v>10</v>
       </c>
       <c r="X47" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="X47:X65" si="22">CONCATENATE(AP47,AQ47,AR47,AS47)</f>
         <v>#</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z47" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="Z47:Z65" si="23">CONCATENATE(AP47,AQ47,AR47,AS47)</f>
         <v>#</v>
       </c>
       <c r="AA47" s="1" t="s">
@@ -17833,13 +17861,13 @@
         <v>14</v>
       </c>
       <c r="AF47" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH47" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI47" s="1" t="s">
         <v>16</v>
@@ -17851,7 +17879,7 @@
         <v>30</v>
       </c>
       <c r="AM47" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AN47" s="12" t="s">
         <v>25</v>
@@ -17887,8 +17915,8 @@
         <v>2</v>
       </c>
       <c r="H48" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>P_01_02_00_00</v>
+        <f t="shared" si="20"/>
+        <v>P_01_01_00_00</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>3</v>
@@ -17900,7 +17928,7 @@
         <v>4</v>
       </c>
       <c r="L48" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>P01</v>
       </c>
       <c r="M48" s="1" t="s">
@@ -17910,7 +17938,7 @@
         <v>6</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>7</v>
@@ -17925,14 +17953,14 @@
         <v>10</v>
       </c>
       <c r="X48" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z48" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#</v>
       </c>
       <c r="AA48" s="1" t="s">
@@ -17945,13 +17973,13 @@
         <v>14</v>
       </c>
       <c r="AF48" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AG48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH48" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AI48" s="1" t="s">
         <v>16</v>
@@ -17963,7 +17991,7 @@
         <v>30</v>
       </c>
       <c r="AM48" s="15" t="s">
-        <v>402</v>
+        <v>29</v>
       </c>
       <c r="AN48" s="12" t="s">
         <v>25</v>
@@ -17999,8 +18027,8 @@
         <v>2</v>
       </c>
       <c r="H49" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>P_01_03_00_00</v>
+        <f t="shared" si="20"/>
+        <v>P_01_02_00_00</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>3</v>
@@ -18012,7 +18040,7 @@
         <v>4</v>
       </c>
       <c r="L49" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>P01</v>
       </c>
       <c r="M49" s="1" t="s">
@@ -18022,7 +18050,7 @@
         <v>6</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>7</v>
@@ -18037,14 +18065,14 @@
         <v>10</v>
       </c>
       <c r="X49" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z49" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#</v>
       </c>
       <c r="AA49" s="1" t="s">
@@ -18057,13 +18085,13 @@
         <v>14</v>
       </c>
       <c r="AF49" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AG49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH49" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI49" s="1" t="s">
         <v>16</v>
@@ -18075,7 +18103,7 @@
         <v>30</v>
       </c>
       <c r="AM49" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AN49" s="12" t="s">
         <v>25</v>
@@ -18111,8 +18139,8 @@
         <v>2</v>
       </c>
       <c r="H50" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>P_02_00_00_00</v>
+        <f t="shared" si="20"/>
+        <v>P_01_03_00_00</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>3</v>
@@ -18124,18 +18152,18 @@
         <v>4</v>
       </c>
       <c r="L50" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>P02</v>
+        <f t="shared" si="21"/>
+        <v>P01</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N50" s="3" t="s">
-        <v>521</v>
-      </c>
       <c r="O50" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P50" s="3" t="s">
+        <v>520</v>
+      </c>
       <c r="Q50" s="1" t="s">
         <v>7</v>
       </c>
@@ -18149,14 +18177,14 @@
         <v>10</v>
       </c>
       <c r="X50" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z50" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#</v>
       </c>
       <c r="AA50" s="1" t="s">
@@ -18169,13 +18197,13 @@
         <v>14</v>
       </c>
       <c r="AF50" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH50" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AI50" s="1" t="s">
         <v>16</v>
@@ -18184,10 +18212,10 @@
         <v>515</v>
       </c>
       <c r="AL50" s="15" t="s">
-        <v>403</v>
+        <v>30</v>
       </c>
       <c r="AM50" s="15" t="s">
-        <v>25</v>
+        <v>404</v>
       </c>
       <c r="AN50" s="12" t="s">
         <v>25</v>
@@ -18223,8 +18251,8 @@
         <v>2</v>
       </c>
       <c r="H51" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>P_02_01_00_00</v>
+        <f t="shared" si="20"/>
+        <v>P_02_00_00_00</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>3</v>
@@ -18236,18 +18264,18 @@
         <v>4</v>
       </c>
       <c r="L51" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>P02</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N51" s="3" t="s">
+        <v>521</v>
+      </c>
       <c r="O51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P51" s="3" t="s">
-        <v>522</v>
-      </c>
       <c r="Q51" s="1" t="s">
         <v>7</v>
       </c>
@@ -18261,14 +18289,14 @@
         <v>10</v>
       </c>
       <c r="X51" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z51" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#</v>
       </c>
       <c r="AA51" s="1" t="s">
@@ -18281,13 +18309,13 @@
         <v>14</v>
       </c>
       <c r="AF51" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH51" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AI51" s="1" t="s">
         <v>16</v>
@@ -18299,7 +18327,7 @@
         <v>403</v>
       </c>
       <c r="AM51" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AN51" s="12" t="s">
         <v>25</v>
@@ -18335,8 +18363,8 @@
         <v>2</v>
       </c>
       <c r="H52" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>P_02_01_01_00</v>
+        <f t="shared" si="20"/>
+        <v>P_02_01_00_00</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>3</v>
@@ -18348,7 +18376,7 @@
         <v>4</v>
       </c>
       <c r="L52" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>P02</v>
       </c>
       <c r="M52" s="1" t="s">
@@ -18357,15 +18385,15 @@
       <c r="O52" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P52" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="Q52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>523</v>
-      </c>
       <c r="U52" s="1" t="s">
         <v>9</v>
       </c>
@@ -18373,14 +18401,14 @@
         <v>10</v>
       </c>
       <c r="X52" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z52" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#</v>
       </c>
       <c r="AA52" s="1" t="s">
@@ -18393,13 +18421,13 @@
         <v>14</v>
       </c>
       <c r="AF52" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH52" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AI52" s="1" t="s">
         <v>16</v>
@@ -18414,7 +18442,7 @@
         <v>30</v>
       </c>
       <c r="AN52" s="12" t="s">
-        <v>438</v>
+        <v>25</v>
       </c>
       <c r="AO52" s="12" t="s">
         <v>25</v>
@@ -18447,8 +18475,8 @@
         <v>2</v>
       </c>
       <c r="H53" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>P_02_01_02_00</v>
+        <f t="shared" si="20"/>
+        <v>P_02_01_01_00</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>3</v>
@@ -18460,7 +18488,7 @@
         <v>4</v>
       </c>
       <c r="L53" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>P02</v>
       </c>
       <c r="M53" s="1" t="s">
@@ -18476,7 +18504,7 @@
         <v>8</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>9</v>
@@ -18485,14 +18513,14 @@
         <v>10</v>
       </c>
       <c r="X53" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z53" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#</v>
       </c>
       <c r="AA53" s="1" t="s">
@@ -18505,13 +18533,13 @@
         <v>14</v>
       </c>
       <c r="AF53" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AG53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH53" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AI53" s="1" t="s">
         <v>16</v>
@@ -18526,7 +18554,7 @@
         <v>30</v>
       </c>
       <c r="AN53" s="12" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="AO53" s="12" t="s">
         <v>25</v>
@@ -18559,8 +18587,8 @@
         <v>2</v>
       </c>
       <c r="H54" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>P_02_01_02_01</v>
+        <f t="shared" si="20"/>
+        <v>P_02_01_02_00</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>3</v>
@@ -18572,7 +18600,7 @@
         <v>4</v>
       </c>
       <c r="L54" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>P02</v>
       </c>
       <c r="M54" s="1" t="s">
@@ -18587,24 +18615,24 @@
       <c r="S54" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="T54" s="3" t="s">
+        <v>524</v>
+      </c>
       <c r="U54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="W54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X54" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z54" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#</v>
       </c>
       <c r="AA54" s="1" t="s">
@@ -18617,13 +18645,13 @@
         <v>14</v>
       </c>
       <c r="AF54" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH54" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AI54" s="1" t="s">
         <v>16</v>
@@ -18641,7 +18669,7 @@
         <v>402</v>
       </c>
       <c r="AO54" s="12" t="s">
-        <v>438</v>
+        <v>25</v>
       </c>
       <c r="AP54" s="25" t="s">
         <v>538</v>
@@ -18671,8 +18699,8 @@
         <v>2</v>
       </c>
       <c r="H55" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>P_02_02_00_00</v>
+        <f t="shared" si="20"/>
+        <v>P_02_01_02_01</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>3</v>
@@ -18684,7 +18712,7 @@
         <v>4</v>
       </c>
       <c r="L55" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>P02</v>
       </c>
       <c r="M55" s="1" t="s">
@@ -18693,9 +18721,6 @@
       <c r="O55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P55" s="3" t="s">
-        <v>526</v>
-      </c>
       <c r="Q55" s="1" t="s">
         <v>7</v>
       </c>
@@ -18705,18 +18730,21 @@
       <c r="U55" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="V55" s="3" t="s">
+        <v>525</v>
+      </c>
       <c r="W55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X55" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z55" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#</v>
       </c>
       <c r="AA55" s="1" t="s">
@@ -18729,13 +18757,13 @@
         <v>14</v>
       </c>
       <c r="AF55" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AG55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH55" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AI55" s="1" t="s">
         <v>16</v>
@@ -18747,13 +18775,13 @@
         <v>403</v>
       </c>
       <c r="AM55" s="15" t="s">
-        <v>403</v>
+        <v>30</v>
       </c>
       <c r="AN55" s="12" t="s">
-        <v>25</v>
+        <v>402</v>
       </c>
       <c r="AO55" s="12" t="s">
-        <v>25</v>
+        <v>438</v>
       </c>
       <c r="AP55" s="25" t="s">
         <v>538</v>
@@ -18783,8 +18811,8 @@
         <v>2</v>
       </c>
       <c r="H56" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>P_02_02_01_00</v>
+        <f t="shared" si="20"/>
+        <v>P_02_02_00_00</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>3</v>
@@ -18796,7 +18824,7 @@
         <v>4</v>
       </c>
       <c r="L56" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>P02</v>
       </c>
       <c r="M56" s="1" t="s">
@@ -18805,15 +18833,15 @@
       <c r="O56" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P56" s="3" t="s">
+        <v>526</v>
+      </c>
       <c r="Q56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T56" s="3" t="s">
-        <v>533</v>
-      </c>
       <c r="U56" s="1" t="s">
         <v>9</v>
       </c>
@@ -18821,14 +18849,14 @@
         <v>10</v>
       </c>
       <c r="X56" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#</v>
       </c>
       <c r="Y56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z56" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#</v>
       </c>
       <c r="AA56" s="1" t="s">
@@ -18841,13 +18869,13 @@
         <v>14</v>
       </c>
       <c r="AF56" s="3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AG56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH56" s="3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AI56" s="1" t="s">
         <v>16</v>
@@ -18862,7 +18890,7 @@
         <v>403</v>
       </c>
       <c r="AN56" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AO56" s="12" t="s">
         <v>25</v>
@@ -18895,8 +18923,8 @@
         <v>2</v>
       </c>
       <c r="H57" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>P_02_02_01_01</v>
+        <f t="shared" si="20"/>
+        <v>P_02_02_01_00</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>3</v>
@@ -18908,7 +18936,7 @@
         <v>4</v>
       </c>
       <c r="L57" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>P02</v>
       </c>
       <c r="M57" s="1" t="s">
@@ -18923,24 +18951,24 @@
       <c r="S57" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="T57" s="3" t="s">
+        <v>533</v>
+      </c>
       <c r="U57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>535</v>
-      </c>
       <c r="W57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X57" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#</v>
       </c>
       <c r="Y57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z57" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#</v>
       </c>
       <c r="AA57" s="1" t="s">
@@ -18953,13 +18981,13 @@
         <v>14</v>
       </c>
       <c r="AF57" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AG57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH57" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AI57" s="1" t="s">
         <v>16</v>
@@ -18977,7 +19005,7 @@
         <v>30</v>
       </c>
       <c r="AO57" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AP57" s="25" t="s">
         <v>538</v>
@@ -19007,8 +19035,8 @@
         <v>2</v>
       </c>
       <c r="H58" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>P_02_02_01_02</v>
+        <f t="shared" si="20"/>
+        <v>P_02_02_01_01</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>3</v>
@@ -19020,7 +19048,7 @@
         <v>4</v>
       </c>
       <c r="L58" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>P02</v>
       </c>
       <c r="M58" s="1" t="s">
@@ -19039,20 +19067,20 @@
         <v>9</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="W58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X58" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#</v>
       </c>
       <c r="Y58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z58" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#</v>
       </c>
       <c r="AA58" s="1" t="s">
@@ -19065,13 +19093,13 @@
         <v>14</v>
       </c>
       <c r="AF58" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AG58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH58" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AI58" s="1" t="s">
         <v>16</v>
@@ -19089,7 +19117,7 @@
         <v>30</v>
       </c>
       <c r="AO58" s="12" t="s">
-        <v>402</v>
+        <v>29</v>
       </c>
       <c r="AP58" s="25" t="s">
         <v>538</v>
@@ -19119,8 +19147,8 @@
         <v>2</v>
       </c>
       <c r="H59" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>P_02_02_01_03</v>
+        <f t="shared" si="20"/>
+        <v>P_02_02_01_02</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>3</v>
@@ -19132,7 +19160,7 @@
         <v>4</v>
       </c>
       <c r="L59" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>P02</v>
       </c>
       <c r="M59" s="1" t="s">
@@ -19151,20 +19179,20 @@
         <v>9</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="W59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X59" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#</v>
       </c>
       <c r="Y59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z59" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#</v>
       </c>
       <c r="AA59" s="1" t="s">
@@ -19177,13 +19205,13 @@
         <v>14</v>
       </c>
       <c r="AF59" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AG59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH59" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AI59" s="1" t="s">
         <v>16</v>
@@ -19201,7 +19229,7 @@
         <v>30</v>
       </c>
       <c r="AO59" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AP59" s="25" t="s">
         <v>538</v>
@@ -19231,8 +19259,8 @@
         <v>2</v>
       </c>
       <c r="H60" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>P_02_02_02_00</v>
+        <f t="shared" si="20"/>
+        <v>P_02_02_01_03</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>3</v>
@@ -19244,7 +19272,7 @@
         <v>4</v>
       </c>
       <c r="L60" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>P02</v>
       </c>
       <c r="M60" s="1" t="s">
@@ -19259,24 +19287,24 @@
       <c r="S60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>534</v>
-      </c>
       <c r="U60" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="V60" s="3" t="s">
+        <v>537</v>
+      </c>
       <c r="W60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X60" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#</v>
       </c>
       <c r="Y60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z60" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#</v>
       </c>
       <c r="AA60" s="1" t="s">
@@ -19289,13 +19317,13 @@
         <v>14</v>
       </c>
       <c r="AF60" s="3" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AG60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH60" s="3" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AI60" s="1" t="s">
         <v>16</v>
@@ -19310,10 +19338,10 @@
         <v>403</v>
       </c>
       <c r="AN60" s="12" t="s">
-        <v>532</v>
+        <v>30</v>
       </c>
       <c r="AO60" s="12" t="s">
-        <v>25</v>
+        <v>404</v>
       </c>
       <c r="AP60" s="25" t="s">
         <v>538</v>
@@ -19343,8 +19371,8 @@
         <v>2</v>
       </c>
       <c r="H61" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>P_03_00_00_00</v>
+        <f t="shared" si="20"/>
+        <v>P_02_02_02_00</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>3</v>
@@ -19356,15 +19384,12 @@
         <v>4</v>
       </c>
       <c r="L61" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>P03</v>
+        <f t="shared" si="21"/>
+        <v>P02</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N61" s="3" t="s">
-        <v>527</v>
-      </c>
       <c r="O61" s="1" t="s">
         <v>6</v>
       </c>
@@ -19374,6 +19399,9 @@
       <c r="S61" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="T61" s="3" t="s">
+        <v>534</v>
+      </c>
       <c r="U61" s="1" t="s">
         <v>9</v>
       </c>
@@ -19381,14 +19409,14 @@
         <v>10</v>
       </c>
       <c r="X61" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#</v>
       </c>
       <c r="Y61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z61" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#</v>
       </c>
       <c r="AA61" s="1" t="s">
@@ -19401,13 +19429,13 @@
         <v>14</v>
       </c>
       <c r="AF61" s="3" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="AG61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH61" s="3" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="AI61" s="1" t="s">
         <v>16</v>
@@ -19416,13 +19444,13 @@
         <v>515</v>
       </c>
       <c r="AL61" s="15" t="s">
-        <v>531</v>
+        <v>403</v>
       </c>
       <c r="AM61" s="15" t="s">
-        <v>25</v>
+        <v>403</v>
       </c>
       <c r="AN61" s="12" t="s">
-        <v>25</v>
+        <v>532</v>
       </c>
       <c r="AO61" s="12" t="s">
         <v>25</v>
@@ -19455,8 +19483,8 @@
         <v>2</v>
       </c>
       <c r="H62" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>P_03_01_00_00</v>
+        <f t="shared" si="20"/>
+        <v>P_03_00_00_00</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>3</v>
@@ -19468,18 +19496,18 @@
         <v>4</v>
       </c>
       <c r="L62" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>P03</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N62" s="3" t="s">
+        <v>527</v>
+      </c>
       <c r="O62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>528</v>
-      </c>
       <c r="Q62" s="1" t="s">
         <v>7</v>
       </c>
@@ -19493,14 +19521,14 @@
         <v>10</v>
       </c>
       <c r="X62" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#</v>
       </c>
       <c r="Y62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z62" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#</v>
       </c>
       <c r="AA62" s="1" t="s">
@@ -19513,13 +19541,13 @@
         <v>14</v>
       </c>
       <c r="AF62" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AG62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH62" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AI62" s="1" t="s">
         <v>16</v>
@@ -19531,7 +19559,7 @@
         <v>531</v>
       </c>
       <c r="AM62" s="15" t="s">
-        <v>438</v>
+        <v>25</v>
       </c>
       <c r="AN62" s="12" t="s">
         <v>25</v>
@@ -19567,8 +19595,8 @@
         <v>2</v>
       </c>
       <c r="H63" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>P_03_02_00_00</v>
+        <f t="shared" si="20"/>
+        <v>P_03_01_00_00</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>3</v>
@@ -19580,7 +19608,7 @@
         <v>4</v>
       </c>
       <c r="L63" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>P03</v>
       </c>
       <c r="M63" s="1" t="s">
@@ -19590,7 +19618,7 @@
         <v>6</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q63" s="1" t="s">
         <v>7</v>
@@ -19605,14 +19633,14 @@
         <v>10</v>
       </c>
       <c r="X63" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#</v>
       </c>
       <c r="Y63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z63" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#</v>
       </c>
       <c r="AA63" s="1" t="s">
@@ -19625,13 +19653,13 @@
         <v>14</v>
       </c>
       <c r="AF63" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH63" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AI63" s="1" t="s">
         <v>16</v>
@@ -19643,7 +19671,7 @@
         <v>531</v>
       </c>
       <c r="AM63" s="15" t="s">
-        <v>532</v>
+        <v>438</v>
       </c>
       <c r="AN63" s="12" t="s">
         <v>25</v>
@@ -19679,8 +19707,8 @@
         <v>2</v>
       </c>
       <c r="H64" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>P_03_02_01_00</v>
+        <f t="shared" si="20"/>
+        <v>P_03_02_00_00</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>3</v>
@@ -19692,7 +19720,7 @@
         <v>4</v>
       </c>
       <c r="L64" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>P03</v>
       </c>
       <c r="M64" s="1" t="s">
@@ -19701,15 +19729,15 @@
       <c r="O64" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P64" s="3" t="s">
+        <v>529</v>
+      </c>
       <c r="Q64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T64" s="3" t="s">
-        <v>530</v>
-      </c>
       <c r="U64" s="1" t="s">
         <v>9</v>
       </c>
@@ -19717,14 +19745,14 @@
         <v>10</v>
       </c>
       <c r="X64" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#</v>
       </c>
       <c r="Y64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z64" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#</v>
       </c>
       <c r="AA64" s="1" t="s">
@@ -19737,13 +19765,13 @@
         <v>14</v>
       </c>
       <c r="AF64" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH64" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AI64" s="1" t="s">
         <v>16</v>
@@ -19758,7 +19786,7 @@
         <v>532</v>
       </c>
       <c r="AN64" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AO64" s="12" t="s">
         <v>25</v>
@@ -19768,60 +19796,172 @@
       </c>
       <c r="AQ64" s="13"/>
     </row>
-    <row r="65" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="37" t="s">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>P_03_02_01_00</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L65" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>P03</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T65" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X65" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>#</v>
+      </c>
+      <c r="Y65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z65" s="16" t="str">
+        <f t="shared" si="23"/>
+        <v>#</v>
+      </c>
+      <c r="AA65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF65" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="AG65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH65" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="AI65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK65" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL65" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM65" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="AN65" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO65" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP65" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="AQ65" s="13"/>
+    </row>
+    <row r="66" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="37" t="s">
         <v>514</v>
       </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="38"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="38"/>
-      <c r="W65" s="38"/>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="38"/>
-      <c r="AA65" s="38"/>
-      <c r="AB65" s="38"/>
-      <c r="AC65" s="38"/>
-      <c r="AD65" s="38"/>
-      <c r="AE65" s="38"/>
-      <c r="AF65" s="38"/>
-      <c r="AG65" s="38"/>
-      <c r="AH65" s="38"/>
-      <c r="AI65" s="39"/>
-      <c r="AJ65" s="5"/>
-      <c r="AK65" s="10"/>
-      <c r="AL65" s="11"/>
-      <c r="AM65" s="11"/>
-      <c r="AU65" s="6" t="s">
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="38"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="38"/>
+      <c r="V66" s="38"/>
+      <c r="W66" s="38"/>
+      <c r="X66" s="38"/>
+      <c r="Y66" s="38"/>
+      <c r="Z66" s="38"/>
+      <c r="AA66" s="38"/>
+      <c r="AB66" s="38"/>
+      <c r="AC66" s="38"/>
+      <c r="AD66" s="38"/>
+      <c r="AE66" s="38"/>
+      <c r="AF66" s="38"/>
+      <c r="AG66" s="38"/>
+      <c r="AH66" s="38"/>
+      <c r="AI66" s="39"/>
+      <c r="AJ66" s="5"/>
+      <c r="AK66" s="10"/>
+      <c r="AL66" s="11"/>
+      <c r="AM66" s="11"/>
+      <c r="AU66" s="6" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:AI2"/>
-    <mergeCell ref="A65:AI65"/>
+    <mergeCell ref="A66:AI66"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F64 B3:B64 D3:D64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D65 B3:B65 F3:F65">
       <formula1>$AU$3:$AU$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/resources/data/menu.xlsx
+++ b/resources/data/menu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3295" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3295" uniqueCount="552">
   <si>
     <t>{"menu":[</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -11726,6 +11726,17 @@
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Clear</t>
+  </si>
+  <si>
+    <t>Input Clear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputClear</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -12386,9 +12397,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AU66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:AI66"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF70" sqref="AF70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -15666,7 +15677,7 @@
         <v>6</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>462</v>
+        <v>550</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>7</v>
@@ -15682,14 +15693,14 @@
       </c>
       <c r="X29" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/inputFormat.html</v>
+        <v>/netiveUI/html/components/inputClear.html</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z29" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/inputFormat.html</v>
+        <v>/netiveUI/html/components/inputClear.html</v>
       </c>
       <c r="AA29" s="1" t="s">
         <v>12</v>
@@ -15701,13 +15712,13 @@
         <v>14</v>
       </c>
       <c r="AF29" s="3" t="s">
-        <v>462</v>
+        <v>549</v>
       </c>
       <c r="AG29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH29" s="3" t="s">
-        <v>462</v>
+        <v>549</v>
       </c>
       <c r="AI29" s="1" t="s">
         <v>16</v>
@@ -15734,7 +15745,7 @@
         <v>435</v>
       </c>
       <c r="AR29" s="13" t="s">
-        <v>464</v>
+        <v>551</v>
       </c>
       <c r="AS29" s="6" t="s">
         <v>434</v>

--- a/resources/data/menu.xlsx
+++ b/resources/data/menu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3295" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="557">
   <si>
     <t>{"menu":[</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -11737,6 +11737,26 @@
   </si>
   <si>
     <t>inputClear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -11875,7 +11895,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -11963,6 +11983,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -11972,7 +12007,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12092,6 +12127,36 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12395,11 +12460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AU66"/>
+  <dimension ref="A2:AU68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF70" sqref="AF70"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH46" sqref="AH46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -17698,26 +17763,26 @@
       </c>
       <c r="H46" s="19" t="str">
         <f t="shared" ref="H46" si="16">CONCATENATE(AK46,"_",AL46,"_",AM46,"_",AN46,"_",AO46)</f>
-        <v>P_00_00_00_00</v>
+        <v>G_04_00_00_00</v>
       </c>
       <c r="I46" s="17" t="s">
         <v>3</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>539</v>
+        <v>26</v>
       </c>
       <c r="K46" s="17" t="s">
         <v>4</v>
       </c>
       <c r="L46" s="19" t="str">
         <f t="shared" ref="L46" si="17">CONCATENATE(AK46,AL46)</f>
-        <v>P00</v>
+        <v>G04</v>
       </c>
       <c r="M46" s="17" t="s">
         <v>5</v>
       </c>
       <c r="N46" s="19" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="O46" s="17" t="s">
         <v>6</v>
@@ -17736,14 +17801,14 @@
       </c>
       <c r="X46" s="20" t="str">
         <f t="shared" ref="X46" si="18">CONCATENATE(AP46,AQ46,AR46,AS46)</f>
-        <v>#</v>
+        <v>/netiveUI/html/memory/issue.html</v>
       </c>
       <c r="Y46" s="17" t="s">
         <v>11</v>
       </c>
       <c r="Z46" s="20" t="str">
         <f t="shared" ref="Z46" si="19">CONCATENATE(AP46,AQ46,AR46,AS46)</f>
-        <v>#</v>
+        <v>/netiveUI/html/memory/issue.html</v>
       </c>
       <c r="AA46" s="17" t="s">
         <v>12</v>
@@ -17755,23 +17820,23 @@
         <v>14</v>
       </c>
       <c r="AF46" s="19" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="AG46" s="17" t="s">
         <v>15</v>
       </c>
       <c r="AH46" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="AI46" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="AI46" s="17" t="s">
         <v>16</v>
       </c>
       <c r="AJ46" s="21"/>
       <c r="AK46" s="22" t="s">
-        <v>515</v>
+        <v>24</v>
       </c>
       <c r="AL46" s="23" t="s">
-        <v>25</v>
+        <v>444</v>
       </c>
       <c r="AM46" s="23" t="s">
         <v>25</v>
@@ -17783,237 +17848,259 @@
         <v>25</v>
       </c>
       <c r="AP46" s="25" t="s">
-        <v>538</v>
-      </c>
-      <c r="AQ46" s="25"/>
-      <c r="AR46" s="25"/>
-      <c r="AS46" s="26"/>
+        <v>422</v>
+      </c>
+      <c r="AQ46" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="AR46" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="AS46" s="26" t="s">
+        <v>434</v>
+      </c>
       <c r="AT46" s="26"/>
       <c r="AU46" s="26"/>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H47" s="3" t="str">
-        <f t="shared" ref="H47:H65" si="20">CONCATENATE(AK47,"_",AL47,"_",AM47,"_",AN47,"_",AO47)</f>
-        <v>P_01_00_00_00</v>
-      </c>
-      <c r="I47" s="1" t="s">
+      <c r="H47" s="19" t="str">
+        <f t="shared" ref="H47" si="20">CONCATENATE(AK47,"_",AL47,"_",AM47,"_",AN47,"_",AO47)</f>
+        <v>G_04_01_00_00</v>
+      </c>
+      <c r="I47" s="17" t="s">
         <v>3</v>
       </c>
       <c r="J47" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="19" t="str">
+        <f t="shared" ref="L47" si="21">CONCATENATE(AK47,AL47)</f>
+        <v>G04</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P47" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q47" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="S47" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="W47" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="X47" s="20" t="str">
+        <f t="shared" ref="X47" si="22">CONCATENATE(AP47,AQ47,AR47,AS47)</f>
+        <v>/netiveUI/html/memory/issue.html</v>
+      </c>
+      <c r="Y47" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z47" s="20" t="str">
+        <f t="shared" ref="Z47" si="23">CONCATENATE(AP47,AQ47,AR47,AS47)</f>
+        <v>/netiveUI/html/memory/issue.html</v>
+      </c>
+      <c r="AA47" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC47" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE47" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF47" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="AG47" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH47" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="AI47" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ47" s="21"/>
+      <c r="AK47" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL47" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="AM47" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN47" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO47" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP47" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ47" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="AR47" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="AS47" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="AT47" s="26"/>
+      <c r="AU47" s="26"/>
+    </row>
+    <row r="48" spans="1:47" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="42" t="str">
+        <f t="shared" ref="H48" si="24">CONCATENATE(AK48,"_",AL48,"_",AM48,"_",AN48,"_",AO48)</f>
+        <v>P_00_00_00_00</v>
+      </c>
+      <c r="I48" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="42" t="s">
         <v>539</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="K48" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3" t="str">
-        <f t="shared" ref="L47:L65" si="21">CONCATENATE(AK47,AL47)</f>
-        <v>P01</v>
-      </c>
-      <c r="M47" s="1" t="s">
+      <c r="L48" s="42" t="str">
+        <f t="shared" ref="L48" si="25">CONCATENATE(AK48,AL48)</f>
+        <v>P00</v>
+      </c>
+      <c r="M48" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="O47" s="1" t="s">
+      <c r="N48" s="42" t="s">
+        <v>516</v>
+      </c>
+      <c r="O48" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="Q47" s="1" t="s">
+      <c r="Q48" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="S47" s="1" t="s">
+      <c r="S48" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="1" t="s">
+      <c r="U48" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="W47" s="1" t="s">
+      <c r="W48" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="X47" s="16" t="str">
-        <f t="shared" ref="X47:X65" si="22">CONCATENATE(AP47,AQ47,AR47,AS47)</f>
+      <c r="X48" s="43" t="str">
+        <f t="shared" ref="X48" si="26">CONCATENATE(AP48,AQ48,AR48,AS48)</f>
         <v>#</v>
       </c>
-      <c r="Y47" s="1" t="s">
+      <c r="Y48" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="Z47" s="16" t="str">
-        <f t="shared" ref="Z47:Z65" si="23">CONCATENATE(AP47,AQ47,AR47,AS47)</f>
+      <c r="Z48" s="43" t="str">
+        <f t="shared" ref="Z48" si="27">CONCATENATE(AP48,AQ48,AR48,AS48)</f>
         <v>#</v>
       </c>
-      <c r="AA47" s="1" t="s">
+      <c r="AA48" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="AC47" s="1" t="s">
+      <c r="AC48" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AE47" s="1" t="s">
+      <c r="AE48" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="AF47" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="AG47" s="1" t="s">
+      <c r="AF48" s="42" t="s">
+        <v>516</v>
+      </c>
+      <c r="AG48" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="AH47" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="AI47" s="1" t="s">
+      <c r="AH48" s="42" t="s">
+        <v>516</v>
+      </c>
+      <c r="AI48" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="AK47" s="14" t="s">
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="45" t="s">
         <v>515</v>
       </c>
-      <c r="AL47" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM47" s="15" t="s">
+      <c r="AL48" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="AN47" s="12" t="s">
+      <c r="AM48" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="AO47" s="12" t="s">
+      <c r="AN48" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AP47" s="25" t="s">
+      <c r="AO48" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP48" s="48" t="s">
         <v>538</v>
       </c>
-      <c r="AQ47" s="13"/>
-    </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H48" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>P_01_01_00_00</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="19" t="s">
-        <v>539</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>P01</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X48" s="16" t="str">
-        <f t="shared" si="22"/>
-        <v>#</v>
-      </c>
-      <c r="Y48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z48" s="16" t="str">
-        <f t="shared" si="23"/>
-        <v>#</v>
-      </c>
-      <c r="AA48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF48" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="AG48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH48" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="AI48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK48" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="AL48" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM48" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN48" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO48" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP48" s="25" t="s">
-        <v>538</v>
-      </c>
-      <c r="AQ48" s="13"/>
+      <c r="AQ48" s="48"/>
+      <c r="AR48" s="48"/>
+      <c r="AS48" s="49"/>
+      <c r="AT48" s="49"/>
+      <c r="AU48" s="49"/>
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
@@ -18038,8 +18125,8 @@
         <v>2</v>
       </c>
       <c r="H49" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>P_01_02_00_00</v>
+        <f t="shared" ref="H49:H67" si="28">CONCATENATE(AK49,"_",AL49,"_",AM49,"_",AN49,"_",AO49)</f>
+        <v>P_01_00_00_00</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>3</v>
@@ -18051,18 +18138,18 @@
         <v>4</v>
       </c>
       <c r="L49" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="L49:L67" si="29">CONCATENATE(AK49,AL49)</f>
         <v>P01</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N49" s="3" t="s">
+        <v>517</v>
+      </c>
       <c r="O49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>519</v>
-      </c>
       <c r="Q49" s="1" t="s">
         <v>7</v>
       </c>
@@ -18076,14 +18163,14 @@
         <v>10</v>
       </c>
       <c r="X49" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="X49:X67" si="30">CONCATENATE(AP49,AQ49,AR49,AS49)</f>
         <v>#</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z49" s="16" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="Z49:Z67" si="31">CONCATENATE(AP49,AQ49,AR49,AS49)</f>
         <v>#</v>
       </c>
       <c r="AA49" s="1" t="s">
@@ -18096,13 +18183,13 @@
         <v>14</v>
       </c>
       <c r="AF49" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AG49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH49" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AI49" s="1" t="s">
         <v>16</v>
@@ -18114,7 +18201,7 @@
         <v>30</v>
       </c>
       <c r="AM49" s="15" t="s">
-        <v>402</v>
+        <v>25</v>
       </c>
       <c r="AN49" s="12" t="s">
         <v>25</v>
@@ -18150,8 +18237,8 @@
         <v>2</v>
       </c>
       <c r="H50" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>P_01_03_00_00</v>
+        <f t="shared" si="28"/>
+        <v>P_01_01_00_00</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>3</v>
@@ -18163,7 +18250,7 @@
         <v>4</v>
       </c>
       <c r="L50" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>P01</v>
       </c>
       <c r="M50" s="1" t="s">
@@ -18173,7 +18260,7 @@
         <v>6</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>7</v>
@@ -18188,14 +18275,14 @@
         <v>10</v>
       </c>
       <c r="X50" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z50" s="16" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#</v>
       </c>
       <c r="AA50" s="1" t="s">
@@ -18208,13 +18295,13 @@
         <v>14</v>
       </c>
       <c r="AF50" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AG50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH50" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AI50" s="1" t="s">
         <v>16</v>
@@ -18226,7 +18313,7 @@
         <v>30</v>
       </c>
       <c r="AM50" s="15" t="s">
-        <v>404</v>
+        <v>29</v>
       </c>
       <c r="AN50" s="12" t="s">
         <v>25</v>
@@ -18262,8 +18349,8 @@
         <v>2</v>
       </c>
       <c r="H51" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>P_02_00_00_00</v>
+        <f t="shared" si="28"/>
+        <v>P_01_02_00_00</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>3</v>
@@ -18275,18 +18362,18 @@
         <v>4</v>
       </c>
       <c r="L51" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>P02</v>
+        <f t="shared" si="29"/>
+        <v>P01</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N51" s="3" t="s">
-        <v>521</v>
-      </c>
       <c r="O51" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P51" s="3" t="s">
+        <v>519</v>
+      </c>
       <c r="Q51" s="1" t="s">
         <v>7</v>
       </c>
@@ -18300,14 +18387,14 @@
         <v>10</v>
       </c>
       <c r="X51" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z51" s="16" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#</v>
       </c>
       <c r="AA51" s="1" t="s">
@@ -18320,13 +18407,13 @@
         <v>14</v>
       </c>
       <c r="AF51" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AG51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH51" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AI51" s="1" t="s">
         <v>16</v>
@@ -18335,10 +18422,10 @@
         <v>515</v>
       </c>
       <c r="AL51" s="15" t="s">
-        <v>403</v>
+        <v>30</v>
       </c>
       <c r="AM51" s="15" t="s">
-        <v>25</v>
+        <v>402</v>
       </c>
       <c r="AN51" s="12" t="s">
         <v>25</v>
@@ -18374,8 +18461,8 @@
         <v>2</v>
       </c>
       <c r="H52" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>P_02_01_00_00</v>
+        <f t="shared" si="28"/>
+        <v>P_01_03_00_00</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>3</v>
@@ -18387,8 +18474,8 @@
         <v>4</v>
       </c>
       <c r="L52" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>P02</v>
+        <f t="shared" si="29"/>
+        <v>P01</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>5</v>
@@ -18397,7 +18484,7 @@
         <v>6</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>7</v>
@@ -18412,14 +18499,14 @@
         <v>10</v>
       </c>
       <c r="X52" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z52" s="16" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#</v>
       </c>
       <c r="AA52" s="1" t="s">
@@ -18432,13 +18519,13 @@
         <v>14</v>
       </c>
       <c r="AF52" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AG52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH52" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AI52" s="1" t="s">
         <v>16</v>
@@ -18447,10 +18534,10 @@
         <v>515</v>
       </c>
       <c r="AL52" s="15" t="s">
-        <v>403</v>
+        <v>30</v>
       </c>
       <c r="AM52" s="15" t="s">
-        <v>30</v>
+        <v>404</v>
       </c>
       <c r="AN52" s="12" t="s">
         <v>25</v>
@@ -18486,8 +18573,8 @@
         <v>2</v>
       </c>
       <c r="H53" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>P_02_01_01_00</v>
+        <f t="shared" si="28"/>
+        <v>P_02_00_00_00</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>3</v>
@@ -18499,12 +18586,15 @@
         <v>4</v>
       </c>
       <c r="L53" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>P02</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N53" s="3" t="s">
+        <v>521</v>
+      </c>
       <c r="O53" s="1" t="s">
         <v>6</v>
       </c>
@@ -18514,9 +18604,6 @@
       <c r="S53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T53" s="3" t="s">
-        <v>523</v>
-      </c>
       <c r="U53" s="1" t="s">
         <v>9</v>
       </c>
@@ -18524,14 +18611,14 @@
         <v>10</v>
       </c>
       <c r="X53" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z53" s="16" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#</v>
       </c>
       <c r="AA53" s="1" t="s">
@@ -18544,13 +18631,13 @@
         <v>14</v>
       </c>
       <c r="AF53" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AG53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH53" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AI53" s="1" t="s">
         <v>16</v>
@@ -18562,10 +18649,10 @@
         <v>403</v>
       </c>
       <c r="AM53" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AN53" s="12" t="s">
-        <v>438</v>
+        <v>25</v>
       </c>
       <c r="AO53" s="12" t="s">
         <v>25</v>
@@ -18598,8 +18685,8 @@
         <v>2</v>
       </c>
       <c r="H54" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>P_02_01_02_00</v>
+        <f t="shared" si="28"/>
+        <v>P_02_01_00_00</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>3</v>
@@ -18611,7 +18698,7 @@
         <v>4</v>
       </c>
       <c r="L54" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>P02</v>
       </c>
       <c r="M54" s="1" t="s">
@@ -18620,15 +18707,15 @@
       <c r="O54" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P54" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="Q54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>524</v>
-      </c>
       <c r="U54" s="1" t="s">
         <v>9</v>
       </c>
@@ -18636,14 +18723,14 @@
         <v>10</v>
       </c>
       <c r="X54" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z54" s="16" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#</v>
       </c>
       <c r="AA54" s="1" t="s">
@@ -18656,13 +18743,13 @@
         <v>14</v>
       </c>
       <c r="AF54" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AG54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH54" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AI54" s="1" t="s">
         <v>16</v>
@@ -18677,7 +18764,7 @@
         <v>30</v>
       </c>
       <c r="AN54" s="12" t="s">
-        <v>402</v>
+        <v>25</v>
       </c>
       <c r="AO54" s="12" t="s">
         <v>25</v>
@@ -18710,8 +18797,8 @@
         <v>2</v>
       </c>
       <c r="H55" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>P_02_01_02_01</v>
+        <f t="shared" si="28"/>
+        <v>P_02_01_01_00</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>3</v>
@@ -18723,7 +18810,7 @@
         <v>4</v>
       </c>
       <c r="L55" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>P02</v>
       </c>
       <c r="M55" s="1" t="s">
@@ -18738,24 +18825,24 @@
       <c r="S55" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="T55" s="3" t="s">
+        <v>523</v>
+      </c>
       <c r="U55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V55" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="W55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X55" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z55" s="16" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#</v>
       </c>
       <c r="AA55" s="1" t="s">
@@ -18768,13 +18855,13 @@
         <v>14</v>
       </c>
       <c r="AF55" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AG55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH55" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AI55" s="1" t="s">
         <v>16</v>
@@ -18789,10 +18876,10 @@
         <v>30</v>
       </c>
       <c r="AN55" s="12" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="AO55" s="12" t="s">
-        <v>438</v>
+        <v>25</v>
       </c>
       <c r="AP55" s="25" t="s">
         <v>538</v>
@@ -18822,8 +18909,8 @@
         <v>2</v>
       </c>
       <c r="H56" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>P_02_02_00_00</v>
+        <f t="shared" si="28"/>
+        <v>P_02_01_02_00</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>3</v>
@@ -18835,7 +18922,7 @@
         <v>4</v>
       </c>
       <c r="L56" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>P02</v>
       </c>
       <c r="M56" s="1" t="s">
@@ -18844,15 +18931,15 @@
       <c r="O56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P56" s="3" t="s">
-        <v>526</v>
-      </c>
       <c r="Q56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="T56" s="3" t="s">
+        <v>524</v>
+      </c>
       <c r="U56" s="1" t="s">
         <v>9</v>
       </c>
@@ -18860,14 +18947,14 @@
         <v>10</v>
       </c>
       <c r="X56" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#</v>
       </c>
       <c r="Y56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z56" s="16" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#</v>
       </c>
       <c r="AA56" s="1" t="s">
@@ -18880,13 +18967,13 @@
         <v>14</v>
       </c>
       <c r="AF56" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AG56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH56" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AI56" s="1" t="s">
         <v>16</v>
@@ -18898,10 +18985,10 @@
         <v>403</v>
       </c>
       <c r="AM56" s="15" t="s">
-        <v>403</v>
+        <v>30</v>
       </c>
       <c r="AN56" s="12" t="s">
-        <v>25</v>
+        <v>402</v>
       </c>
       <c r="AO56" s="12" t="s">
         <v>25</v>
@@ -18934,8 +19021,8 @@
         <v>2</v>
       </c>
       <c r="H57" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>P_02_02_01_00</v>
+        <f t="shared" si="28"/>
+        <v>P_02_01_02_01</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>3</v>
@@ -18947,7 +19034,7 @@
         <v>4</v>
       </c>
       <c r="L57" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>P02</v>
       </c>
       <c r="M57" s="1" t="s">
@@ -18962,24 +19049,24 @@
       <c r="S57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>533</v>
-      </c>
       <c r="U57" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="V57" s="3" t="s">
+        <v>525</v>
+      </c>
       <c r="W57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X57" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#</v>
       </c>
       <c r="Y57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z57" s="16" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#</v>
       </c>
       <c r="AA57" s="1" t="s">
@@ -18992,13 +19079,13 @@
         <v>14</v>
       </c>
       <c r="AF57" s="3" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="AG57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH57" s="3" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="AI57" s="1" t="s">
         <v>16</v>
@@ -19010,13 +19097,13 @@
         <v>403</v>
       </c>
       <c r="AM57" s="15" t="s">
-        <v>403</v>
+        <v>30</v>
       </c>
       <c r="AN57" s="12" t="s">
-        <v>30</v>
+        <v>402</v>
       </c>
       <c r="AO57" s="12" t="s">
-        <v>25</v>
+        <v>438</v>
       </c>
       <c r="AP57" s="25" t="s">
         <v>538</v>
@@ -19046,8 +19133,8 @@
         <v>2</v>
       </c>
       <c r="H58" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>P_02_02_01_01</v>
+        <f t="shared" si="28"/>
+        <v>P_02_02_00_00</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>3</v>
@@ -19059,7 +19146,7 @@
         <v>4</v>
       </c>
       <c r="L58" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>P02</v>
       </c>
       <c r="M58" s="1" t="s">
@@ -19068,6 +19155,9 @@
       <c r="O58" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P58" s="3" t="s">
+        <v>526</v>
+      </c>
       <c r="Q58" s="1" t="s">
         <v>7</v>
       </c>
@@ -19077,21 +19167,18 @@
       <c r="U58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>535</v>
-      </c>
       <c r="W58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X58" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#</v>
       </c>
       <c r="Y58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z58" s="16" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#</v>
       </c>
       <c r="AA58" s="1" t="s">
@@ -19104,13 +19191,13 @@
         <v>14</v>
       </c>
       <c r="AF58" s="3" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="AG58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH58" s="3" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="AI58" s="1" t="s">
         <v>16</v>
@@ -19125,10 +19212,10 @@
         <v>403</v>
       </c>
       <c r="AN58" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AO58" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AP58" s="25" t="s">
         <v>538</v>
@@ -19158,8 +19245,8 @@
         <v>2</v>
       </c>
       <c r="H59" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>P_02_02_01_02</v>
+        <f t="shared" si="28"/>
+        <v>P_02_02_01_00</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>3</v>
@@ -19171,7 +19258,7 @@
         <v>4</v>
       </c>
       <c r="L59" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>P02</v>
       </c>
       <c r="M59" s="1" t="s">
@@ -19186,24 +19273,24 @@
       <c r="S59" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="T59" s="3" t="s">
+        <v>533</v>
+      </c>
       <c r="U59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>536</v>
-      </c>
       <c r="W59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X59" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#</v>
       </c>
       <c r="Y59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z59" s="16" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#</v>
       </c>
       <c r="AA59" s="1" t="s">
@@ -19216,13 +19303,13 @@
         <v>14</v>
       </c>
       <c r="AF59" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AG59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH59" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AI59" s="1" t="s">
         <v>16</v>
@@ -19240,7 +19327,7 @@
         <v>30</v>
       </c>
       <c r="AO59" s="12" t="s">
-        <v>402</v>
+        <v>25</v>
       </c>
       <c r="AP59" s="25" t="s">
         <v>538</v>
@@ -19270,8 +19357,8 @@
         <v>2</v>
       </c>
       <c r="H60" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>P_02_02_01_03</v>
+        <f t="shared" si="28"/>
+        <v>P_02_02_01_01</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>3</v>
@@ -19283,7 +19370,7 @@
         <v>4</v>
       </c>
       <c r="L60" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>P02</v>
       </c>
       <c r="M60" s="1" t="s">
@@ -19302,20 +19389,20 @@
         <v>9</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="W60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X60" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#</v>
       </c>
       <c r="Y60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z60" s="16" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#</v>
       </c>
       <c r="AA60" s="1" t="s">
@@ -19328,13 +19415,13 @@
         <v>14</v>
       </c>
       <c r="AF60" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AG60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH60" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AI60" s="1" t="s">
         <v>16</v>
@@ -19352,7 +19439,7 @@
         <v>30</v>
       </c>
       <c r="AO60" s="12" t="s">
-        <v>404</v>
+        <v>29</v>
       </c>
       <c r="AP60" s="25" t="s">
         <v>538</v>
@@ -19382,8 +19469,8 @@
         <v>2</v>
       </c>
       <c r="H61" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>P_02_02_02_00</v>
+        <f t="shared" si="28"/>
+        <v>P_02_02_01_02</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>3</v>
@@ -19395,7 +19482,7 @@
         <v>4</v>
       </c>
       <c r="L61" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>P02</v>
       </c>
       <c r="M61" s="1" t="s">
@@ -19410,24 +19497,24 @@
       <c r="S61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T61" s="3" t="s">
-        <v>534</v>
-      </c>
       <c r="U61" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="V61" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="W61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X61" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#</v>
       </c>
       <c r="Y61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z61" s="16" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#</v>
       </c>
       <c r="AA61" s="1" t="s">
@@ -19440,13 +19527,13 @@
         <v>14</v>
       </c>
       <c r="AF61" s="3" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AG61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH61" s="3" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AI61" s="1" t="s">
         <v>16</v>
@@ -19461,10 +19548,10 @@
         <v>403</v>
       </c>
       <c r="AN61" s="12" t="s">
-        <v>532</v>
+        <v>30</v>
       </c>
       <c r="AO61" s="12" t="s">
-        <v>25</v>
+        <v>402</v>
       </c>
       <c r="AP61" s="25" t="s">
         <v>538</v>
@@ -19494,8 +19581,8 @@
         <v>2</v>
       </c>
       <c r="H62" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>P_03_00_00_00</v>
+        <f t="shared" si="28"/>
+        <v>P_02_02_01_03</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>3</v>
@@ -19507,15 +19594,12 @@
         <v>4</v>
       </c>
       <c r="L62" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>P03</v>
+        <f t="shared" si="29"/>
+        <v>P02</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>527</v>
-      </c>
       <c r="O62" s="1" t="s">
         <v>6</v>
       </c>
@@ -19528,18 +19612,21 @@
       <c r="U62" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="V62" s="3" t="s">
+        <v>537</v>
+      </c>
       <c r="W62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X62" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#</v>
       </c>
       <c r="Y62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z62" s="16" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#</v>
       </c>
       <c r="AA62" s="1" t="s">
@@ -19552,13 +19639,13 @@
         <v>14</v>
       </c>
       <c r="AF62" s="3" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="AG62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH62" s="3" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="AI62" s="1" t="s">
         <v>16</v>
@@ -19567,16 +19654,16 @@
         <v>515</v>
       </c>
       <c r="AL62" s="15" t="s">
-        <v>531</v>
+        <v>403</v>
       </c>
       <c r="AM62" s="15" t="s">
-        <v>25</v>
+        <v>403</v>
       </c>
       <c r="AN62" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AO62" s="12" t="s">
-        <v>25</v>
+        <v>404</v>
       </c>
       <c r="AP62" s="25" t="s">
         <v>538</v>
@@ -19606,8 +19693,8 @@
         <v>2</v>
       </c>
       <c r="H63" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>P_03_01_00_00</v>
+        <f t="shared" si="28"/>
+        <v>P_02_02_02_00</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>3</v>
@@ -19619,8 +19706,8 @@
         <v>4</v>
       </c>
       <c r="L63" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>P03</v>
+        <f t="shared" si="29"/>
+        <v>P02</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>5</v>
@@ -19628,15 +19715,15 @@
       <c r="O63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P63" s="3" t="s">
-        <v>528</v>
-      </c>
       <c r="Q63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S63" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="T63" s="3" t="s">
+        <v>534</v>
+      </c>
       <c r="U63" s="1" t="s">
         <v>9</v>
       </c>
@@ -19644,14 +19731,14 @@
         <v>10</v>
       </c>
       <c r="X63" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#</v>
       </c>
       <c r="Y63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z63" s="16" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#</v>
       </c>
       <c r="AA63" s="1" t="s">
@@ -19664,13 +19751,13 @@
         <v>14</v>
       </c>
       <c r="AF63" s="3" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="AG63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH63" s="3" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="AI63" s="1" t="s">
         <v>16</v>
@@ -19679,13 +19766,13 @@
         <v>515</v>
       </c>
       <c r="AL63" s="15" t="s">
-        <v>531</v>
+        <v>403</v>
       </c>
       <c r="AM63" s="15" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="AN63" s="12" t="s">
-        <v>25</v>
+        <v>532</v>
       </c>
       <c r="AO63" s="12" t="s">
         <v>25</v>
@@ -19718,8 +19805,8 @@
         <v>2</v>
       </c>
       <c r="H64" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>P_03_02_00_00</v>
+        <f t="shared" si="28"/>
+        <v>P_03_00_00_00</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>3</v>
@@ -19731,18 +19818,18 @@
         <v>4</v>
       </c>
       <c r="L64" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>P03</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N64" s="3" t="s">
+        <v>527</v>
+      </c>
       <c r="O64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P64" s="3" t="s">
-        <v>529</v>
-      </c>
       <c r="Q64" s="1" t="s">
         <v>7</v>
       </c>
@@ -19756,14 +19843,14 @@
         <v>10</v>
       </c>
       <c r="X64" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#</v>
       </c>
       <c r="Y64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z64" s="16" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#</v>
       </c>
       <c r="AA64" s="1" t="s">
@@ -19776,13 +19863,13 @@
         <v>14</v>
       </c>
       <c r="AF64" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AG64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH64" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AI64" s="1" t="s">
         <v>16</v>
@@ -19794,7 +19881,7 @@
         <v>531</v>
       </c>
       <c r="AM64" s="15" t="s">
-        <v>532</v>
+        <v>25</v>
       </c>
       <c r="AN64" s="12" t="s">
         <v>25</v>
@@ -19830,8 +19917,8 @@
         <v>2</v>
       </c>
       <c r="H65" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>P_03_02_01_00</v>
+        <f t="shared" si="28"/>
+        <v>P_03_01_00_00</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>3</v>
@@ -19843,7 +19930,7 @@
         <v>4</v>
       </c>
       <c r="L65" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>P03</v>
       </c>
       <c r="M65" s="1" t="s">
@@ -19852,15 +19939,15 @@
       <c r="O65" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P65" s="3" t="s">
+        <v>528</v>
+      </c>
       <c r="Q65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T65" s="3" t="s">
-        <v>530</v>
-      </c>
       <c r="U65" s="1" t="s">
         <v>9</v>
       </c>
@@ -19868,14 +19955,14 @@
         <v>10</v>
       </c>
       <c r="X65" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#</v>
       </c>
       <c r="Y65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z65" s="16" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#</v>
       </c>
       <c r="AA65" s="1" t="s">
@@ -19888,13 +19975,13 @@
         <v>14</v>
       </c>
       <c r="AF65" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AG65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH65" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AI65" s="1" t="s">
         <v>16</v>
@@ -19906,10 +19993,10 @@
         <v>531</v>
       </c>
       <c r="AM65" s="15" t="s">
-        <v>532</v>
+        <v>438</v>
       </c>
       <c r="AN65" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AO65" s="12" t="s">
         <v>25</v>
@@ -19919,60 +20006,284 @@
       </c>
       <c r="AQ65" s="13"/>
     </row>
-    <row r="66" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="37" t="s">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>P_03_02_00_00</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>P03</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X66" s="16" t="str">
+        <f t="shared" si="30"/>
+        <v>#</v>
+      </c>
+      <c r="Y66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z66" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>#</v>
+      </c>
+      <c r="AA66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF66" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="AG66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH66" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="AI66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK66" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL66" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM66" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="AN66" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO66" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP66" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="AQ66" s="13"/>
+    </row>
+    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>P_03_02_01_00</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J67" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L67" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>P03</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X67" s="16" t="str">
+        <f t="shared" si="30"/>
+        <v>#</v>
+      </c>
+      <c r="Y67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z67" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>#</v>
+      </c>
+      <c r="AA67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF67" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="AG67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH67" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="AI67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK67" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL67" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM67" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="AN67" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO67" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP67" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="AQ67" s="13"/>
+    </row>
+    <row r="68" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="37" t="s">
         <v>514</v>
       </c>
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38"/>
-      <c r="S66" s="38"/>
-      <c r="T66" s="38"/>
-      <c r="U66" s="38"/>
-      <c r="V66" s="38"/>
-      <c r="W66" s="38"/>
-      <c r="X66" s="38"/>
-      <c r="Y66" s="38"/>
-      <c r="Z66" s="38"/>
-      <c r="AA66" s="38"/>
-      <c r="AB66" s="38"/>
-      <c r="AC66" s="38"/>
-      <c r="AD66" s="38"/>
-      <c r="AE66" s="38"/>
-      <c r="AF66" s="38"/>
-      <c r="AG66" s="38"/>
-      <c r="AH66" s="38"/>
-      <c r="AI66" s="39"/>
-      <c r="AJ66" s="5"/>
-      <c r="AK66" s="10"/>
-      <c r="AL66" s="11"/>
-      <c r="AM66" s="11"/>
-      <c r="AU66" s="6" t="s">
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="38"/>
+      <c r="S68" s="38"/>
+      <c r="T68" s="38"/>
+      <c r="U68" s="38"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="38"/>
+      <c r="X68" s="38"/>
+      <c r="Y68" s="38"/>
+      <c r="Z68" s="38"/>
+      <c r="AA68" s="38"/>
+      <c r="AB68" s="38"/>
+      <c r="AC68" s="38"/>
+      <c r="AD68" s="38"/>
+      <c r="AE68" s="38"/>
+      <c r="AF68" s="38"/>
+      <c r="AG68" s="38"/>
+      <c r="AH68" s="38"/>
+      <c r="AI68" s="39"/>
+      <c r="AJ68" s="5"/>
+      <c r="AK68" s="10"/>
+      <c r="AL68" s="11"/>
+      <c r="AM68" s="11"/>
+      <c r="AU68" s="6" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:AI2"/>
-    <mergeCell ref="A66:AI66"/>
+    <mergeCell ref="A68:AI68"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D65 B3:B65 F3:F65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D67 B3:B67 F3:F67">
       <formula1>$AU$3:$AU$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/resources/data/menu.xlsx
+++ b/resources/data/menu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3397" uniqueCount="560">
   <si>
     <t>{"menu":[</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -11757,6 +11757,18 @@
   </si>
   <si>
     <t>issue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가이드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -12119,15 +12131,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -12157,6 +12160,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12460,11 +12472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AU68"/>
+  <dimension ref="A2:AU69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH46" sqref="AH46"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -12515,43 +12527,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="39"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="49"/>
       <c r="AJ2" s="5"/>
       <c r="AK2" s="10"/>
       <c r="AL2" s="11"/>
@@ -12704,7 +12716,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="3" t="str">
-        <f t="shared" ref="H4:H45" si="0">CONCATENATE(AK4,"_",AL4,"_",AM4,"_",AN4,"_",AO4)</f>
+        <f t="shared" ref="H4:H46" si="0">CONCATENATE(AK4,"_",AL4,"_",AM4,"_",AN4,"_",AO4)</f>
         <v>G_01_00_00_00</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -12717,7 +12729,7 @@
         <v>4</v>
       </c>
       <c r="L4" s="3" t="str">
-        <f t="shared" ref="L4:L45" si="1">CONCATENATE(AK4,AL4)</f>
+        <f t="shared" ref="L4:L46" si="1">CONCATENATE(AK4,AL4)</f>
         <v>G01</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -12742,14 +12754,14 @@
         <v>10</v>
       </c>
       <c r="X4" s="16" t="str">
-        <f t="shared" ref="X4:X45" si="2">CONCATENATE(AP4,AQ4,AR4,AS4)</f>
+        <f t="shared" ref="X4:X46" si="2">CONCATENATE(AP4,AQ4,AR4,AS4)</f>
         <v>/netiveUI/html/start/introduction.html</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z4" s="16" t="str">
-        <f t="shared" ref="Z4:Z45" si="3">CONCATENATE(AP4,AQ4,AR4,AS4)</f>
+        <f t="shared" ref="Z4:Z46" si="3">CONCATENATE(AP4,AQ4,AR4,AS4)</f>
         <v>/netiveUI/html/start/introduction.html</v>
       </c>
       <c r="AA4" s="1" t="s">
@@ -13673,20 +13685,20 @@
         <v>2</v>
       </c>
       <c r="H12" s="3" t="str">
-        <f t="shared" ref="H12" si="4">CONCATENATE(AK12,"_",AL12,"_",AM12,"_",AN12,"_",AO12)</f>
-        <v>G_02_10_00_00</v>
+        <f t="shared" si="0"/>
+        <v>G_02_11_00_00</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>26</v>
+        <v>557</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L12" s="3" t="str">
-        <f t="shared" ref="L12" si="5">CONCATENATE(AK12,AL12)</f>
+        <f t="shared" si="1"/>
         <v>G02</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -13696,7 +13708,7 @@
         <v>6</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>462</v>
+        <v>558</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>7</v>
@@ -13711,15 +13723,15 @@
         <v>10</v>
       </c>
       <c r="X12" s="16" t="str">
-        <f t="shared" ref="X12" si="6">CONCATENATE(AP12,AQ12,AR12,AS12)</f>
-        <v>/netiveUI/html/markup/inputFormat.html</v>
+        <f t="shared" si="2"/>
+        <v>/netiveUI/html/markup/icon.html</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z12" s="16" t="str">
-        <f t="shared" ref="Z12" si="7">CONCATENATE(AP12,AQ12,AR12,AS12)</f>
-        <v>/netiveUI/html/markup/inputFormat.html</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/markup/icon.html</v>
       </c>
       <c r="AA12" s="1" t="s">
         <v>12</v>
@@ -13731,13 +13743,13 @@
         <v>14</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>462</v>
+        <v>558</v>
       </c>
       <c r="AG12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>462</v>
+        <v>558</v>
       </c>
       <c r="AI12" s="1" t="s">
         <v>16</v>
@@ -13749,7 +13761,7 @@
         <v>403</v>
       </c>
       <c r="AM12" s="15" t="s">
-        <v>548</v>
+        <v>469</v>
       </c>
       <c r="AN12" s="12" t="s">
         <v>25</v>
@@ -13764,7 +13776,7 @@
         <v>436</v>
       </c>
       <c r="AR12" s="13" t="s">
-        <v>464</v>
+        <v>559</v>
       </c>
       <c r="AS12" s="6" t="s">
         <v>434</v>
@@ -13793,20 +13805,20 @@
         <v>2</v>
       </c>
       <c r="H13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>G_02_07_00_00</v>
+        <f t="shared" ref="H13" si="4">CONCATENATE(AK13,"_",AL13,"_",AM13,"_",AN13,"_",AO13)</f>
+        <v>G_02_10_00_00</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>26</v>
+        <v>557</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L13" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L13" si="5">CONCATENATE(AK13,AL13)</f>
         <v>G02</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -13816,7 +13828,7 @@
         <v>6</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>7</v>
@@ -13831,15 +13843,15 @@
         <v>10</v>
       </c>
       <c r="X13" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>/netiveUI/html/markup/layout.html</v>
+        <f t="shared" ref="X13" si="6">CONCATENATE(AP13,AQ13,AR13,AS13)</f>
+        <v>/netiveUI/html/markup/inputFormat.html</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z13" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>/netiveUI/html/markup/layout.html</v>
+        <f t="shared" ref="Z13" si="7">CONCATENATE(AP13,AQ13,AR13,AS13)</f>
+        <v>/netiveUI/html/markup/inputFormat.html</v>
       </c>
       <c r="AA13" s="1" t="s">
         <v>12</v>
@@ -13851,13 +13863,13 @@
         <v>14</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="AG13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="AI13" s="1" t="s">
         <v>16</v>
@@ -13869,7 +13881,7 @@
         <v>403</v>
       </c>
       <c r="AM13" s="15" t="s">
-        <v>420</v>
+        <v>548</v>
       </c>
       <c r="AN13" s="12" t="s">
         <v>25</v>
@@ -13884,7 +13896,7 @@
         <v>436</v>
       </c>
       <c r="AR13" s="13" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="AS13" s="6" t="s">
         <v>434</v>
@@ -13914,7 +13926,7 @@
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_02_04_00_00</v>
+        <v>G_02_07_00_00</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>3</v>
@@ -13936,7 +13948,7 @@
         <v>6</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>7</v>
@@ -13952,14 +13964,14 @@
       </c>
       <c r="X14" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/markup/margin.html</v>
+        <v>/netiveUI/html/markup/layout.html</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z14" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/markup/margin.html</v>
+        <v>/netiveUI/html/markup/layout.html</v>
       </c>
       <c r="AA14" s="1" t="s">
         <v>12</v>
@@ -13971,13 +13983,13 @@
         <v>14</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AG14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AI14" s="1" t="s">
         <v>16</v>
@@ -13989,7 +14001,7 @@
         <v>403</v>
       </c>
       <c r="AM14" s="15" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AN14" s="12" t="s">
         <v>25</v>
@@ -14004,7 +14016,7 @@
         <v>436</v>
       </c>
       <c r="AR14" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AS14" s="6" t="s">
         <v>434</v>
@@ -14033,8 +14045,8 @@
         <v>2</v>
       </c>
       <c r="H15" s="3" t="str">
-        <f t="shared" ref="H15" si="8">CONCATENATE(AK15,"_",AL15,"_",AM15,"_",AN15,"_",AO15)</f>
-        <v>G_02_09_00_00</v>
+        <f t="shared" si="0"/>
+        <v>G_02_04_00_00</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>3</v>
@@ -14046,7 +14058,7 @@
         <v>4</v>
       </c>
       <c r="L15" s="3" t="str">
-        <f t="shared" ref="L15" si="9">CONCATENATE(AK15,AL15)</f>
+        <f t="shared" si="1"/>
         <v>G02</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -14056,7 +14068,7 @@
         <v>6</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>543</v>
+        <v>411</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>7</v>
@@ -14071,15 +14083,15 @@
         <v>10</v>
       </c>
       <c r="X15" s="16" t="str">
-        <f t="shared" ref="X15" si="10">CONCATENATE(AP15,AQ15,AR15,AS15)</f>
-        <v>/netiveUI/html/markup/placeholder.html</v>
+        <f t="shared" si="2"/>
+        <v>/netiveUI/html/markup/margin.html</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z15" s="16" t="str">
-        <f t="shared" ref="Z15" si="11">CONCATENATE(AP15,AQ15,AR15,AS15)</f>
-        <v>/netiveUI/html/markup/placeholder.html</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/markup/margin.html</v>
       </c>
       <c r="AA15" s="1" t="s">
         <v>12</v>
@@ -14091,13 +14103,13 @@
         <v>14</v>
       </c>
       <c r="AF15" s="3" t="s">
-        <v>543</v>
+        <v>411</v>
       </c>
       <c r="AG15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH15" s="3" t="s">
-        <v>543</v>
+        <v>411</v>
       </c>
       <c r="AI15" s="1" t="s">
         <v>16</v>
@@ -14109,7 +14121,7 @@
         <v>403</v>
       </c>
       <c r="AM15" s="15" t="s">
-        <v>545</v>
+        <v>417</v>
       </c>
       <c r="AN15" s="12" t="s">
         <v>25</v>
@@ -14121,10 +14133,10 @@
         <v>422</v>
       </c>
       <c r="AQ15" s="13" t="s">
-        <v>547</v>
+        <v>436</v>
       </c>
       <c r="AR15" s="13" t="s">
-        <v>544</v>
+        <v>431</v>
       </c>
       <c r="AS15" s="6" t="s">
         <v>434</v>
@@ -14153,8 +14165,8 @@
         <v>2</v>
       </c>
       <c r="H16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>G_02_05_00_00</v>
+        <f t="shared" ref="H16" si="8">CONCATENATE(AK16,"_",AL16,"_",AM16,"_",AN16,"_",AO16)</f>
+        <v>G_02_09_00_00</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>3</v>
@@ -14166,7 +14178,7 @@
         <v>4</v>
       </c>
       <c r="L16" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L16" si="9">CONCATENATE(AK16,AL16)</f>
         <v>G02</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -14176,7 +14188,7 @@
         <v>6</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>412</v>
+        <v>543</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>7</v>
@@ -14191,15 +14203,15 @@
         <v>10</v>
       </c>
       <c r="X16" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>/netiveUI/html/markup/table.html</v>
+        <f t="shared" ref="X16" si="10">CONCATENATE(AP16,AQ16,AR16,AS16)</f>
+        <v>/netiveUI/html/markup/placeholder.html</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z16" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>/netiveUI/html/markup/table.html</v>
+        <f t="shared" ref="Z16" si="11">CONCATENATE(AP16,AQ16,AR16,AS16)</f>
+        <v>/netiveUI/html/markup/placeholder.html</v>
       </c>
       <c r="AA16" s="1" t="s">
         <v>12</v>
@@ -14211,13 +14223,13 @@
         <v>14</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>413</v>
+        <v>543</v>
       </c>
       <c r="AG16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>413</v>
+        <v>543</v>
       </c>
       <c r="AI16" s="1" t="s">
         <v>16</v>
@@ -14229,7 +14241,7 @@
         <v>403</v>
       </c>
       <c r="AM16" s="15" t="s">
-        <v>418</v>
+        <v>545</v>
       </c>
       <c r="AN16" s="12" t="s">
         <v>25</v>
@@ -14241,10 +14253,10 @@
         <v>422</v>
       </c>
       <c r="AQ16" s="13" t="s">
-        <v>436</v>
+        <v>547</v>
       </c>
       <c r="AR16" s="13" t="s">
-        <v>432</v>
+        <v>544</v>
       </c>
       <c r="AS16" s="6" t="s">
         <v>434</v>
@@ -14274,7 +14286,7 @@
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_02_06_00_00</v>
+        <v>G_02_05_00_00</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>3</v>
@@ -14296,7 +14308,7 @@
         <v>6</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>7</v>
@@ -14312,14 +14324,14 @@
       </c>
       <c r="X17" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/markup/typography.html</v>
+        <v>/netiveUI/html/markup/table.html</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z17" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/markup/typography.html</v>
+        <v>/netiveUI/html/markup/table.html</v>
       </c>
       <c r="AA17" s="1" t="s">
         <v>12</v>
@@ -14331,13 +14343,13 @@
         <v>14</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH17" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AI17" s="1" t="s">
         <v>16</v>
@@ -14349,7 +14361,7 @@
         <v>403</v>
       </c>
       <c r="AM17" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN17" s="12" t="s">
         <v>25</v>
@@ -14364,377 +14376,377 @@
         <v>436</v>
       </c>
       <c r="AR17" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AS17" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="1:47" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="29" t="str">
-        <f t="shared" ref="H18" si="12">CONCATENATE(AK18,"_",AL18,"_",AM18,"_",AN18,"_",AO18)</f>
+      <c r="H18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>G_02_06_00_00</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>G02</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X18" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>/netiveUI/html/markup/typography.html</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z18" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/markup/typography.html</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH18" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL18" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="AM18" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="AN18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP18" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ18" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="AR18" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="AS18" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="29" t="str">
+        <f t="shared" ref="H19" si="12">CONCATENATE(AK19,"_",AL19,"_",AM19,"_",AN19,"_",AO19)</f>
         <v>G_02_08_00_00</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I19" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J19" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="K19" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="29" t="str">
-        <f t="shared" ref="L18" si="13">CONCATENATE(AK18,AL18)</f>
+      <c r="L19" s="29" t="str">
+        <f t="shared" ref="L19" si="13">CONCATENATE(AK19,AL19)</f>
         <v>G02</v>
       </c>
-      <c r="M18" s="27" t="s">
+      <c r="M19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="27" t="s">
+      <c r="O19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P18" s="29" t="s">
+      <c r="P19" s="29" t="s">
         <v>540</v>
       </c>
-      <c r="Q18" s="27" t="s">
+      <c r="Q19" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S18" s="27" t="s">
+      <c r="S19" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="U18" s="27" t="s">
+      <c r="U19" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="W18" s="27" t="s">
+      <c r="W19" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="X18" s="30" t="str">
-        <f t="shared" ref="X18" si="14">CONCATENATE(AP18,AQ18,AR18,AS18)</f>
+      <c r="X19" s="30" t="str">
+        <f t="shared" ref="X19" si="14">CONCATENATE(AP19,AQ19,AR19,AS19)</f>
         <v>/netiveUI/html/markup/units.html</v>
       </c>
-      <c r="Y18" s="27" t="s">
+      <c r="Y19" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="Z18" s="30" t="str">
-        <f t="shared" ref="Z18" si="15">CONCATENATE(AP18,AQ18,AR18,AS18)</f>
+      <c r="Z19" s="30" t="str">
+        <f t="shared" ref="Z19" si="15">CONCATENATE(AP19,AQ19,AR19,AS19)</f>
         <v>/netiveUI/html/markup/units.html</v>
       </c>
-      <c r="AA18" s="27" t="s">
+      <c r="AA19" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AC18" s="27" t="s">
+      <c r="AC19" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AE18" s="27" t="s">
+      <c r="AE19" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AF18" s="29" t="s">
+      <c r="AF19" s="29" t="s">
         <v>540</v>
       </c>
-      <c r="AG18" s="27" t="s">
+      <c r="AG19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AH18" s="29" t="s">
+      <c r="AH19" s="29" t="s">
         <v>540</v>
       </c>
-      <c r="AI18" s="27" t="s">
+      <c r="AI19" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="32" t="s">
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AL18" s="33" t="s">
+      <c r="AL19" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="AM18" s="33" t="s">
+      <c r="AM19" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="AN18" s="34" t="s">
+      <c r="AN19" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AO18" s="34" t="s">
+      <c r="AO19" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AP18" s="35" t="s">
+      <c r="AP19" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="AQ18" s="35" t="s">
+      <c r="AQ19" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="AR18" s="35" t="s">
+      <c r="AR19" s="35" t="s">
         <v>541</v>
       </c>
-      <c r="AS18" s="36" t="s">
+      <c r="AS19" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="AT18" s="36"/>
-      <c r="AU18" s="36"/>
-    </row>
-    <row r="19" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="AT19" s="36"/>
+      <c r="AU19" s="36"/>
+    </row>
+    <row r="20" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C20" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="19" t="str">
+      <c r="H20" s="19" t="str">
         <f t="shared" si="0"/>
         <v>G_03_00_00_00</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I20" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K20" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L19" s="19" t="str">
+      <c r="L20" s="19" t="str">
         <f t="shared" si="1"/>
         <v>G03</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="M20" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N20" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="O19" s="17" t="s">
+      <c r="O20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q19" s="17" t="s">
+      <c r="Q20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S19" s="17" t="s">
+      <c r="S20" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="U19" s="17" t="s">
+      <c r="U20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="W19" s="17" t="s">
+      <c r="W20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="X19" s="20" t="str">
+      <c r="X20" s="20" t="str">
         <f t="shared" si="2"/>
         <v>/netiveUI/html/components/accordion.html</v>
       </c>
-      <c r="Y19" s="17" t="s">
+      <c r="Y20" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Z19" s="20" t="str">
+      <c r="Z20" s="20" t="str">
         <f t="shared" si="3"/>
         <v>/netiveUI/html/components/accordion.html</v>
       </c>
-      <c r="AA19" s="17" t="s">
+      <c r="AA20" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AC19" s="17" t="s">
+      <c r="AC20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AE19" s="17" t="s">
+      <c r="AE20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AF19" s="19" t="s">
+      <c r="AF20" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="AG19" s="17" t="s">
+      <c r="AG20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AH19" s="19" t="s">
+      <c r="AH20" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="AI19" s="17" t="s">
+      <c r="AI20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AJ19" s="21"/>
-      <c r="AK19" s="22" t="s">
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AL19" s="23" t="s">
+      <c r="AL20" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="AM19" s="23" t="s">
+      <c r="AM20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AN19" s="24" t="s">
+      <c r="AN20" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AO19" s="24" t="s">
+      <c r="AO20" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AP19" s="25" t="s">
+      <c r="AP20" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="AQ19" s="25" t="s">
+      <c r="AQ20" s="25" t="s">
         <v>435</v>
       </c>
-      <c r="AR19" s="25" t="s">
+      <c r="AR20" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="AS19" s="26" t="s">
+      <c r="AS20" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="AT19" s="26"/>
-      <c r="AU19" s="26"/>
-    </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>G_03_01_00_00</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>G03</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X20" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/accordion.html</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z20" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/accordion.html</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF20" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="AG20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH20" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="AI20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK20" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL20" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="AM20" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="AN20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP20" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="AQ20" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="AR20" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="AS20" s="6" t="s">
-        <v>434</v>
-      </c>
+      <c r="AT20" s="26"/>
+      <c r="AU20" s="26"/>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -14760,7 +14772,7 @@
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_02_00_00</v>
+        <v>G_03_01_00_00</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>3</v>
@@ -14782,7 +14794,7 @@
         <v>6</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>7</v>
@@ -14798,14 +14810,14 @@
       </c>
       <c r="X21" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/brickList.html</v>
+        <v>/netiveUI/html/components/accordion.html</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z21" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/brickList.html</v>
+        <v>/netiveUI/html/components/accordion.html</v>
       </c>
       <c r="AA21" s="1" t="s">
         <v>12</v>
@@ -14817,13 +14829,13 @@
         <v>14</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="AG21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH21" s="3" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="AI21" s="1" t="s">
         <v>16</v>
@@ -14835,7 +14847,7 @@
         <v>416</v>
       </c>
       <c r="AM21" s="15" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="AN21" s="12" t="s">
         <v>25</v>
@@ -14850,7 +14862,7 @@
         <v>435</v>
       </c>
       <c r="AR21" s="13" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="AS21" s="6" t="s">
         <v>434</v>
@@ -14880,7 +14892,7 @@
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_03_00_00</v>
+        <v>G_03_02_00_00</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>3</v>
@@ -14902,7 +14914,7 @@
         <v>6</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>7</v>
@@ -14918,14 +14930,14 @@
       </c>
       <c r="X22" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/capture.html</v>
+        <v>/netiveUI/html/components/brickList.html</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z22" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/capture.html</v>
+        <v>/netiveUI/html/components/brickList.html</v>
       </c>
       <c r="AA22" s="1" t="s">
         <v>12</v>
@@ -14937,13 +14949,13 @@
         <v>14</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH22" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AI22" s="1" t="s">
         <v>16</v>
@@ -14955,7 +14967,7 @@
         <v>416</v>
       </c>
       <c r="AM22" s="15" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="AN22" s="12" t="s">
         <v>25</v>
@@ -14970,7 +14982,7 @@
         <v>435</v>
       </c>
       <c r="AR22" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AS22" s="6" t="s">
         <v>434</v>
@@ -15000,7 +15012,7 @@
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_04_00_00</v>
+        <v>G_03_03_00_00</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>3</v>
@@ -15022,7 +15034,7 @@
         <v>6</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>7</v>
@@ -15038,14 +15050,14 @@
       </c>
       <c r="X23" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/countNumber.html</v>
+        <v>/netiveUI/html/components/capture.html</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z23" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/countNumber.html</v>
+        <v>/netiveUI/html/components/capture.html</v>
       </c>
       <c r="AA23" s="1" t="s">
         <v>12</v>
@@ -15057,13 +15069,13 @@
         <v>14</v>
       </c>
       <c r="AF23" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AG23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH23" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AI23" s="1" t="s">
         <v>16</v>
@@ -15075,7 +15087,7 @@
         <v>416</v>
       </c>
       <c r="AM23" s="15" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="AN23" s="12" t="s">
         <v>25</v>
@@ -15090,7 +15102,7 @@
         <v>435</v>
       </c>
       <c r="AR23" s="13" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AS23" s="6" t="s">
         <v>434</v>
@@ -15120,7 +15132,7 @@
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_05_00_00</v>
+        <v>G_03_04_00_00</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>3</v>
@@ -15142,7 +15154,7 @@
         <v>6</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>7</v>
@@ -15158,14 +15170,14 @@
       </c>
       <c r="X24" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/datePicker.html</v>
+        <v>/netiveUI/html/components/countNumber.html</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z24" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/datePicker.html</v>
+        <v>/netiveUI/html/components/countNumber.html</v>
       </c>
       <c r="AA24" s="1" t="s">
         <v>12</v>
@@ -15177,13 +15189,13 @@
         <v>14</v>
       </c>
       <c r="AF24" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AG24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH24" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AI24" s="1" t="s">
         <v>16</v>
@@ -15195,7 +15207,7 @@
         <v>416</v>
       </c>
       <c r="AM24" s="15" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AN24" s="12" t="s">
         <v>25</v>
@@ -15210,7 +15222,7 @@
         <v>435</v>
       </c>
       <c r="AR24" s="13" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AS24" s="6" t="s">
         <v>434</v>
@@ -15240,7 +15252,7 @@
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_06_00_00</v>
+        <v>G_03_05_00_00</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>3</v>
@@ -15262,7 +15274,7 @@
         <v>6</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>7</v>
@@ -15278,14 +15290,14 @@
       </c>
       <c r="X25" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/dropdown.html</v>
+        <v>/netiveUI/html/components/datePicker.html</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z25" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/dropdown.html</v>
+        <v>/netiveUI/html/components/datePicker.html</v>
       </c>
       <c r="AA25" s="1" t="s">
         <v>12</v>
@@ -15297,13 +15309,13 @@
         <v>14</v>
       </c>
       <c r="AF25" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AG25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH25" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AI25" s="1" t="s">
         <v>16</v>
@@ -15315,7 +15327,7 @@
         <v>416</v>
       </c>
       <c r="AM25" s="15" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AN25" s="12" t="s">
         <v>25</v>
@@ -15330,7 +15342,7 @@
         <v>435</v>
       </c>
       <c r="AR25" s="13" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AS25" s="6" t="s">
         <v>434</v>
@@ -15360,7 +15372,7 @@
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_07_00_00</v>
+        <v>G_03_06_00_00</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>3</v>
@@ -15382,7 +15394,7 @@
         <v>6</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>7</v>
@@ -15398,14 +15410,14 @@
       </c>
       <c r="X26" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/fileUpload.html</v>
+        <v>/netiveUI/html/components/dropdown.html</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z26" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/fileUpload.html</v>
+        <v>/netiveUI/html/components/dropdown.html</v>
       </c>
       <c r="AA26" s="1" t="s">
         <v>12</v>
@@ -15417,13 +15429,13 @@
         <v>14</v>
       </c>
       <c r="AF26" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AG26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH26" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AI26" s="1" t="s">
         <v>16</v>
@@ -15435,7 +15447,7 @@
         <v>416</v>
       </c>
       <c r="AM26" s="15" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AN26" s="12" t="s">
         <v>25</v>
@@ -15450,7 +15462,7 @@
         <v>435</v>
       </c>
       <c r="AR26" s="13" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AS26" s="6" t="s">
         <v>434</v>
@@ -15480,7 +15492,7 @@
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_08_00_00</v>
+        <v>G_03_07_00_00</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>3</v>
@@ -15502,7 +15514,7 @@
         <v>6</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>7</v>
@@ -15518,14 +15530,14 @@
       </c>
       <c r="X27" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/floating.html</v>
+        <v>/netiveUI/html/components/fileUpload.html</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z27" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/floating.html</v>
+        <v>/netiveUI/html/components/fileUpload.html</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>12</v>
@@ -15537,13 +15549,13 @@
         <v>14</v>
       </c>
       <c r="AF27" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AG27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH27" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AI27" s="1" t="s">
         <v>16</v>
@@ -15555,7 +15567,7 @@
         <v>416</v>
       </c>
       <c r="AM27" s="15" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AN27" s="12" t="s">
         <v>25</v>
@@ -15570,7 +15582,7 @@
         <v>435</v>
       </c>
       <c r="AR27" s="13" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AS27" s="6" t="s">
         <v>434</v>
@@ -15600,7 +15612,7 @@
       </c>
       <c r="H28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_24_00_00</v>
+        <v>G_03_08_00_00</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>3</v>
@@ -15622,7 +15634,7 @@
         <v>6</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>7</v>
@@ -15638,14 +15650,14 @@
       </c>
       <c r="X28" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/floatingRange.html</v>
+        <v>/netiveUI/html/components/floating.html</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z28" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/floatingRange.html</v>
+        <v>/netiveUI/html/components/floating.html</v>
       </c>
       <c r="AA28" s="1" t="s">
         <v>12</v>
@@ -15657,13 +15669,13 @@
         <v>14</v>
       </c>
       <c r="AF28" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AG28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH28" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AI28" s="1" t="s">
         <v>16</v>
@@ -15675,7 +15687,7 @@
         <v>416</v>
       </c>
       <c r="AM28" s="15" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AN28" s="12" t="s">
         <v>25</v>
@@ -15690,7 +15702,7 @@
         <v>435</v>
       </c>
       <c r="AR28" s="13" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AS28" s="6" t="s">
         <v>434</v>
@@ -15720,7 +15732,7 @@
       </c>
       <c r="H29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_09_00_00</v>
+        <v>G_03_24_00_00</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>3</v>
@@ -15742,7 +15754,7 @@
         <v>6</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>550</v>
+        <v>458</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>7</v>
@@ -15758,14 +15770,14 @@
       </c>
       <c r="X29" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/inputClear.html</v>
+        <v>/netiveUI/html/components/floatingRange.html</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z29" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/inputClear.html</v>
+        <v>/netiveUI/html/components/floatingRange.html</v>
       </c>
       <c r="AA29" s="1" t="s">
         <v>12</v>
@@ -15777,13 +15789,13 @@
         <v>14</v>
       </c>
       <c r="AF29" s="3" t="s">
-        <v>549</v>
+        <v>459</v>
       </c>
       <c r="AG29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH29" s="3" t="s">
-        <v>549</v>
+        <v>458</v>
       </c>
       <c r="AI29" s="1" t="s">
         <v>16</v>
@@ -15795,7 +15807,7 @@
         <v>416</v>
       </c>
       <c r="AM29" s="15" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AN29" s="12" t="s">
         <v>25</v>
@@ -15810,7 +15822,7 @@
         <v>435</v>
       </c>
       <c r="AR29" s="13" t="s">
-        <v>551</v>
+        <v>461</v>
       </c>
       <c r="AS29" s="6" t="s">
         <v>434</v>
@@ -15840,7 +15852,7 @@
       </c>
       <c r="H30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_10_00_00</v>
+        <v>G_03_09_00_00</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>3</v>
@@ -15862,7 +15874,7 @@
         <v>6</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>465</v>
+        <v>550</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>7</v>
@@ -15878,14 +15890,14 @@
       </c>
       <c r="X30" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/jsonCodingList.html</v>
+        <v>/netiveUI/html/components/inputClear.html</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z30" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/jsonCodingList.html</v>
+        <v>/netiveUI/html/components/inputClear.html</v>
       </c>
       <c r="AA30" s="1" t="s">
         <v>12</v>
@@ -15897,13 +15909,13 @@
         <v>14</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>465</v>
+        <v>549</v>
       </c>
       <c r="AG30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH30" s="3" t="s">
-        <v>465</v>
+        <v>549</v>
       </c>
       <c r="AI30" s="1" t="s">
         <v>16</v>
@@ -15915,7 +15927,7 @@
         <v>416</v>
       </c>
       <c r="AM30" s="15" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AN30" s="12" t="s">
         <v>25</v>
@@ -15930,7 +15942,7 @@
         <v>435</v>
       </c>
       <c r="AR30" s="13" t="s">
-        <v>467</v>
+        <v>551</v>
       </c>
       <c r="AS30" s="6" t="s">
         <v>434</v>
@@ -15960,7 +15972,7 @@
       </c>
       <c r="H31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_11_00_00</v>
+        <v>G_03_10_00_00</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>3</v>
@@ -15982,7 +15994,7 @@
         <v>6</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>7</v>
@@ -15998,14 +16010,14 @@
       </c>
       <c r="X31" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/jsonMenu.html</v>
+        <v>/netiveUI/html/components/jsonCodingList.html</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z31" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/jsonMenu.html</v>
+        <v>/netiveUI/html/components/jsonCodingList.html</v>
       </c>
       <c r="AA31" s="1" t="s">
         <v>12</v>
@@ -16017,13 +16029,13 @@
         <v>14</v>
       </c>
       <c r="AF31" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AG31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH31" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AI31" s="1" t="s">
         <v>16</v>
@@ -16035,7 +16047,7 @@
         <v>416</v>
       </c>
       <c r="AM31" s="15" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AN31" s="12" t="s">
         <v>25</v>
@@ -16050,7 +16062,7 @@
         <v>435</v>
       </c>
       <c r="AR31" s="13" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AS31" s="6" t="s">
         <v>434</v>
@@ -16080,7 +16092,7 @@
       </c>
       <c r="H32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_12_00_00</v>
+        <v>G_03_11_00_00</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>3</v>
@@ -16102,7 +16114,7 @@
         <v>6</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>7</v>
@@ -16118,14 +16130,14 @@
       </c>
       <c r="X32" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/loading.html</v>
+        <v>/netiveUI/html/components/jsonMenu.html</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z32" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/loading.html</v>
+        <v>/netiveUI/html/components/jsonMenu.html</v>
       </c>
       <c r="AA32" s="1" t="s">
         <v>12</v>
@@ -16137,13 +16149,13 @@
         <v>14</v>
       </c>
       <c r="AF32" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AG32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH32" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AI32" s="1" t="s">
         <v>16</v>
@@ -16155,7 +16167,7 @@
         <v>416</v>
       </c>
       <c r="AM32" s="15" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AN32" s="12" t="s">
         <v>25</v>
@@ -16170,7 +16182,7 @@
         <v>435</v>
       </c>
       <c r="AR32" s="13" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AS32" s="6" t="s">
         <v>434</v>
@@ -16200,7 +16212,7 @@
       </c>
       <c r="H33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_13_00_00</v>
+        <v>G_03_12_00_00</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>3</v>
@@ -16222,7 +16234,7 @@
         <v>6</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>7</v>
@@ -16238,14 +16250,14 @@
       </c>
       <c r="X33" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/modal.html</v>
+        <v>/netiveUI/html/components/loading.html</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z33" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/modal.html</v>
+        <v>/netiveUI/html/components/loading.html</v>
       </c>
       <c r="AA33" s="1" t="s">
         <v>12</v>
@@ -16257,13 +16269,13 @@
         <v>14</v>
       </c>
       <c r="AF33" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AG33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH33" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AI33" s="1" t="s">
         <v>16</v>
@@ -16275,7 +16287,7 @@
         <v>416</v>
       </c>
       <c r="AM33" s="15" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AN33" s="12" t="s">
         <v>25</v>
@@ -16290,7 +16302,7 @@
         <v>435</v>
       </c>
       <c r="AR33" s="13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AS33" s="6" t="s">
         <v>434</v>
@@ -16320,7 +16332,7 @@
       </c>
       <c r="H34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_14_00_00</v>
+        <v>G_03_13_00_00</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>3</v>
@@ -16342,7 +16354,7 @@
         <v>6</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>7</v>
@@ -16358,14 +16370,14 @@
       </c>
       <c r="X34" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/popup.html</v>
+        <v>/netiveUI/html/components/modal.html</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z34" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/popup.html</v>
+        <v>/netiveUI/html/components/modal.html</v>
       </c>
       <c r="AA34" s="1" t="s">
         <v>12</v>
@@ -16377,13 +16389,13 @@
         <v>14</v>
       </c>
       <c r="AF34" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AG34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH34" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AI34" s="1" t="s">
         <v>16</v>
@@ -16395,7 +16407,7 @@
         <v>416</v>
       </c>
       <c r="AM34" s="15" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AN34" s="12" t="s">
         <v>25</v>
@@ -16410,7 +16422,7 @@
         <v>435</v>
       </c>
       <c r="AR34" s="13" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AS34" s="6" t="s">
         <v>434</v>
@@ -16440,7 +16452,7 @@
       </c>
       <c r="H35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_23_00_00</v>
+        <v>G_03_14_00_00</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>3</v>
@@ -16462,7 +16474,7 @@
         <v>6</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>7</v>
@@ -16478,14 +16490,14 @@
       </c>
       <c r="X35" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/print.html</v>
+        <v>/netiveUI/html/components/popup.html</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z35" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/print.html</v>
+        <v>/netiveUI/html/components/popup.html</v>
       </c>
       <c r="AA35" s="1" t="s">
         <v>12</v>
@@ -16497,13 +16509,13 @@
         <v>14</v>
       </c>
       <c r="AF35" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AG35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH35" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AI35" s="1" t="s">
         <v>16</v>
@@ -16515,7 +16527,7 @@
         <v>416</v>
       </c>
       <c r="AM35" s="15" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AN35" s="12" t="s">
         <v>25</v>
@@ -16530,7 +16542,7 @@
         <v>435</v>
       </c>
       <c r="AR35" s="13" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AS35" s="6" t="s">
         <v>434</v>
@@ -16560,7 +16572,7 @@
       </c>
       <c r="H36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_25_00_00</v>
+        <v>G_03_23_00_00</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>3</v>
@@ -16582,7 +16594,7 @@
         <v>6</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>7</v>
@@ -16598,14 +16610,14 @@
       </c>
       <c r="X36" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/scrollBar.html</v>
+        <v>/netiveUI/html/components/print.html</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z36" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/scrollBar.html</v>
+        <v>/netiveUI/html/components/print.html</v>
       </c>
       <c r="AA36" s="1" t="s">
         <v>12</v>
@@ -16617,13 +16629,13 @@
         <v>14</v>
       </c>
       <c r="AF36" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AG36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH36" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AI36" s="1" t="s">
         <v>16</v>
@@ -16635,7 +16647,7 @@
         <v>416</v>
       </c>
       <c r="AM36" s="15" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AN36" s="12" t="s">
         <v>25</v>
@@ -16650,7 +16662,7 @@
         <v>435</v>
       </c>
       <c r="AR36" s="13" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AS36" s="6" t="s">
         <v>434</v>
@@ -16680,7 +16692,7 @@
       </c>
       <c r="H37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_26_00_00</v>
+        <v>G_03_25_00_00</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>3</v>
@@ -16702,7 +16714,7 @@
         <v>6</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>7</v>
@@ -16718,14 +16730,14 @@
       </c>
       <c r="X37" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/scrollBgImg.html</v>
+        <v>/netiveUI/html/components/scrollBar.html</v>
       </c>
       <c r="Y37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z37" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/scrollBgImg.html</v>
+        <v>/netiveUI/html/components/scrollBar.html</v>
       </c>
       <c r="AA37" s="1" t="s">
         <v>12</v>
@@ -16737,13 +16749,13 @@
         <v>14</v>
       </c>
       <c r="AF37" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AG37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH37" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AI37" s="1" t="s">
         <v>16</v>
@@ -16755,7 +16767,7 @@
         <v>416</v>
       </c>
       <c r="AM37" s="15" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AN37" s="12" t="s">
         <v>25</v>
@@ -16770,7 +16782,7 @@
         <v>435</v>
       </c>
       <c r="AR37" s="13" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AS37" s="6" t="s">
         <v>434</v>
@@ -16800,7 +16812,7 @@
       </c>
       <c r="H38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_15_00_00</v>
+        <v>G_03_26_00_00</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>3</v>
@@ -16822,7 +16834,7 @@
         <v>6</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>7</v>
@@ -16838,14 +16850,14 @@
       </c>
       <c r="X38" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/scrollMove.html</v>
+        <v>/netiveUI/html/components/scrollBgImg.html</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z38" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/scrollMove.html</v>
+        <v>/netiveUI/html/components/scrollBgImg.html</v>
       </c>
       <c r="AA38" s="1" t="s">
         <v>12</v>
@@ -16857,13 +16869,13 @@
         <v>14</v>
       </c>
       <c r="AF38" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AG38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH38" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AI38" s="1" t="s">
         <v>16</v>
@@ -16875,7 +16887,7 @@
         <v>416</v>
       </c>
       <c r="AM38" s="15" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AN38" s="12" t="s">
         <v>25</v>
@@ -16890,7 +16902,7 @@
         <v>435</v>
       </c>
       <c r="AR38" s="13" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AS38" s="6" t="s">
         <v>434</v>
@@ -16920,7 +16932,7 @@
       </c>
       <c r="H39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_16_00_00</v>
+        <v>G_03_15_00_00</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>3</v>
@@ -16942,7 +16954,7 @@
         <v>6</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>7</v>
@@ -16958,14 +16970,14 @@
       </c>
       <c r="X39" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/select.html</v>
+        <v>/netiveUI/html/components/scrollMove.html</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z39" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/select.html</v>
+        <v>/netiveUI/html/components/scrollMove.html</v>
       </c>
       <c r="AA39" s="1" t="s">
         <v>12</v>
@@ -16977,13 +16989,13 @@
         <v>14</v>
       </c>
       <c r="AF39" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AG39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH39" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AI39" s="1" t="s">
         <v>16</v>
@@ -16995,7 +17007,7 @@
         <v>416</v>
       </c>
       <c r="AM39" s="15" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AN39" s="12" t="s">
         <v>25</v>
@@ -17010,7 +17022,7 @@
         <v>435</v>
       </c>
       <c r="AR39" s="13" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AS39" s="6" t="s">
         <v>434</v>
@@ -17040,7 +17052,7 @@
       </c>
       <c r="H40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_17_00_00</v>
+        <v>G_03_16_00_00</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>3</v>
@@ -17062,7 +17074,7 @@
         <v>6</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>7</v>
@@ -17078,14 +17090,14 @@
       </c>
       <c r="X40" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/selection.html</v>
+        <v>/netiveUI/html/components/select.html</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z40" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/selection.html</v>
+        <v>/netiveUI/html/components/select.html</v>
       </c>
       <c r="AA40" s="1" t="s">
         <v>12</v>
@@ -17097,13 +17109,13 @@
         <v>14</v>
       </c>
       <c r="AF40" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AG40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH40" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AI40" s="1" t="s">
         <v>16</v>
@@ -17115,7 +17127,7 @@
         <v>416</v>
       </c>
       <c r="AM40" s="15" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AN40" s="12" t="s">
         <v>25</v>
@@ -17130,7 +17142,7 @@
         <v>435</v>
       </c>
       <c r="AR40" s="13" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AS40" s="6" t="s">
         <v>434</v>
@@ -17160,7 +17172,7 @@
       </c>
       <c r="H41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_18_00_00</v>
+        <v>G_03_17_00_00</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>3</v>
@@ -17182,7 +17194,7 @@
         <v>6</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>7</v>
@@ -17198,14 +17210,14 @@
       </c>
       <c r="X41" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/slide.html</v>
+        <v>/netiveUI/html/components/selection.html</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z41" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/slide.html</v>
+        <v>/netiveUI/html/components/selection.html</v>
       </c>
       <c r="AA41" s="1" t="s">
         <v>12</v>
@@ -17217,13 +17229,13 @@
         <v>14</v>
       </c>
       <c r="AF41" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AG41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH41" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AI41" s="1" t="s">
         <v>16</v>
@@ -17235,7 +17247,7 @@
         <v>416</v>
       </c>
       <c r="AM41" s="15" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AN41" s="12" t="s">
         <v>25</v>
@@ -17250,7 +17262,7 @@
         <v>435</v>
       </c>
       <c r="AR41" s="13" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AS41" s="6" t="s">
         <v>434</v>
@@ -17280,7 +17292,7 @@
       </c>
       <c r="H42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_19_00_00</v>
+        <v>G_03_18_00_00</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>3</v>
@@ -17302,7 +17314,7 @@
         <v>6</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>7</v>
@@ -17318,14 +17330,14 @@
       </c>
       <c r="X42" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/slider.html</v>
+        <v>/netiveUI/html/components/slide.html</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z42" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/slider.html</v>
+        <v>/netiveUI/html/components/slide.html</v>
       </c>
       <c r="AA42" s="1" t="s">
         <v>12</v>
@@ -17337,13 +17349,13 @@
         <v>14</v>
       </c>
       <c r="AF42" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AG42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH42" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AI42" s="1" t="s">
         <v>16</v>
@@ -17355,7 +17367,7 @@
         <v>416</v>
       </c>
       <c r="AM42" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AN42" s="12" t="s">
         <v>25</v>
@@ -17370,7 +17382,7 @@
         <v>435</v>
       </c>
       <c r="AR42" s="13" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AS42" s="6" t="s">
         <v>434</v>
@@ -17400,7 +17412,7 @@
       </c>
       <c r="H43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_20_00_00</v>
+        <v>G_03_19_00_00</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>3</v>
@@ -17422,7 +17434,7 @@
         <v>6</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>7</v>
@@ -17438,14 +17450,14 @@
       </c>
       <c r="X43" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/slot.html</v>
+        <v>/netiveUI/html/components/slider.html</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z43" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/slot.html</v>
+        <v>/netiveUI/html/components/slider.html</v>
       </c>
       <c r="AA43" s="1" t="s">
         <v>12</v>
@@ -17457,13 +17469,13 @@
         <v>14</v>
       </c>
       <c r="AF43" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AG43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH43" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AI43" s="1" t="s">
         <v>16</v>
@@ -17475,7 +17487,7 @@
         <v>416</v>
       </c>
       <c r="AM43" s="15" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AN43" s="12" t="s">
         <v>25</v>
@@ -17490,7 +17502,7 @@
         <v>435</v>
       </c>
       <c r="AR43" s="13" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AS43" s="6" t="s">
         <v>434</v>
@@ -17520,7 +17532,7 @@
       </c>
       <c r="H44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_21_00_00</v>
+        <v>G_03_20_00_00</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>3</v>
@@ -17542,7 +17554,7 @@
         <v>6</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>7</v>
@@ -17558,14 +17570,14 @@
       </c>
       <c r="X44" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/tab.html</v>
+        <v>/netiveUI/html/components/slot.html</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z44" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/tab.html</v>
+        <v>/netiveUI/html/components/slot.html</v>
       </c>
       <c r="AA44" s="1" t="s">
         <v>12</v>
@@ -17577,13 +17589,13 @@
         <v>14</v>
       </c>
       <c r="AF44" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AG44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH44" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AI44" s="1" t="s">
         <v>16</v>
@@ -17595,7 +17607,7 @@
         <v>416</v>
       </c>
       <c r="AM44" s="15" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AN44" s="12" t="s">
         <v>25</v>
@@ -17610,257 +17622,254 @@
         <v>435</v>
       </c>
       <c r="AR44" s="13" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AS44" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="45" spans="1:47" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="G45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H45" s="29" t="str">
+      <c r="H45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>G_03_21_00_00</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>G03</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X45" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>/netiveUI/html/components/tab.html</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z45" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components/tab.html</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF45" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="AG45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH45" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="AI45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK45" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL45" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="AM45" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="AN45" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO45" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP45" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ45" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="AR45" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS45" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="29" t="str">
         <f t="shared" si="0"/>
         <v>G_03_22_00_00</v>
       </c>
-      <c r="I45" s="27" t="s">
+      <c r="I46" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="29" t="s">
+      <c r="J46" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="K45" s="27" t="s">
+      <c r="K46" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="29" t="str">
+      <c r="L46" s="29" t="str">
         <f t="shared" si="1"/>
         <v>G03</v>
       </c>
-      <c r="M45" s="27" t="s">
+      <c r="M46" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="27" t="s">
+      <c r="O46" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P45" s="29" t="s">
+      <c r="P46" s="29" t="s">
         <v>511</v>
       </c>
-      <c r="Q45" s="27" t="s">
+      <c r="Q46" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S45" s="27" t="s">
+      <c r="S46" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="27" t="s">
+      <c r="U46" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="W45" s="27" t="s">
+      <c r="W46" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="X45" s="30" t="str">
+      <c r="X46" s="30" t="str">
         <f t="shared" si="2"/>
         <v>/netiveUI/html/components/tooltip.html</v>
       </c>
-      <c r="Y45" s="27" t="s">
+      <c r="Y46" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="Z45" s="30" t="str">
+      <c r="Z46" s="30" t="str">
         <f t="shared" si="3"/>
         <v>/netiveUI/html/components/tooltip.html</v>
       </c>
-      <c r="AA45" s="27" t="s">
+      <c r="AA46" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AC45" s="27" t="s">
+      <c r="AC46" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AE45" s="27" t="s">
+      <c r="AE46" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AF45" s="29" t="s">
+      <c r="AF46" s="29" t="s">
         <v>511</v>
       </c>
-      <c r="AG45" s="27" t="s">
+      <c r="AG46" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AH45" s="29" t="s">
+      <c r="AH46" s="29" t="s">
         <v>511</v>
       </c>
-      <c r="AI45" s="1" t="s">
+      <c r="AI46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AJ45" s="31"/>
-      <c r="AK45" s="32" t="s">
+      <c r="AJ46" s="31"/>
+      <c r="AK46" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AL45" s="33" t="s">
+      <c r="AL46" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="AM45" s="33" t="s">
+      <c r="AM46" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="AN45" s="34" t="s">
+      <c r="AN46" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AO45" s="34" t="s">
+      <c r="AO46" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AP45" s="35" t="s">
+      <c r="AP46" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="AQ45" s="35" t="s">
+      <c r="AQ46" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="AR45" s="35" t="s">
+      <c r="AR46" s="35" t="s">
         <v>513</v>
       </c>
-      <c r="AS45" s="36" t="s">
+      <c r="AS46" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="AT45" s="36"/>
-      <c r="AU45" s="36"/>
-    </row>
-    <row r="46" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" s="19" t="str">
-        <f t="shared" ref="H46" si="16">CONCATENATE(AK46,"_",AL46,"_",AM46,"_",AN46,"_",AO46)</f>
-        <v>G_04_00_00_00</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K46" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="19" t="str">
-        <f t="shared" ref="L46" si="17">CONCATENATE(AK46,AL46)</f>
-        <v>G04</v>
-      </c>
-      <c r="M46" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="19" t="s">
-        <v>552</v>
-      </c>
-      <c r="O46" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q46" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="S46" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="U46" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="W46" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="X46" s="20" t="str">
-        <f t="shared" ref="X46" si="18">CONCATENATE(AP46,AQ46,AR46,AS46)</f>
-        <v>/netiveUI/html/memory/issue.html</v>
-      </c>
-      <c r="Y46" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z46" s="20" t="str">
-        <f t="shared" ref="Z46" si="19">CONCATENATE(AP46,AQ46,AR46,AS46)</f>
-        <v>/netiveUI/html/memory/issue.html</v>
-      </c>
-      <c r="AA46" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC46" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE46" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF46" s="19" t="s">
-        <v>552</v>
-      </c>
-      <c r="AG46" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH46" s="19" t="s">
-        <v>552</v>
-      </c>
-      <c r="AI46" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ46" s="21"/>
-      <c r="AK46" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL46" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="AM46" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN46" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO46" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP46" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="AQ46" s="25" t="s">
-        <v>553</v>
-      </c>
-      <c r="AR46" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="AS46" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="AT46" s="26"/>
-      <c r="AU46" s="26"/>
+      <c r="AT46" s="36"/>
+      <c r="AU46" s="36"/>
     </row>
     <row r="47" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
@@ -17885,8 +17894,8 @@
         <v>2</v>
       </c>
       <c r="H47" s="19" t="str">
-        <f t="shared" ref="H47" si="20">CONCATENATE(AK47,"_",AL47,"_",AM47,"_",AN47,"_",AO47)</f>
-        <v>G_04_01_00_00</v>
+        <f t="shared" ref="H47" si="16">CONCATENATE(AK47,"_",AL47,"_",AM47,"_",AN47,"_",AO47)</f>
+        <v>G_04_00_00_00</v>
       </c>
       <c r="I47" s="17" t="s">
         <v>3</v>
@@ -17898,18 +17907,18 @@
         <v>4</v>
       </c>
       <c r="L47" s="19" t="str">
-        <f t="shared" ref="L47" si="21">CONCATENATE(AK47,AL47)</f>
+        <f t="shared" ref="L47" si="17">CONCATENATE(AK47,AL47)</f>
         <v>G04</v>
       </c>
       <c r="M47" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="N47" s="19" t="s">
+        <v>552</v>
+      </c>
       <c r="O47" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="P47" s="19" t="s">
-        <v>554</v>
-      </c>
       <c r="Q47" s="17" t="s">
         <v>7</v>
       </c>
@@ -17923,14 +17932,14 @@
         <v>10</v>
       </c>
       <c r="X47" s="20" t="str">
-        <f t="shared" ref="X47" si="22">CONCATENATE(AP47,AQ47,AR47,AS47)</f>
+        <f t="shared" ref="X47" si="18">CONCATENATE(AP47,AQ47,AR47,AS47)</f>
         <v>/netiveUI/html/memory/issue.html</v>
       </c>
       <c r="Y47" s="17" t="s">
         <v>11</v>
       </c>
       <c r="Z47" s="20" t="str">
-        <f t="shared" ref="Z47" si="23">CONCATENATE(AP47,AQ47,AR47,AS47)</f>
+        <f t="shared" ref="Z47" si="19">CONCATENATE(AP47,AQ47,AR47,AS47)</f>
         <v>/netiveUI/html/memory/issue.html</v>
       </c>
       <c r="AA47" s="17" t="s">
@@ -17943,13 +17952,13 @@
         <v>14</v>
       </c>
       <c r="AF47" s="19" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AG47" s="17" t="s">
         <v>15</v>
       </c>
       <c r="AH47" s="19" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AI47" s="17" t="s">
         <v>16</v>
@@ -17962,7 +17971,7 @@
         <v>444</v>
       </c>
       <c r="AM47" s="23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AN47" s="24" t="s">
         <v>25</v>
@@ -17985,236 +17994,247 @@
       <c r="AT47" s="26"/>
       <c r="AU47" s="26"/>
     </row>
-    <row r="48" spans="1:47" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="40" t="s">
+    <row r="48" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="41" t="s">
+      <c r="F48" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="40" t="s">
+      <c r="G48" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H48" s="42" t="str">
-        <f t="shared" ref="H48" si="24">CONCATENATE(AK48,"_",AL48,"_",AM48,"_",AN48,"_",AO48)</f>
+      <c r="H48" s="19" t="str">
+        <f t="shared" ref="H48" si="20">CONCATENATE(AK48,"_",AL48,"_",AM48,"_",AN48,"_",AO48)</f>
+        <v>G_04_01_00_00</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="19" t="str">
+        <f t="shared" ref="L48" si="21">CONCATENATE(AK48,AL48)</f>
+        <v>G04</v>
+      </c>
+      <c r="M48" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P48" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q48" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="S48" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="W48" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="X48" s="20" t="str">
+        <f t="shared" ref="X48" si="22">CONCATENATE(AP48,AQ48,AR48,AS48)</f>
+        <v>/netiveUI/html/memory/issue.html</v>
+      </c>
+      <c r="Y48" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z48" s="20" t="str">
+        <f t="shared" ref="Z48" si="23">CONCATENATE(AP48,AQ48,AR48,AS48)</f>
+        <v>/netiveUI/html/memory/issue.html</v>
+      </c>
+      <c r="AA48" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC48" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE48" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF48" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="AG48" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH48" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="AI48" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ48" s="21"/>
+      <c r="AK48" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL48" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="AM48" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN48" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO48" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP48" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ48" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="AR48" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="AS48" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="AT48" s="26"/>
+      <c r="AU48" s="26"/>
+    </row>
+    <row r="49" spans="1:47" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="39" t="str">
+        <f t="shared" ref="H49" si="24">CONCATENATE(AK49,"_",AL49,"_",AM49,"_",AN49,"_",AO49)</f>
         <v>P_00_00_00_00</v>
       </c>
-      <c r="I48" s="40" t="s">
+      <c r="I49" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="J48" s="42" t="s">
+      <c r="J49" s="39" t="s">
         <v>539</v>
       </c>
-      <c r="K48" s="40" t="s">
+      <c r="K49" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="42" t="str">
-        <f t="shared" ref="L48" si="25">CONCATENATE(AK48,AL48)</f>
+      <c r="L49" s="39" t="str">
+        <f t="shared" ref="L49" si="25">CONCATENATE(AK49,AL49)</f>
         <v>P00</v>
       </c>
-      <c r="M48" s="40" t="s">
+      <c r="M49" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="42" t="s">
+      <c r="N49" s="39" t="s">
         <v>516</v>
       </c>
-      <c r="O48" s="40" t="s">
+      <c r="O49" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="Q48" s="40" t="s">
+      <c r="Q49" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="S48" s="40" t="s">
+      <c r="S49" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="U48" s="40" t="s">
+      <c r="U49" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="W48" s="40" t="s">
+      <c r="W49" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="X48" s="43" t="str">
-        <f t="shared" ref="X48" si="26">CONCATENATE(AP48,AQ48,AR48,AS48)</f>
+      <c r="X49" s="40" t="str">
+        <f t="shared" ref="X49" si="26">CONCATENATE(AP49,AQ49,AR49,AS49)</f>
         <v>#</v>
       </c>
-      <c r="Y48" s="40" t="s">
+      <c r="Y49" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="Z48" s="43" t="str">
-        <f t="shared" ref="Z48" si="27">CONCATENATE(AP48,AQ48,AR48,AS48)</f>
+      <c r="Z49" s="40" t="str">
+        <f t="shared" ref="Z49" si="27">CONCATENATE(AP49,AQ49,AR49,AS49)</f>
         <v>#</v>
       </c>
-      <c r="AA48" s="40" t="s">
+      <c r="AA49" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AC48" s="40" t="s">
+      <c r="AC49" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AE48" s="40" t="s">
+      <c r="AE49" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AF48" s="42" t="s">
+      <c r="AF49" s="39" t="s">
         <v>516</v>
       </c>
-      <c r="AG48" s="40" t="s">
+      <c r="AG49" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="AH48" s="42" t="s">
+      <c r="AH49" s="39" t="s">
         <v>516</v>
       </c>
-      <c r="AI48" s="40" t="s">
+      <c r="AI49" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="AJ48" s="44"/>
-      <c r="AK48" s="45" t="s">
+      <c r="AJ49" s="41"/>
+      <c r="AK49" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="AL48" s="46" t="s">
+      <c r="AL49" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="AM48" s="46" t="s">
+      <c r="AM49" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="AN48" s="47" t="s">
+      <c r="AN49" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AO48" s="47" t="s">
+      <c r="AO49" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AP48" s="48" t="s">
+      <c r="AP49" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="AQ48" s="48"/>
-      <c r="AR48" s="48"/>
-      <c r="AS48" s="49"/>
-      <c r="AT48" s="49"/>
-      <c r="AU48" s="49"/>
-    </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="3" t="str">
-        <f t="shared" ref="H49:H67" si="28">CONCATENATE(AK49,"_",AL49,"_",AM49,"_",AN49,"_",AO49)</f>
-        <v>P_01_00_00_00</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="19" t="s">
-        <v>539</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3" t="str">
-        <f t="shared" ref="L49:L67" si="29">CONCATENATE(AK49,AL49)</f>
-        <v>P01</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X49" s="16" t="str">
-        <f t="shared" ref="X49:X67" si="30">CONCATENATE(AP49,AQ49,AR49,AS49)</f>
-        <v>#</v>
-      </c>
-      <c r="Y49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z49" s="16" t="str">
-        <f t="shared" ref="Z49:Z67" si="31">CONCATENATE(AP49,AQ49,AR49,AS49)</f>
-        <v>#</v>
-      </c>
-      <c r="AA49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF49" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="AG49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH49" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="AI49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK49" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="AL49" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM49" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN49" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO49" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP49" s="25" t="s">
-        <v>538</v>
-      </c>
-      <c r="AQ49" s="13"/>
-    </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ49" s="45"/>
+      <c r="AR49" s="45"/>
+      <c r="AS49" s="46"/>
+      <c r="AT49" s="46"/>
+      <c r="AU49" s="46"/>
+    </row>
+    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
@@ -18237,120 +18257,120 @@
         <v>2</v>
       </c>
       <c r="H50" s="3" t="str">
+        <f t="shared" ref="H50:H68" si="28">CONCATENATE(AK50,"_",AL50,"_",AM50,"_",AN50,"_",AO50)</f>
+        <v>P_01_00_00_00</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L50" s="3" t="str">
+        <f t="shared" ref="L50:L68" si="29">CONCATENATE(AK50,AL50)</f>
+        <v>P01</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X50" s="16" t="str">
+        <f t="shared" ref="X50:X68" si="30">CONCATENATE(AP50,AQ50,AR50,AS50)</f>
+        <v>#</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z50" s="16" t="str">
+        <f t="shared" ref="Z50:Z68" si="31">CONCATENATE(AP50,AQ50,AR50,AS50)</f>
+        <v>#</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF50" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="AG50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH50" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="AI50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK50" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL50" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM50" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN50" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO50" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP50" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="AQ50" s="13"/>
+    </row>
+    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="3" t="str">
         <f t="shared" si="28"/>
         <v>P_01_01_00_00</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J50" s="19" t="s">
-        <v>539</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L50" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>P01</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X50" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v>#</v>
-      </c>
-      <c r="Y50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z50" s="16" t="str">
-        <f t="shared" si="31"/>
-        <v>#</v>
-      </c>
-      <c r="AA50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF50" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="AG50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH50" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="AI50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK50" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="AL50" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM50" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN50" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO50" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP50" s="25" t="s">
-        <v>538</v>
-      </c>
-      <c r="AQ50" s="13"/>
-    </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>P_01_02_00_00</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>3</v>
@@ -18372,7 +18392,7 @@
         <v>6</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>7</v>
@@ -18407,13 +18427,13 @@
         <v>14</v>
       </c>
       <c r="AF51" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AG51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH51" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AI51" s="1" t="s">
         <v>16</v>
@@ -18425,7 +18445,7 @@
         <v>30</v>
       </c>
       <c r="AM51" s="15" t="s">
-        <v>402</v>
+        <v>29</v>
       </c>
       <c r="AN51" s="12" t="s">
         <v>25</v>
@@ -18438,7 +18458,7 @@
       </c>
       <c r="AQ51" s="13"/>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
@@ -18462,7 +18482,7 @@
       </c>
       <c r="H52" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_01_03_00_00</v>
+        <v>P_01_02_00_00</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>3</v>
@@ -18484,7 +18504,7 @@
         <v>6</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>7</v>
@@ -18519,13 +18539,13 @@
         <v>14</v>
       </c>
       <c r="AF52" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AG52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH52" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI52" s="1" t="s">
         <v>16</v>
@@ -18537,7 +18557,7 @@
         <v>30</v>
       </c>
       <c r="AM52" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AN52" s="12" t="s">
         <v>25</v>
@@ -18550,7 +18570,7 @@
       </c>
       <c r="AQ52" s="13"/>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -18574,7 +18594,7 @@
       </c>
       <c r="H53" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_00_00_00</v>
+        <v>P_01_03_00_00</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>3</v>
@@ -18587,16 +18607,16 @@
       </c>
       <c r="L53" s="3" t="str">
         <f t="shared" si="29"/>
-        <v>P02</v>
+        <v>P01</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N53" s="3" t="s">
-        <v>521</v>
-      </c>
       <c r="O53" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>520</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>7</v>
@@ -18631,13 +18651,13 @@
         <v>14</v>
       </c>
       <c r="AF53" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH53" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AI53" s="1" t="s">
         <v>16</v>
@@ -18646,10 +18666,10 @@
         <v>515</v>
       </c>
       <c r="AL53" s="15" t="s">
-        <v>403</v>
+        <v>30</v>
       </c>
       <c r="AM53" s="15" t="s">
-        <v>25</v>
+        <v>404</v>
       </c>
       <c r="AN53" s="12" t="s">
         <v>25</v>
@@ -18662,7 +18682,7 @@
       </c>
       <c r="AQ53" s="13"/>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -18686,7 +18706,7 @@
       </c>
       <c r="H54" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_01_00_00</v>
+        <v>P_02_00_00_00</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>3</v>
@@ -18704,11 +18724,11 @@
       <c r="M54" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N54" s="3" t="s">
+        <v>521</v>
+      </c>
       <c r="O54" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>522</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>7</v>
@@ -18743,13 +18763,13 @@
         <v>14</v>
       </c>
       <c r="AF54" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH54" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AI54" s="1" t="s">
         <v>16</v>
@@ -18761,7 +18781,7 @@
         <v>403</v>
       </c>
       <c r="AM54" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AN54" s="12" t="s">
         <v>25</v>
@@ -18774,7 +18794,7 @@
       </c>
       <c r="AQ54" s="13"/>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>17</v>
       </c>
@@ -18798,7 +18818,7 @@
       </c>
       <c r="H55" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_01_01_00</v>
+        <v>P_02_01_00_00</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>3</v>
@@ -18819,14 +18839,14 @@
       <c r="O55" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P55" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="Q55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="T55" s="3" t="s">
-        <v>523</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>9</v>
@@ -18855,13 +18875,13 @@
         <v>14</v>
       </c>
       <c r="AF55" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH55" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AI55" s="1" t="s">
         <v>16</v>
@@ -18876,7 +18896,7 @@
         <v>30</v>
       </c>
       <c r="AN55" s="12" t="s">
-        <v>438</v>
+        <v>25</v>
       </c>
       <c r="AO55" s="12" t="s">
         <v>25</v>
@@ -18886,7 +18906,7 @@
       </c>
       <c r="AQ55" s="13"/>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>17</v>
       </c>
@@ -18910,7 +18930,7 @@
       </c>
       <c r="H56" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_01_02_00</v>
+        <v>P_02_01_01_00</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>3</v>
@@ -18938,7 +18958,7 @@
         <v>8</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>9</v>
@@ -18967,13 +18987,13 @@
         <v>14</v>
       </c>
       <c r="AF56" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AG56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH56" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AI56" s="1" t="s">
         <v>16</v>
@@ -18988,7 +19008,7 @@
         <v>30</v>
       </c>
       <c r="AN56" s="12" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="AO56" s="12" t="s">
         <v>25</v>
@@ -18998,7 +19018,7 @@
       </c>
       <c r="AQ56" s="13"/>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>17</v>
       </c>
@@ -19022,7 +19042,7 @@
       </c>
       <c r="H57" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_01_02_01</v>
+        <v>P_02_01_02_00</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>3</v>
@@ -19049,11 +19069,11 @@
       <c r="S57" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="T57" s="3" t="s">
+        <v>524</v>
+      </c>
       <c r="U57" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>525</v>
       </c>
       <c r="W57" s="1" t="s">
         <v>10</v>
@@ -19079,13 +19099,13 @@
         <v>14</v>
       </c>
       <c r="AF57" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH57" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AI57" s="1" t="s">
         <v>16</v>
@@ -19103,14 +19123,14 @@
         <v>402</v>
       </c>
       <c r="AO57" s="12" t="s">
-        <v>438</v>
+        <v>25</v>
       </c>
       <c r="AP57" s="25" t="s">
         <v>538</v>
       </c>
       <c r="AQ57" s="13"/>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>17</v>
       </c>
@@ -19134,7 +19154,7 @@
       </c>
       <c r="H58" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_02_00_00</v>
+        <v>P_02_01_02_01</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>3</v>
@@ -19155,9 +19175,6 @@
       <c r="O58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>526</v>
-      </c>
       <c r="Q58" s="1" t="s">
         <v>7</v>
       </c>
@@ -19166,6 +19183,9 @@
       </c>
       <c r="U58" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="W58" s="1" t="s">
         <v>10</v>
@@ -19191,13 +19211,13 @@
         <v>14</v>
       </c>
       <c r="AF58" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AG58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH58" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AI58" s="1" t="s">
         <v>16</v>
@@ -19209,20 +19229,20 @@
         <v>403</v>
       </c>
       <c r="AM58" s="15" t="s">
-        <v>403</v>
+        <v>30</v>
       </c>
       <c r="AN58" s="12" t="s">
-        <v>25</v>
+        <v>402</v>
       </c>
       <c r="AO58" s="12" t="s">
-        <v>25</v>
+        <v>438</v>
       </c>
       <c r="AP58" s="25" t="s">
         <v>538</v>
       </c>
       <c r="AQ58" s="13"/>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>17</v>
       </c>
@@ -19246,7 +19266,7 @@
       </c>
       <c r="H59" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_02_01_00</v>
+        <v>P_02_02_00_00</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>3</v>
@@ -19267,14 +19287,14 @@
       <c r="O59" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P59" s="3" t="s">
+        <v>526</v>
+      </c>
       <c r="Q59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>533</v>
       </c>
       <c r="U59" s="1" t="s">
         <v>9</v>
@@ -19303,13 +19323,13 @@
         <v>14</v>
       </c>
       <c r="AF59" s="3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AG59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH59" s="3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AI59" s="1" t="s">
         <v>16</v>
@@ -19324,7 +19344,7 @@
         <v>403</v>
       </c>
       <c r="AN59" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AO59" s="12" t="s">
         <v>25</v>
@@ -19334,7 +19354,7 @@
       </c>
       <c r="AQ59" s="13"/>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>17</v>
       </c>
@@ -19358,7 +19378,7 @@
       </c>
       <c r="H60" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_02_01_01</v>
+        <v>P_02_02_01_00</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>3</v>
@@ -19385,11 +19405,11 @@
       <c r="S60" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="T60" s="3" t="s">
+        <v>533</v>
+      </c>
       <c r="U60" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="V60" s="3" t="s">
-        <v>535</v>
       </c>
       <c r="W60" s="1" t="s">
         <v>10</v>
@@ -19415,13 +19435,13 @@
         <v>14</v>
       </c>
       <c r="AF60" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AG60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH60" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AI60" s="1" t="s">
         <v>16</v>
@@ -19439,14 +19459,14 @@
         <v>30</v>
       </c>
       <c r="AO60" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AP60" s="25" t="s">
         <v>538</v>
       </c>
       <c r="AQ60" s="13"/>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>17</v>
       </c>
@@ -19470,7 +19490,7 @@
       </c>
       <c r="H61" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_02_01_02</v>
+        <v>P_02_02_01_01</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>3</v>
@@ -19501,7 +19521,7 @@
         <v>9</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="W61" s="1" t="s">
         <v>10</v>
@@ -19527,13 +19547,13 @@
         <v>14</v>
       </c>
       <c r="AF61" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AG61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH61" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AI61" s="1" t="s">
         <v>16</v>
@@ -19551,14 +19571,14 @@
         <v>30</v>
       </c>
       <c r="AO61" s="12" t="s">
-        <v>402</v>
+        <v>29</v>
       </c>
       <c r="AP61" s="25" t="s">
         <v>538</v>
       </c>
       <c r="AQ61" s="13"/>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
@@ -19582,7 +19602,7 @@
       </c>
       <c r="H62" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_02_01_03</v>
+        <v>P_02_02_01_02</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>3</v>
@@ -19613,7 +19633,7 @@
         <v>9</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="W62" s="1" t="s">
         <v>10</v>
@@ -19639,13 +19659,13 @@
         <v>14</v>
       </c>
       <c r="AF62" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AG62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH62" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AI62" s="1" t="s">
         <v>16</v>
@@ -19663,14 +19683,14 @@
         <v>30</v>
       </c>
       <c r="AO62" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AP62" s="25" t="s">
         <v>538</v>
       </c>
       <c r="AQ62" s="13"/>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>17</v>
       </c>
@@ -19694,7 +19714,7 @@
       </c>
       <c r="H63" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_02_02_00</v>
+        <v>P_02_02_01_03</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>3</v>
@@ -19721,11 +19741,11 @@
       <c r="S63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T63" s="3" t="s">
-        <v>534</v>
-      </c>
       <c r="U63" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="V63" s="3" t="s">
+        <v>537</v>
       </c>
       <c r="W63" s="1" t="s">
         <v>10</v>
@@ -19751,13 +19771,13 @@
         <v>14</v>
       </c>
       <c r="AF63" s="3" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AG63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH63" s="3" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AI63" s="1" t="s">
         <v>16</v>
@@ -19772,17 +19792,17 @@
         <v>403</v>
       </c>
       <c r="AN63" s="12" t="s">
-        <v>532</v>
+        <v>30</v>
       </c>
       <c r="AO63" s="12" t="s">
-        <v>25</v>
+        <v>404</v>
       </c>
       <c r="AP63" s="25" t="s">
         <v>538</v>
       </c>
       <c r="AQ63" s="13"/>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>17</v>
       </c>
@@ -19806,7 +19826,7 @@
       </c>
       <c r="H64" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_03_00_00_00</v>
+        <v>P_02_02_02_00</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>3</v>
@@ -19819,14 +19839,11 @@
       </c>
       <c r="L64" s="3" t="str">
         <f t="shared" si="29"/>
-        <v>P03</v>
+        <v>P02</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N64" s="3" t="s">
-        <v>527</v>
-      </c>
       <c r="O64" s="1" t="s">
         <v>6</v>
       </c>
@@ -19835,6 +19852,9 @@
       </c>
       <c r="S64" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="T64" s="3" t="s">
+        <v>534</v>
       </c>
       <c r="U64" s="1" t="s">
         <v>9</v>
@@ -19863,13 +19883,13 @@
         <v>14</v>
       </c>
       <c r="AF64" s="3" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="AG64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH64" s="3" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="AI64" s="1" t="s">
         <v>16</v>
@@ -19878,13 +19898,13 @@
         <v>515</v>
       </c>
       <c r="AL64" s="15" t="s">
-        <v>531</v>
+        <v>403</v>
       </c>
       <c r="AM64" s="15" t="s">
-        <v>25</v>
+        <v>403</v>
       </c>
       <c r="AN64" s="12" t="s">
-        <v>25</v>
+        <v>532</v>
       </c>
       <c r="AO64" s="12" t="s">
         <v>25</v>
@@ -19918,7 +19938,7 @@
       </c>
       <c r="H65" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_03_01_00_00</v>
+        <v>P_03_00_00_00</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>3</v>
@@ -19936,11 +19956,11 @@
       <c r="M65" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N65" s="3" t="s">
+        <v>527</v>
+      </c>
       <c r="O65" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="P65" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="Q65" s="1" t="s">
         <v>7</v>
@@ -19975,13 +19995,13 @@
         <v>14</v>
       </c>
       <c r="AF65" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AG65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH65" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AI65" s="1" t="s">
         <v>16</v>
@@ -19993,7 +20013,7 @@
         <v>531</v>
       </c>
       <c r="AM65" s="15" t="s">
-        <v>438</v>
+        <v>25</v>
       </c>
       <c r="AN65" s="12" t="s">
         <v>25</v>
@@ -20030,7 +20050,7 @@
       </c>
       <c r="H66" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_03_02_00_00</v>
+        <v>P_03_01_00_00</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>3</v>
@@ -20052,7 +20072,7 @@
         <v>6</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q66" s="1" t="s">
         <v>7</v>
@@ -20087,13 +20107,13 @@
         <v>14</v>
       </c>
       <c r="AF66" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH66" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AI66" s="1" t="s">
         <v>16</v>
@@ -20105,7 +20125,7 @@
         <v>531</v>
       </c>
       <c r="AM66" s="15" t="s">
-        <v>532</v>
+        <v>438</v>
       </c>
       <c r="AN66" s="12" t="s">
         <v>25</v>
@@ -20142,7 +20162,7 @@
       </c>
       <c r="H67" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_03_02_01_00</v>
+        <v>P_03_02_00_00</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>3</v>
@@ -20163,14 +20183,14 @@
       <c r="O67" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P67" s="3" t="s">
+        <v>529</v>
+      </c>
       <c r="Q67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S67" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="T67" s="3" t="s">
-        <v>530</v>
       </c>
       <c r="U67" s="1" t="s">
         <v>9</v>
@@ -20199,13 +20219,13 @@
         <v>14</v>
       </c>
       <c r="AF67" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH67" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AI67" s="1" t="s">
         <v>16</v>
@@ -20220,7 +20240,7 @@
         <v>532</v>
       </c>
       <c r="AN67" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AO67" s="12" t="s">
         <v>25</v>
@@ -20230,60 +20250,172 @@
       </c>
       <c r="AQ67" s="13"/>
     </row>
-    <row r="68" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="37" t="s">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>P_03_02_01_00</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L68" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>P03</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X68" s="16" t="str">
+        <f t="shared" si="30"/>
+        <v>#</v>
+      </c>
+      <c r="Y68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z68" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>#</v>
+      </c>
+      <c r="AA68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF68" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="AG68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH68" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="AI68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK68" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL68" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM68" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="AN68" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO68" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP68" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="AQ68" s="13"/>
+    </row>
+    <row r="69" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="47" t="s">
         <v>514</v>
       </c>
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38"/>
-      <c r="S68" s="38"/>
-      <c r="T68" s="38"/>
-      <c r="U68" s="38"/>
-      <c r="V68" s="38"/>
-      <c r="W68" s="38"/>
-      <c r="X68" s="38"/>
-      <c r="Y68" s="38"/>
-      <c r="Z68" s="38"/>
-      <c r="AA68" s="38"/>
-      <c r="AB68" s="38"/>
-      <c r="AC68" s="38"/>
-      <c r="AD68" s="38"/>
-      <c r="AE68" s="38"/>
-      <c r="AF68" s="38"/>
-      <c r="AG68" s="38"/>
-      <c r="AH68" s="38"/>
-      <c r="AI68" s="39"/>
-      <c r="AJ68" s="5"/>
-      <c r="AK68" s="10"/>
-      <c r="AL68" s="11"/>
-      <c r="AM68" s="11"/>
-      <c r="AU68" s="6" t="s">
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="48"/>
+      <c r="P69" s="48"/>
+      <c r="Q69" s="48"/>
+      <c r="R69" s="48"/>
+      <c r="S69" s="48"/>
+      <c r="T69" s="48"/>
+      <c r="U69" s="48"/>
+      <c r="V69" s="48"/>
+      <c r="W69" s="48"/>
+      <c r="X69" s="48"/>
+      <c r="Y69" s="48"/>
+      <c r="Z69" s="48"/>
+      <c r="AA69" s="48"/>
+      <c r="AB69" s="48"/>
+      <c r="AC69" s="48"/>
+      <c r="AD69" s="48"/>
+      <c r="AE69" s="48"/>
+      <c r="AF69" s="48"/>
+      <c r="AG69" s="48"/>
+      <c r="AH69" s="48"/>
+      <c r="AI69" s="49"/>
+      <c r="AJ69" s="5"/>
+      <c r="AK69" s="10"/>
+      <c r="AL69" s="11"/>
+      <c r="AM69" s="11"/>
+      <c r="AU69" s="6" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:AI2"/>
-    <mergeCell ref="A68:AI68"/>
+    <mergeCell ref="A69:AI69"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D67 B3:B67 F3:F67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F68 B3:B68 D3:D68">
       <formula1>$AU$3:$AU$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/resources/data/menu.xlsx
+++ b/resources/data/menu.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$1208</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3397" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="557">
   <si>
     <t>{"menu":[</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -11494,18 +11494,6 @@
   </si>
   <si>
     <t>scrollBar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll Background Image</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>scrollBgImg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -12472,11 +12460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AU69"/>
+  <dimension ref="A2:AU68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T48" sqref="T48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -12716,7 +12704,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="3" t="str">
-        <f t="shared" ref="H4:H46" si="0">CONCATENATE(AK4,"_",AL4,"_",AM4,"_",AN4,"_",AO4)</f>
+        <f t="shared" ref="H4:H45" si="0">CONCATENATE(AK4,"_",AL4,"_",AM4,"_",AN4,"_",AO4)</f>
         <v>G_01_00_00_00</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -12729,7 +12717,7 @@
         <v>4</v>
       </c>
       <c r="L4" s="3" t="str">
-        <f t="shared" ref="L4:L46" si="1">CONCATENATE(AK4,AL4)</f>
+        <f t="shared" ref="L4:L45" si="1">CONCATENATE(AK4,AL4)</f>
         <v>G01</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -12754,14 +12742,14 @@
         <v>10</v>
       </c>
       <c r="X4" s="16" t="str">
-        <f t="shared" ref="X4:X46" si="2">CONCATENATE(AP4,AQ4,AR4,AS4)</f>
+        <f t="shared" ref="X4:X45" si="2">CONCATENATE(AP4,AQ4,AR4,AS4)</f>
         <v>/netiveUI/html/start/introduction.html</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z4" s="16" t="str">
-        <f t="shared" ref="Z4:Z46" si="3">CONCATENATE(AP4,AQ4,AR4,AS4)</f>
+        <f t="shared" ref="Z4:Z45" si="3">CONCATENATE(AP4,AQ4,AR4,AS4)</f>
         <v>/netiveUI/html/start/introduction.html</v>
       </c>
       <c r="AA4" s="1" t="s">
@@ -13222,7 +13210,7 @@
         <v>5</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="O8" s="17" t="s">
         <v>6</v>
@@ -13260,13 +13248,13 @@
         <v>14</v>
       </c>
       <c r="AF8" s="19" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AG8" s="17" t="s">
         <v>15</v>
       </c>
       <c r="AH8" s="19" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AI8" s="17" t="s">
         <v>16</v>
@@ -13692,7 +13680,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>4</v>
@@ -13708,7 +13696,7 @@
         <v>6</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>7</v>
@@ -13743,13 +13731,13 @@
         <v>14</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AG12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AI12" s="1" t="s">
         <v>16</v>
@@ -13776,7 +13764,7 @@
         <v>436</v>
       </c>
       <c r="AR12" s="13" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AS12" s="6" t="s">
         <v>434</v>
@@ -13812,7 +13800,7 @@
         <v>3</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>4</v>
@@ -13881,7 +13869,7 @@
         <v>403</v>
       </c>
       <c r="AM13" s="15" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AN13" s="12" t="s">
         <v>25</v>
@@ -14188,7 +14176,7 @@
         <v>6</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>7</v>
@@ -14223,13 +14211,13 @@
         <v>14</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AG16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AI16" s="1" t="s">
         <v>16</v>
@@ -14241,7 +14229,7 @@
         <v>403</v>
       </c>
       <c r="AM16" s="15" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AN16" s="12" t="s">
         <v>25</v>
@@ -14253,10 +14241,10 @@
         <v>422</v>
       </c>
       <c r="AQ16" s="13" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AR16" s="13" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AS16" s="6" t="s">
         <v>434</v>
@@ -14548,7 +14536,7 @@
         <v>6</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="Q19" s="27" t="s">
         <v>7</v>
@@ -14583,13 +14571,13 @@
         <v>14</v>
       </c>
       <c r="AF19" s="29" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AG19" s="27" t="s">
         <v>15</v>
       </c>
       <c r="AH19" s="29" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AI19" s="27" t="s">
         <v>16</v>
@@ -14602,7 +14590,7 @@
         <v>403</v>
       </c>
       <c r="AM19" s="33" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="AN19" s="34" t="s">
         <v>25</v>
@@ -14617,7 +14605,7 @@
         <v>436</v>
       </c>
       <c r="AR19" s="35" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AS19" s="36" t="s">
         <v>434</v>
@@ -15874,7 +15862,7 @@
         <v>6</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>7</v>
@@ -15909,13 +15897,13 @@
         <v>14</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AG30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH30" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AI30" s="1" t="s">
         <v>16</v>
@@ -15942,7 +15930,7 @@
         <v>435</v>
       </c>
       <c r="AR30" s="13" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AS30" s="6" t="s">
         <v>434</v>
@@ -16812,7 +16800,7 @@
       </c>
       <c r="H38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_26_00_00</v>
+        <v>G_03_15_00_00</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>3</v>
@@ -16850,14 +16838,14 @@
       </c>
       <c r="X38" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/scrollBgImg.html</v>
+        <v>/netiveUI/html/components/scrollMove.html</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z38" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/scrollBgImg.html</v>
+        <v>/netiveUI/html/components/scrollMove.html</v>
       </c>
       <c r="AA38" s="1" t="s">
         <v>12</v>
@@ -16932,7 +16920,7 @@
       </c>
       <c r="H39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_15_00_00</v>
+        <v>G_03_16_00_00</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>3</v>
@@ -16970,14 +16958,14 @@
       </c>
       <c r="X39" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/scrollMove.html</v>
+        <v>/netiveUI/html/components/select.html</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z39" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/scrollMove.html</v>
+        <v>/netiveUI/html/components/select.html</v>
       </c>
       <c r="AA39" s="1" t="s">
         <v>12</v>
@@ -17052,7 +17040,7 @@
       </c>
       <c r="H40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_16_00_00</v>
+        <v>G_03_17_00_00</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>3</v>
@@ -17090,14 +17078,14 @@
       </c>
       <c r="X40" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/select.html</v>
+        <v>/netiveUI/html/components/selection.html</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z40" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/select.html</v>
+        <v>/netiveUI/html/components/selection.html</v>
       </c>
       <c r="AA40" s="1" t="s">
         <v>12</v>
@@ -17172,7 +17160,7 @@
       </c>
       <c r="H41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_17_00_00</v>
+        <v>G_03_18_00_00</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>3</v>
@@ -17210,14 +17198,14 @@
       </c>
       <c r="X41" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/selection.html</v>
+        <v>/netiveUI/html/components/slide.html</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z41" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/selection.html</v>
+        <v>/netiveUI/html/components/slide.html</v>
       </c>
       <c r="AA41" s="1" t="s">
         <v>12</v>
@@ -17247,7 +17235,7 @@
         <v>416</v>
       </c>
       <c r="AM41" s="15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AN41" s="12" t="s">
         <v>25</v>
@@ -17262,7 +17250,7 @@
         <v>435</v>
       </c>
       <c r="AR41" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AS41" s="6" t="s">
         <v>434</v>
@@ -17292,7 +17280,7 @@
       </c>
       <c r="H42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_18_00_00</v>
+        <v>G_03_19_00_00</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>3</v>
@@ -17314,7 +17302,7 @@
         <v>6</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>7</v>
@@ -17330,14 +17318,14 @@
       </c>
       <c r="X42" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/slide.html</v>
+        <v>/netiveUI/html/components/slider.html</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z42" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/slide.html</v>
+        <v>/netiveUI/html/components/slider.html</v>
       </c>
       <c r="AA42" s="1" t="s">
         <v>12</v>
@@ -17349,13 +17337,13 @@
         <v>14</v>
       </c>
       <c r="AF42" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH42" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AI42" s="1" t="s">
         <v>16</v>
@@ -17367,7 +17355,7 @@
         <v>416</v>
       </c>
       <c r="AM42" s="15" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AN42" s="12" t="s">
         <v>25</v>
@@ -17382,7 +17370,7 @@
         <v>435</v>
       </c>
       <c r="AR42" s="13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AS42" s="6" t="s">
         <v>434</v>
@@ -17412,7 +17400,7 @@
       </c>
       <c r="H43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_19_00_00</v>
+        <v>G_03_20_00_00</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>3</v>
@@ -17434,7 +17422,7 @@
         <v>6</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>7</v>
@@ -17450,14 +17438,14 @@
       </c>
       <c r="X43" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/slider.html</v>
+        <v>/netiveUI/html/components/slot.html</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z43" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/slider.html</v>
+        <v>/netiveUI/html/components/slot.html</v>
       </c>
       <c r="AA43" s="1" t="s">
         <v>12</v>
@@ -17469,13 +17457,13 @@
         <v>14</v>
       </c>
       <c r="AF43" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AG43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH43" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AI43" s="1" t="s">
         <v>16</v>
@@ -17487,7 +17475,7 @@
         <v>416</v>
       </c>
       <c r="AM43" s="15" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN43" s="12" t="s">
         <v>25</v>
@@ -17532,7 +17520,7 @@
       </c>
       <c r="H44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_20_00_00</v>
+        <v>G_03_21_00_00</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>3</v>
@@ -17570,14 +17558,14 @@
       </c>
       <c r="X44" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/slot.html</v>
+        <v>/netiveUI/html/components/tab.html</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z44" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/slot.html</v>
+        <v>/netiveUI/html/components/tab.html</v>
       </c>
       <c r="AA44" s="1" t="s">
         <v>12</v>
@@ -17628,248 +17616,251 @@
         <v>434</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:47" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H45" s="3" t="str">
+      <c r="H45" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_21_00_00</v>
-      </c>
-      <c r="I45" s="1" t="s">
+        <v>G_03_22_00_00</v>
+      </c>
+      <c r="I45" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K45" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3" t="str">
+      <c r="L45" s="29" t="str">
         <f t="shared" si="1"/>
         <v>G03</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="O45" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="P45" s="29" t="s">
         <v>508</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="Q45" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="S45" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="1" t="s">
+      <c r="U45" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="W45" s="1" t="s">
+      <c r="W45" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="X45" s="16" t="str">
+      <c r="X45" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/tab.html</v>
-      </c>
-      <c r="Y45" s="1" t="s">
+        <v>/netiveUI/html/components/tooltip.html</v>
+      </c>
+      <c r="Y45" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="Z45" s="16" t="str">
+      <c r="Z45" s="30" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/tab.html</v>
-      </c>
-      <c r="AA45" s="1" t="s">
+        <v>/netiveUI/html/components/tooltip.html</v>
+      </c>
+      <c r="AA45" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AC45" s="1" t="s">
+      <c r="AC45" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AE45" s="1" t="s">
+      <c r="AE45" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AF45" s="3" t="s">
+      <c r="AF45" s="29" t="s">
         <v>508</v>
       </c>
-      <c r="AG45" s="1" t="s">
+      <c r="AG45" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AH45" s="3" t="s">
+      <c r="AH45" s="29" t="s">
         <v>508</v>
       </c>
       <c r="AI45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AK45" s="14" t="s">
+      <c r="AJ45" s="31"/>
+      <c r="AK45" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AL45" s="15" t="s">
+      <c r="AL45" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="AM45" s="15" t="s">
+      <c r="AM45" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="AN45" s="12" t="s">
+      <c r="AN45" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AO45" s="12" t="s">
+      <c r="AO45" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AP45" s="13" t="s">
+      <c r="AP45" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="AQ45" s="13" t="s">
+      <c r="AQ45" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="AR45" s="13" t="s">
+      <c r="AR45" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="AS45" s="6" t="s">
+      <c r="AS45" s="36" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="46" spans="1:47" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27" t="s">
+      <c r="AT45" s="36"/>
+      <c r="AU45" s="36"/>
+    </row>
+    <row r="46" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="28" t="s">
+      <c r="F46" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G46" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H46" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>G_03_22_00_00</v>
-      </c>
-      <c r="I46" s="27" t="s">
+      <c r="H46" s="19" t="str">
+        <f t="shared" ref="H46" si="16">CONCATENATE(AK46,"_",AL46,"_",AM46,"_",AN46,"_",AO46)</f>
+        <v>G_04_00_00_00</v>
+      </c>
+      <c r="I46" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J46" s="29" t="s">
+      <c r="J46" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K46" s="27" t="s">
+      <c r="K46" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>G03</v>
-      </c>
-      <c r="M46" s="27" t="s">
+      <c r="L46" s="19" t="str">
+        <f t="shared" ref="L46" si="17">CONCATENATE(AK46,AL46)</f>
+        <v>G04</v>
+      </c>
+      <c r="M46" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="O46" s="27" t="s">
+      <c r="N46" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="O46" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="P46" s="29" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q46" s="27" t="s">
+      <c r="Q46" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S46" s="27" t="s">
+      <c r="S46" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="U46" s="27" t="s">
+      <c r="U46" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="W46" s="27" t="s">
+      <c r="W46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="X46" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/tooltip.html</v>
-      </c>
-      <c r="Y46" s="27" t="s">
+      <c r="X46" s="20" t="str">
+        <f t="shared" ref="X46" si="18">CONCATENATE(AP46,AQ46,AR46,AS46)</f>
+        <v>/netiveUI/html/memory/issue.html</v>
+      </c>
+      <c r="Y46" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Z46" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/tooltip.html</v>
-      </c>
-      <c r="AA46" s="27" t="s">
+      <c r="Z46" s="20" t="str">
+        <f t="shared" ref="Z46" si="19">CONCATENATE(AP46,AQ46,AR46,AS46)</f>
+        <v>/netiveUI/html/memory/issue.html</v>
+      </c>
+      <c r="AA46" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AC46" s="27" t="s">
+      <c r="AC46" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AE46" s="27" t="s">
+      <c r="AE46" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AF46" s="29" t="s">
-        <v>511</v>
-      </c>
-      <c r="AG46" s="27" t="s">
+      <c r="AF46" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="AG46" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AH46" s="29" t="s">
-        <v>511</v>
-      </c>
-      <c r="AI46" s="1" t="s">
+      <c r="AH46" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="AI46" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AJ46" s="31"/>
-      <c r="AK46" s="32" t="s">
+      <c r="AJ46" s="21"/>
+      <c r="AK46" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AL46" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="AM46" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="AN46" s="34" t="s">
+      <c r="AL46" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="AM46" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AO46" s="34" t="s">
+      <c r="AN46" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AP46" s="35" t="s">
+      <c r="AO46" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP46" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="AQ46" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="AR46" s="35" t="s">
-        <v>513</v>
-      </c>
-      <c r="AS46" s="36" t="s">
+      <c r="AQ46" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="AR46" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="AS46" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="AT46" s="36"/>
-      <c r="AU46" s="36"/>
+      <c r="AT46" s="26"/>
+      <c r="AU46" s="26"/>
     </row>
     <row r="47" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
@@ -17894,8 +17885,8 @@
         <v>2</v>
       </c>
       <c r="H47" s="19" t="str">
-        <f t="shared" ref="H47" si="16">CONCATENATE(AK47,"_",AL47,"_",AM47,"_",AN47,"_",AO47)</f>
-        <v>G_04_00_00_00</v>
+        <f t="shared" ref="H47" si="20">CONCATENATE(AK47,"_",AL47,"_",AM47,"_",AN47,"_",AO47)</f>
+        <v>G_04_01_00_00</v>
       </c>
       <c r="I47" s="17" t="s">
         <v>3</v>
@@ -17907,18 +17898,18 @@
         <v>4</v>
       </c>
       <c r="L47" s="19" t="str">
-        <f t="shared" ref="L47" si="17">CONCATENATE(AK47,AL47)</f>
+        <f t="shared" ref="L47" si="21">CONCATENATE(AK47,AL47)</f>
         <v>G04</v>
       </c>
       <c r="M47" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N47" s="19" t="s">
-        <v>552</v>
-      </c>
       <c r="O47" s="17" t="s">
         <v>6</v>
       </c>
+      <c r="P47" s="19" t="s">
+        <v>551</v>
+      </c>
       <c r="Q47" s="17" t="s">
         <v>7</v>
       </c>
@@ -17932,14 +17923,14 @@
         <v>10</v>
       </c>
       <c r="X47" s="20" t="str">
-        <f t="shared" ref="X47" si="18">CONCATENATE(AP47,AQ47,AR47,AS47)</f>
+        <f t="shared" ref="X47" si="22">CONCATENATE(AP47,AQ47,AR47,AS47)</f>
         <v>/netiveUI/html/memory/issue.html</v>
       </c>
       <c r="Y47" s="17" t="s">
         <v>11</v>
       </c>
       <c r="Z47" s="20" t="str">
-        <f t="shared" ref="Z47" si="19">CONCATENATE(AP47,AQ47,AR47,AS47)</f>
+        <f t="shared" ref="Z47" si="23">CONCATENATE(AP47,AQ47,AR47,AS47)</f>
         <v>/netiveUI/html/memory/issue.html</v>
       </c>
       <c r="AA47" s="17" t="s">
@@ -17971,7 +17962,7 @@
         <v>444</v>
       </c>
       <c r="AM47" s="23" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AN47" s="24" t="s">
         <v>25</v>
@@ -17983,10 +17974,10 @@
         <v>422</v>
       </c>
       <c r="AQ47" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="AR47" s="25" t="s">
         <v>553</v>
-      </c>
-      <c r="AR47" s="25" t="s">
-        <v>556</v>
       </c>
       <c r="AS47" s="26" t="s">
         <v>434</v>
@@ -17994,247 +17985,236 @@
       <c r="AT47" s="26"/>
       <c r="AU47" s="26"/>
     </row>
-    <row r="48" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:47" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="G48" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H48" s="19" t="str">
-        <f t="shared" ref="H48" si="20">CONCATENATE(AK48,"_",AL48,"_",AM48,"_",AN48,"_",AO48)</f>
-        <v>G_04_01_00_00</v>
-      </c>
-      <c r="I48" s="17" t="s">
+      <c r="H48" s="39" t="str">
+        <f t="shared" ref="H48" si="24">CONCATENATE(AK48,"_",AL48,"_",AM48,"_",AN48,"_",AO48)</f>
+        <v>P_00_00_00_00</v>
+      </c>
+      <c r="I48" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="J48" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K48" s="17" t="s">
+      <c r="J48" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="K48" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="19" t="str">
-        <f t="shared" ref="L48" si="21">CONCATENATE(AK48,AL48)</f>
-        <v>G04</v>
-      </c>
-      <c r="M48" s="17" t="s">
+      <c r="L48" s="39" t="str">
+        <f t="shared" ref="L48" si="25">CONCATENATE(AK48,AL48)</f>
+        <v>P00</v>
+      </c>
+      <c r="M48" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="17" t="s">
+      <c r="N48" s="39" t="s">
+        <v>513</v>
+      </c>
+      <c r="O48" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="P48" s="19" t="s">
-        <v>554</v>
-      </c>
-      <c r="Q48" s="17" t="s">
+      <c r="Q48" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="S48" s="17" t="s">
+      <c r="S48" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="U48" s="17" t="s">
+      <c r="U48" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="W48" s="17" t="s">
+      <c r="W48" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="X48" s="20" t="str">
-        <f t="shared" ref="X48" si="22">CONCATENATE(AP48,AQ48,AR48,AS48)</f>
-        <v>/netiveUI/html/memory/issue.html</v>
-      </c>
-      <c r="Y48" s="17" t="s">
+      <c r="X48" s="40" t="str">
+        <f t="shared" ref="X48" si="26">CONCATENATE(AP48,AQ48,AR48,AS48)</f>
+        <v>#</v>
+      </c>
+      <c r="Y48" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="Z48" s="20" t="str">
-        <f t="shared" ref="Z48" si="23">CONCATENATE(AP48,AQ48,AR48,AS48)</f>
-        <v>/netiveUI/html/memory/issue.html</v>
-      </c>
-      <c r="AA48" s="17" t="s">
+      <c r="Z48" s="40" t="str">
+        <f t="shared" ref="Z48" si="27">CONCATENATE(AP48,AQ48,AR48,AS48)</f>
+        <v>#</v>
+      </c>
+      <c r="AA48" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AC48" s="17" t="s">
+      <c r="AC48" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AE48" s="17" t="s">
+      <c r="AE48" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AF48" s="19" t="s">
-        <v>555</v>
-      </c>
-      <c r="AG48" s="17" t="s">
+      <c r="AF48" s="39" t="s">
+        <v>513</v>
+      </c>
+      <c r="AG48" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="AH48" s="19" t="s">
-        <v>555</v>
-      </c>
-      <c r="AI48" s="17" t="s">
+      <c r="AH48" s="39" t="s">
+        <v>513</v>
+      </c>
+      <c r="AI48" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="AJ48" s="21"/>
-      <c r="AK48" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL48" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="AM48" s="23" t="s">
+      <c r="AJ48" s="41"/>
+      <c r="AK48" s="42" t="s">
+        <v>512</v>
+      </c>
+      <c r="AL48" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM48" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN48" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO48" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP48" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="AQ48" s="45"/>
+      <c r="AR48" s="45"/>
+      <c r="AS48" s="46"/>
+      <c r="AT48" s="46"/>
+      <c r="AU48" s="46"/>
+    </row>
+    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="3" t="str">
+        <f t="shared" ref="H49:H67" si="28">CONCATENATE(AK49,"_",AL49,"_",AM49,"_",AN49,"_",AO49)</f>
+        <v>P_01_00_00_00</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="str">
+        <f t="shared" ref="L49:L67" si="29">CONCATENATE(AK49,AL49)</f>
+        <v>P01</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X49" s="16" t="str">
+        <f t="shared" ref="X49:X67" si="30">CONCATENATE(AP49,AQ49,AR49,AS49)</f>
+        <v>#</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z49" s="16" t="str">
+        <f t="shared" ref="Z49:Z67" si="31">CONCATENATE(AP49,AQ49,AR49,AS49)</f>
+        <v>#</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF49" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="AG49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH49" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="AI49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK49" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="AL49" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AN48" s="24" t="s">
+      <c r="AM49" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AO48" s="24" t="s">
+      <c r="AN49" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AP48" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="AQ48" s="25" t="s">
-        <v>553</v>
-      </c>
-      <c r="AR48" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="AS48" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="AT48" s="26"/>
-      <c r="AU48" s="26"/>
-    </row>
-    <row r="49" spans="1:47" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="39" t="str">
-        <f t="shared" ref="H49" si="24">CONCATENATE(AK49,"_",AL49,"_",AM49,"_",AN49,"_",AO49)</f>
-        <v>P_00_00_00_00</v>
-      </c>
-      <c r="I49" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="39" t="s">
-        <v>539</v>
-      </c>
-      <c r="K49" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="39" t="str">
-        <f t="shared" ref="L49" si="25">CONCATENATE(AK49,AL49)</f>
-        <v>P00</v>
-      </c>
-      <c r="M49" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="39" t="s">
-        <v>516</v>
-      </c>
-      <c r="O49" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q49" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="S49" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="U49" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="W49" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="X49" s="40" t="str">
-        <f t="shared" ref="X49" si="26">CONCATENATE(AP49,AQ49,AR49,AS49)</f>
-        <v>#</v>
-      </c>
-      <c r="Y49" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z49" s="40" t="str">
-        <f t="shared" ref="Z49" si="27">CONCATENATE(AP49,AQ49,AR49,AS49)</f>
-        <v>#</v>
-      </c>
-      <c r="AA49" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC49" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE49" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF49" s="39" t="s">
-        <v>516</v>
-      </c>
-      <c r="AG49" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH49" s="39" t="s">
-        <v>516</v>
-      </c>
-      <c r="AI49" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ49" s="41"/>
-      <c r="AK49" s="42" t="s">
-        <v>515</v>
-      </c>
-      <c r="AL49" s="43" t="s">
+      <c r="AO49" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AM49" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN49" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO49" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP49" s="45" t="s">
-        <v>538</v>
-      </c>
-      <c r="AQ49" s="45"/>
-      <c r="AR49" s="45"/>
-      <c r="AS49" s="46"/>
-      <c r="AT49" s="46"/>
-      <c r="AU49" s="46"/>
-    </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AP49" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="AQ49" s="13"/>
+    </row>
+    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
@@ -18257,31 +18237,31 @@
         <v>2</v>
       </c>
       <c r="H50" s="3" t="str">
-        <f t="shared" ref="H50:H68" si="28">CONCATENATE(AK50,"_",AL50,"_",AM50,"_",AN50,"_",AO50)</f>
-        <v>P_01_00_00_00</v>
+        <f t="shared" si="28"/>
+        <v>P_01_01_00_00</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L50" s="3" t="str">
-        <f t="shared" ref="L50:L68" si="29">CONCATENATE(AK50,AL50)</f>
+        <f t="shared" si="29"/>
         <v>P01</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N50" s="3" t="s">
-        <v>517</v>
-      </c>
       <c r="O50" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P50" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="Q50" s="1" t="s">
         <v>7</v>
       </c>
@@ -18295,14 +18275,14 @@
         <v>10</v>
       </c>
       <c r="X50" s="16" t="str">
-        <f t="shared" ref="X50:X68" si="30">CONCATENATE(AP50,AQ50,AR50,AS50)</f>
+        <f t="shared" si="30"/>
         <v>#</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z50" s="16" t="str">
-        <f t="shared" ref="Z50:Z68" si="31">CONCATENATE(AP50,AQ50,AR50,AS50)</f>
+        <f t="shared" si="31"/>
         <v>#</v>
       </c>
       <c r="AA50" s="1" t="s">
@@ -18315,25 +18295,25 @@
         <v>14</v>
       </c>
       <c r="AF50" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AG50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH50" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AI50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK50" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AL50" s="15" t="s">
         <v>30</v>
       </c>
       <c r="AM50" s="15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AN50" s="12" t="s">
         <v>25</v>
@@ -18342,11 +18322,11 @@
         <v>25</v>
       </c>
       <c r="AP50" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AQ50" s="13"/>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
@@ -18370,13 +18350,13 @@
       </c>
       <c r="H51" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_01_01_00_00</v>
+        <v>P_01_02_00_00</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>4</v>
@@ -18392,7 +18372,7 @@
         <v>6</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>7</v>
@@ -18427,25 +18407,25 @@
         <v>14</v>
       </c>
       <c r="AF51" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AG51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH51" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AI51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK51" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AL51" s="15" t="s">
         <v>30</v>
       </c>
       <c r="AM51" s="15" t="s">
-        <v>29</v>
+        <v>402</v>
       </c>
       <c r="AN51" s="12" t="s">
         <v>25</v>
@@ -18454,11 +18434,11 @@
         <v>25</v>
       </c>
       <c r="AP51" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AQ51" s="13"/>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
@@ -18482,13 +18462,13 @@
       </c>
       <c r="H52" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_01_02_00_00</v>
+        <v>P_01_03_00_00</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>4</v>
@@ -18504,7 +18484,7 @@
         <v>6</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>7</v>
@@ -18539,25 +18519,25 @@
         <v>14</v>
       </c>
       <c r="AF52" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AG52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH52" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AI52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK52" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AL52" s="15" t="s">
         <v>30</v>
       </c>
       <c r="AM52" s="15" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AN52" s="12" t="s">
         <v>25</v>
@@ -18566,11 +18546,11 @@
         <v>25</v>
       </c>
       <c r="AP52" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AQ52" s="13"/>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -18594,29 +18574,29 @@
       </c>
       <c r="H53" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_01_03_00_00</v>
+        <v>P_02_00_00_00</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L53" s="3" t="str">
         <f t="shared" si="29"/>
-        <v>P01</v>
+        <v>P02</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N53" s="3" t="s">
+        <v>518</v>
+      </c>
       <c r="O53" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="P53" s="3" t="s">
-        <v>520</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>7</v>
@@ -18651,25 +18631,25 @@
         <v>14</v>
       </c>
       <c r="AF53" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AG53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH53" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AI53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK53" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AL53" s="15" t="s">
-        <v>30</v>
+        <v>403</v>
       </c>
       <c r="AM53" s="15" t="s">
-        <v>404</v>
+        <v>25</v>
       </c>
       <c r="AN53" s="12" t="s">
         <v>25</v>
@@ -18678,11 +18658,11 @@
         <v>25</v>
       </c>
       <c r="AP53" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AQ53" s="13"/>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -18706,13 +18686,13 @@
       </c>
       <c r="H54" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_00_00_00</v>
+        <v>P_02_01_00_00</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>4</v>
@@ -18724,11 +18704,11 @@
       <c r="M54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>521</v>
-      </c>
       <c r="O54" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>519</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>7</v>
@@ -18763,25 +18743,25 @@
         <v>14</v>
       </c>
       <c r="AF54" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AG54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH54" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AI54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK54" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AL54" s="15" t="s">
         <v>403</v>
       </c>
       <c r="AM54" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AN54" s="12" t="s">
         <v>25</v>
@@ -18790,11 +18770,11 @@
         <v>25</v>
       </c>
       <c r="AP54" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AQ54" s="13"/>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>17</v>
       </c>
@@ -18818,13 +18798,13 @@
       </c>
       <c r="H55" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_01_00_00</v>
+        <v>P_02_01_01_00</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>4</v>
@@ -18839,14 +18819,14 @@
       <c r="O55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P55" s="3" t="s">
-        <v>522</v>
-      </c>
       <c r="Q55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="T55" s="3" t="s">
+        <v>520</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>9</v>
@@ -18875,19 +18855,19 @@
         <v>14</v>
       </c>
       <c r="AF55" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AG55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH55" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AI55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK55" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AL55" s="15" t="s">
         <v>403</v>
@@ -18896,17 +18876,17 @@
         <v>30</v>
       </c>
       <c r="AN55" s="12" t="s">
-        <v>25</v>
+        <v>438</v>
       </c>
       <c r="AO55" s="12" t="s">
         <v>25</v>
       </c>
       <c r="AP55" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AQ55" s="13"/>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>17</v>
       </c>
@@ -18930,13 +18910,13 @@
       </c>
       <c r="H56" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_01_01_00</v>
+        <v>P_02_01_02_00</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>4</v>
@@ -18958,7 +18938,7 @@
         <v>8</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>9</v>
@@ -18987,19 +18967,19 @@
         <v>14</v>
       </c>
       <c r="AF56" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AG56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH56" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AI56" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK56" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AL56" s="15" t="s">
         <v>403</v>
@@ -19008,17 +18988,17 @@
         <v>30</v>
       </c>
       <c r="AN56" s="12" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="AO56" s="12" t="s">
         <v>25</v>
       </c>
       <c r="AP56" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AQ56" s="13"/>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>17</v>
       </c>
@@ -19042,13 +19022,13 @@
       </c>
       <c r="H57" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_01_02_00</v>
+        <v>P_02_01_02_01</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>4</v>
@@ -19069,11 +19049,11 @@
       <c r="S57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>524</v>
-      </c>
       <c r="U57" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>522</v>
       </c>
       <c r="W57" s="1" t="s">
         <v>10</v>
@@ -19099,19 +19079,19 @@
         <v>14</v>
       </c>
       <c r="AF57" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AG57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH57" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AI57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK57" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AL57" s="15" t="s">
         <v>403</v>
@@ -19123,14 +19103,14 @@
         <v>402</v>
       </c>
       <c r="AO57" s="12" t="s">
-        <v>25</v>
+        <v>438</v>
       </c>
       <c r="AP57" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AQ57" s="13"/>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>17</v>
       </c>
@@ -19154,13 +19134,13 @@
       </c>
       <c r="H58" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_01_02_01</v>
+        <v>P_02_02_00_00</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>4</v>
@@ -19175,6 +19155,9 @@
       <c r="O58" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P58" s="3" t="s">
+        <v>523</v>
+      </c>
       <c r="Q58" s="1" t="s">
         <v>7</v>
       </c>
@@ -19183,9 +19166,6 @@
       </c>
       <c r="U58" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>525</v>
       </c>
       <c r="W58" s="1" t="s">
         <v>10</v>
@@ -19211,38 +19191,38 @@
         <v>14</v>
       </c>
       <c r="AF58" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AG58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH58" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AI58" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK58" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AL58" s="15" t="s">
         <v>403</v>
       </c>
       <c r="AM58" s="15" t="s">
-        <v>30</v>
+        <v>403</v>
       </c>
       <c r="AN58" s="12" t="s">
-        <v>402</v>
+        <v>25</v>
       </c>
       <c r="AO58" s="12" t="s">
-        <v>438</v>
+        <v>25</v>
       </c>
       <c r="AP58" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AQ58" s="13"/>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>17</v>
       </c>
@@ -19266,13 +19246,13 @@
       </c>
       <c r="H59" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_02_00_00</v>
+        <v>P_02_02_01_00</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>4</v>
@@ -19287,14 +19267,14 @@
       <c r="O59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>526</v>
-      </c>
       <c r="Q59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="U59" s="1" t="s">
         <v>9</v>
@@ -19323,19 +19303,19 @@
         <v>14</v>
       </c>
       <c r="AF59" s="3" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AG59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH59" s="3" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AI59" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK59" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AL59" s="15" t="s">
         <v>403</v>
@@ -19344,17 +19324,17 @@
         <v>403</v>
       </c>
       <c r="AN59" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AO59" s="12" t="s">
         <v>25</v>
       </c>
       <c r="AP59" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AQ59" s="13"/>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>17</v>
       </c>
@@ -19378,13 +19358,13 @@
       </c>
       <c r="H60" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_02_01_00</v>
+        <v>P_02_02_01_01</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>4</v>
@@ -19405,11 +19385,11 @@
       <c r="S60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>533</v>
-      </c>
       <c r="U60" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>532</v>
       </c>
       <c r="W60" s="1" t="s">
         <v>10</v>
@@ -19435,19 +19415,19 @@
         <v>14</v>
       </c>
       <c r="AF60" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH60" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AI60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK60" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AL60" s="15" t="s">
         <v>403</v>
@@ -19459,14 +19439,14 @@
         <v>30</v>
       </c>
       <c r="AO60" s="12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AP60" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AQ60" s="13"/>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>17</v>
       </c>
@@ -19490,13 +19470,13 @@
       </c>
       <c r="H61" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_02_01_01</v>
+        <v>P_02_02_01_02</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J61" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>4</v>
@@ -19521,7 +19501,7 @@
         <v>9</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="W61" s="1" t="s">
         <v>10</v>
@@ -19547,19 +19527,19 @@
         <v>14</v>
       </c>
       <c r="AF61" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AG61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH61" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AI61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK61" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AL61" s="15" t="s">
         <v>403</v>
@@ -19571,14 +19551,14 @@
         <v>30</v>
       </c>
       <c r="AO61" s="12" t="s">
-        <v>29</v>
+        <v>402</v>
       </c>
       <c r="AP61" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AQ61" s="13"/>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
@@ -19602,13 +19582,13 @@
       </c>
       <c r="H62" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_02_01_02</v>
+        <v>P_02_02_01_03</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>4</v>
@@ -19633,7 +19613,7 @@
         <v>9</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="W62" s="1" t="s">
         <v>10</v>
@@ -19659,19 +19639,19 @@
         <v>14</v>
       </c>
       <c r="AF62" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AG62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH62" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AI62" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK62" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AL62" s="15" t="s">
         <v>403</v>
@@ -19683,14 +19663,14 @@
         <v>30</v>
       </c>
       <c r="AO62" s="12" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AP62" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AQ62" s="13"/>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>17</v>
       </c>
@@ -19714,13 +19694,13 @@
       </c>
       <c r="H63" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_02_01_03</v>
+        <v>P_02_02_02_00</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>4</v>
@@ -19741,11 +19721,11 @@
       <c r="S63" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="T63" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="U63" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="V63" s="3" t="s">
-        <v>537</v>
       </c>
       <c r="W63" s="1" t="s">
         <v>10</v>
@@ -19771,19 +19751,19 @@
         <v>14</v>
       </c>
       <c r="AF63" s="3" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="AG63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH63" s="3" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="AI63" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK63" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AL63" s="15" t="s">
         <v>403</v>
@@ -19792,17 +19772,17 @@
         <v>403</v>
       </c>
       <c r="AN63" s="12" t="s">
-        <v>30</v>
+        <v>529</v>
       </c>
       <c r="AO63" s="12" t="s">
-        <v>404</v>
+        <v>25</v>
       </c>
       <c r="AP63" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AQ63" s="13"/>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>17</v>
       </c>
@@ -19826,24 +19806,27 @@
       </c>
       <c r="H64" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_02_02_02_00</v>
+        <v>P_03_00_00_00</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L64" s="3" t="str">
         <f t="shared" si="29"/>
-        <v>P02</v>
+        <v>P03</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N64" s="3" t="s">
+        <v>524</v>
+      </c>
       <c r="O64" s="1" t="s">
         <v>6</v>
       </c>
@@ -19852,9 +19835,6 @@
       </c>
       <c r="S64" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="T64" s="3" t="s">
-        <v>534</v>
       </c>
       <c r="U64" s="1" t="s">
         <v>9</v>
@@ -19883,34 +19863,34 @@
         <v>14</v>
       </c>
       <c r="AF64" s="3" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="AG64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH64" s="3" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="AI64" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK64" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AL64" s="15" t="s">
-        <v>403</v>
+        <v>528</v>
       </c>
       <c r="AM64" s="15" t="s">
-        <v>403</v>
+        <v>25</v>
       </c>
       <c r="AN64" s="12" t="s">
-        <v>532</v>
+        <v>25</v>
       </c>
       <c r="AO64" s="12" t="s">
         <v>25</v>
       </c>
       <c r="AP64" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AQ64" s="13"/>
     </row>
@@ -19938,13 +19918,13 @@
       </c>
       <c r="H65" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_03_00_00_00</v>
+        <v>P_03_01_00_00</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J65" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>4</v>
@@ -19956,11 +19936,11 @@
       <c r="M65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N65" s="3" t="s">
-        <v>527</v>
-      </c>
       <c r="O65" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="Q65" s="1" t="s">
         <v>7</v>
@@ -19995,25 +19975,25 @@
         <v>14</v>
       </c>
       <c r="AF65" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AG65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH65" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AI65" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK65" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AL65" s="15" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AM65" s="15" t="s">
-        <v>25</v>
+        <v>438</v>
       </c>
       <c r="AN65" s="12" t="s">
         <v>25</v>
@@ -20022,7 +20002,7 @@
         <v>25</v>
       </c>
       <c r="AP65" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AQ65" s="13"/>
     </row>
@@ -20050,13 +20030,13 @@
       </c>
       <c r="H66" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_03_01_00_00</v>
+        <v>P_03_02_00_00</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J66" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>4</v>
@@ -20072,7 +20052,7 @@
         <v>6</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Q66" s="1" t="s">
         <v>7</v>
@@ -20107,25 +20087,25 @@
         <v>14</v>
       </c>
       <c r="AF66" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AG66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH66" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AI66" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK66" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AL66" s="15" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AM66" s="15" t="s">
-        <v>438</v>
+        <v>529</v>
       </c>
       <c r="AN66" s="12" t="s">
         <v>25</v>
@@ -20134,7 +20114,7 @@
         <v>25</v>
       </c>
       <c r="AP66" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AQ66" s="13"/>
     </row>
@@ -20162,13 +20142,13 @@
       </c>
       <c r="H67" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>P_03_02_00_00</v>
+        <v>P_03_02_01_00</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J67" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>4</v>
@@ -20183,14 +20163,14 @@
       <c r="O67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P67" s="3" t="s">
-        <v>529</v>
-      </c>
       <c r="Q67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S67" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>527</v>
       </c>
       <c r="U67" s="1" t="s">
         <v>9</v>
@@ -20219,203 +20199,91 @@
         <v>14</v>
       </c>
       <c r="AF67" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AG67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH67" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AI67" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AK67" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AL67" s="15" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AM67" s="15" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AN67" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AO67" s="12" t="s">
         <v>25</v>
       </c>
       <c r="AP67" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AQ67" s="13"/>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H68" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>P_03_02_01_00</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J68" s="19" t="s">
-        <v>539</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L68" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>P03</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T68" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="U68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X68" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v>#</v>
-      </c>
-      <c r="Y68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z68" s="16" t="str">
-        <f t="shared" si="31"/>
-        <v>#</v>
-      </c>
-      <c r="AA68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF68" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="AG68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH68" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="AI68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK68" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="AL68" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="AM68" s="15" t="s">
-        <v>532</v>
-      </c>
-      <c r="AN68" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO68" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP68" s="25" t="s">
-        <v>538</v>
-      </c>
-      <c r="AQ68" s="13"/>
-    </row>
-    <row r="69" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="47" t="s">
-        <v>514</v>
-      </c>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="48"/>
-      <c r="N69" s="48"/>
-      <c r="O69" s="48"/>
-      <c r="P69" s="48"/>
-      <c r="Q69" s="48"/>
-      <c r="R69" s="48"/>
-      <c r="S69" s="48"/>
-      <c r="T69" s="48"/>
-      <c r="U69" s="48"/>
-      <c r="V69" s="48"/>
-      <c r="W69" s="48"/>
-      <c r="X69" s="48"/>
-      <c r="Y69" s="48"/>
-      <c r="Z69" s="48"/>
-      <c r="AA69" s="48"/>
-      <c r="AB69" s="48"/>
-      <c r="AC69" s="48"/>
-      <c r="AD69" s="48"/>
-      <c r="AE69" s="48"/>
-      <c r="AF69" s="48"/>
-      <c r="AG69" s="48"/>
-      <c r="AH69" s="48"/>
-      <c r="AI69" s="49"/>
-      <c r="AJ69" s="5"/>
-      <c r="AK69" s="10"/>
-      <c r="AL69" s="11"/>
-      <c r="AM69" s="11"/>
-      <c r="AU69" s="6" t="s">
+    <row r="68" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="47" t="s">
+        <v>511</v>
+      </c>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="48"/>
+      <c r="P68" s="48"/>
+      <c r="Q68" s="48"/>
+      <c r="R68" s="48"/>
+      <c r="S68" s="48"/>
+      <c r="T68" s="48"/>
+      <c r="U68" s="48"/>
+      <c r="V68" s="48"/>
+      <c r="W68" s="48"/>
+      <c r="X68" s="48"/>
+      <c r="Y68" s="48"/>
+      <c r="Z68" s="48"/>
+      <c r="AA68" s="48"/>
+      <c r="AB68" s="48"/>
+      <c r="AC68" s="48"/>
+      <c r="AD68" s="48"/>
+      <c r="AE68" s="48"/>
+      <c r="AF68" s="48"/>
+      <c r="AG68" s="48"/>
+      <c r="AH68" s="48"/>
+      <c r="AI68" s="49"/>
+      <c r="AJ68" s="5"/>
+      <c r="AK68" s="10"/>
+      <c r="AL68" s="11"/>
+      <c r="AM68" s="11"/>
+      <c r="AU68" s="6" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:AI2"/>
-    <mergeCell ref="A69:AI69"/>
+    <mergeCell ref="A68:AI68"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F68 B3:B68 D3:D68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D67 B3:B67 F3:F67">
       <formula1>$AU$3:$AU$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/resources/data/menu.xlsx
+++ b/resources/data/menu.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$1208</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3397" uniqueCount="560">
   <si>
     <t>{"menu":[</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -11757,6 +11757,18 @@
   </si>
   <si>
     <t>icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll Box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrollBox</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -12460,11 +12472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AU68"/>
+  <dimension ref="A2:AU69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:AI69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -12704,7 +12716,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="3" t="str">
-        <f t="shared" ref="H4:H45" si="0">CONCATENATE(AK4,"_",AL4,"_",AM4,"_",AN4,"_",AO4)</f>
+        <f t="shared" ref="H4:H46" si="0">CONCATENATE(AK4,"_",AL4,"_",AM4,"_",AN4,"_",AO4)</f>
         <v>G_01_00_00_00</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -12717,7 +12729,7 @@
         <v>4</v>
       </c>
       <c r="L4" s="3" t="str">
-        <f t="shared" ref="L4:L45" si="1">CONCATENATE(AK4,AL4)</f>
+        <f t="shared" ref="L4:L46" si="1">CONCATENATE(AK4,AL4)</f>
         <v>G01</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -12742,14 +12754,14 @@
         <v>10</v>
       </c>
       <c r="X4" s="16" t="str">
-        <f t="shared" ref="X4:X45" si="2">CONCATENATE(AP4,AQ4,AR4,AS4)</f>
+        <f t="shared" ref="X4:X46" si="2">CONCATENATE(AP4,AQ4,AR4,AS4)</f>
         <v>/netiveUI/html/start/introduction.html</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z4" s="16" t="str">
-        <f t="shared" ref="Z4:Z45" si="3">CONCATENATE(AP4,AQ4,AR4,AS4)</f>
+        <f t="shared" ref="Z4:Z46" si="3">CONCATENATE(AP4,AQ4,AR4,AS4)</f>
         <v>/netiveUI/html/start/introduction.html</v>
       </c>
       <c r="AA4" s="1" t="s">
@@ -16799,8 +16811,8 @@
         <v>2</v>
       </c>
       <c r="H38" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>G_03_15_00_00</v>
+        <f t="shared" ref="H38" si="16">CONCATENATE(AK38,"_",AL38,"_",AM38,"_",AN38,"_",AO38)</f>
+        <v>G_03_26_00_00</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>3</v>
@@ -16812,7 +16824,7 @@
         <v>4</v>
       </c>
       <c r="L38" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L38" si="17">CONCATENATE(AK38,AL38)</f>
         <v>G03</v>
       </c>
       <c r="M38" s="1" t="s">
@@ -16822,7 +16834,7 @@
         <v>6</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>7</v>
@@ -16837,15 +16849,15 @@
         <v>10</v>
       </c>
       <c r="X38" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/scrollMove.html</v>
+        <f t="shared" ref="X38" si="18">CONCATENATE(AP38,AQ38,AR38,AS38)</f>
+        <v>/netiveUI/html/components/scrollBox.html</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z38" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/scrollMove.html</v>
+        <f t="shared" ref="Z38" si="19">CONCATENATE(AP38,AQ38,AR38,AS38)</f>
+        <v>/netiveUI/html/components/scrollBox.html</v>
       </c>
       <c r="AA38" s="1" t="s">
         <v>12</v>
@@ -16857,13 +16869,13 @@
         <v>14</v>
       </c>
       <c r="AF38" s="3" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
       <c r="AG38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH38" s="3" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
       <c r="AI38" s="1" t="s">
         <v>16</v>
@@ -16875,7 +16887,7 @@
         <v>416</v>
       </c>
       <c r="AM38" s="15" t="s">
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="AN38" s="12" t="s">
         <v>25</v>
@@ -16890,7 +16902,7 @@
         <v>435</v>
       </c>
       <c r="AR38" s="13" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="AS38" s="6" t="s">
         <v>434</v>
@@ -16920,7 +16932,7 @@
       </c>
       <c r="H39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_16_00_00</v>
+        <v>G_03_15_00_00</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>3</v>
@@ -16942,7 +16954,7 @@
         <v>6</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>7</v>
@@ -16958,14 +16970,14 @@
       </c>
       <c r="X39" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/select.html</v>
+        <v>/netiveUI/html/components/scrollMove.html</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z39" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/select.html</v>
+        <v>/netiveUI/html/components/scrollMove.html</v>
       </c>
       <c r="AA39" s="1" t="s">
         <v>12</v>
@@ -16977,13 +16989,13 @@
         <v>14</v>
       </c>
       <c r="AF39" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AG39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH39" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AI39" s="1" t="s">
         <v>16</v>
@@ -16995,7 +17007,7 @@
         <v>416</v>
       </c>
       <c r="AM39" s="15" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AN39" s="12" t="s">
         <v>25</v>
@@ -17010,7 +17022,7 @@
         <v>435</v>
       </c>
       <c r="AR39" s="13" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AS39" s="6" t="s">
         <v>434</v>
@@ -17040,7 +17052,7 @@
       </c>
       <c r="H40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_17_00_00</v>
+        <v>G_03_16_00_00</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>3</v>
@@ -17062,7 +17074,7 @@
         <v>6</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>7</v>
@@ -17078,14 +17090,14 @@
       </c>
       <c r="X40" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/selection.html</v>
+        <v>/netiveUI/html/components/select.html</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z40" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/selection.html</v>
+        <v>/netiveUI/html/components/select.html</v>
       </c>
       <c r="AA40" s="1" t="s">
         <v>12</v>
@@ -17097,13 +17109,13 @@
         <v>14</v>
       </c>
       <c r="AF40" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AG40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH40" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AI40" s="1" t="s">
         <v>16</v>
@@ -17115,7 +17127,7 @@
         <v>416</v>
       </c>
       <c r="AM40" s="15" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AN40" s="12" t="s">
         <v>25</v>
@@ -17130,7 +17142,7 @@
         <v>435</v>
       </c>
       <c r="AR40" s="13" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AS40" s="6" t="s">
         <v>434</v>
@@ -17160,7 +17172,7 @@
       </c>
       <c r="H41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_18_00_00</v>
+        <v>G_03_17_00_00</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>3</v>
@@ -17182,7 +17194,7 @@
         <v>6</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>7</v>
@@ -17198,14 +17210,14 @@
       </c>
       <c r="X41" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/slide.html</v>
+        <v>/netiveUI/html/components/selection.html</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z41" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/slide.html</v>
+        <v>/netiveUI/html/components/selection.html</v>
       </c>
       <c r="AA41" s="1" t="s">
         <v>12</v>
@@ -17217,13 +17229,13 @@
         <v>14</v>
       </c>
       <c r="AF41" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AG41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH41" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AI41" s="1" t="s">
         <v>16</v>
@@ -17235,7 +17247,7 @@
         <v>416</v>
       </c>
       <c r="AM41" s="15" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AN41" s="12" t="s">
         <v>25</v>
@@ -17250,7 +17262,7 @@
         <v>435</v>
       </c>
       <c r="AR41" s="13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AS41" s="6" t="s">
         <v>434</v>
@@ -17280,7 +17292,7 @@
       </c>
       <c r="H42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_19_00_00</v>
+        <v>G_03_18_00_00</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>3</v>
@@ -17302,7 +17314,7 @@
         <v>6</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>7</v>
@@ -17318,14 +17330,14 @@
       </c>
       <c r="X42" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/slider.html</v>
+        <v>/netiveUI/html/components/slide.html</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z42" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/slider.html</v>
+        <v>/netiveUI/html/components/slide.html</v>
       </c>
       <c r="AA42" s="1" t="s">
         <v>12</v>
@@ -17337,13 +17349,13 @@
         <v>14</v>
       </c>
       <c r="AF42" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AG42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH42" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AI42" s="1" t="s">
         <v>16</v>
@@ -17355,7 +17367,7 @@
         <v>416</v>
       </c>
       <c r="AM42" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AN42" s="12" t="s">
         <v>25</v>
@@ -17370,7 +17382,7 @@
         <v>435</v>
       </c>
       <c r="AR42" s="13" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AS42" s="6" t="s">
         <v>434</v>
@@ -17400,7 +17412,7 @@
       </c>
       <c r="H43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_20_00_00</v>
+        <v>G_03_19_00_00</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>3</v>
@@ -17422,7 +17434,7 @@
         <v>6</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>7</v>
@@ -17438,14 +17450,14 @@
       </c>
       <c r="X43" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/slot.html</v>
+        <v>/netiveUI/html/components/slider.html</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z43" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/slot.html</v>
+        <v>/netiveUI/html/components/slider.html</v>
       </c>
       <c r="AA43" s="1" t="s">
         <v>12</v>
@@ -17457,13 +17469,13 @@
         <v>14</v>
       </c>
       <c r="AF43" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AG43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH43" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AI43" s="1" t="s">
         <v>16</v>
@@ -17475,7 +17487,7 @@
         <v>416</v>
       </c>
       <c r="AM43" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AN43" s="12" t="s">
         <v>25</v>
@@ -17490,7 +17502,7 @@
         <v>435</v>
       </c>
       <c r="AR43" s="13" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AS43" s="6" t="s">
         <v>434</v>
@@ -17520,7 +17532,7 @@
       </c>
       <c r="H44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>G_03_21_00_00</v>
+        <v>G_03_20_00_00</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>3</v>
@@ -17542,7 +17554,7 @@
         <v>6</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>7</v>
@@ -17558,14 +17570,14 @@
       </c>
       <c r="X44" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>/netiveUI/html/components/tab.html</v>
+        <v>/netiveUI/html/components/slot.html</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z44" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>/netiveUI/html/components/tab.html</v>
+        <v>/netiveUI/html/components/slot.html</v>
       </c>
       <c r="AA44" s="1" t="s">
         <v>12</v>
@@ -17577,13 +17589,13 @@
         <v>14</v>
       </c>
       <c r="AF44" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AG44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH44" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AI44" s="1" t="s">
         <v>16</v>
@@ -17595,7 +17607,7 @@
         <v>416</v>
       </c>
       <c r="AM44" s="15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AN44" s="12" t="s">
         <v>25</v>
@@ -17610,257 +17622,254 @@
         <v>435</v>
       </c>
       <c r="AR44" s="13" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AS44" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="45" spans="1:47" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="G45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H45" s="29" t="str">
+      <c r="H45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>G_03_21_00_00</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>G03</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X45" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>/netiveUI/html/components/tab.html</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z45" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components/tab.html</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF45" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="AG45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH45" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="AI45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK45" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL45" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="AM45" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="AN45" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO45" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP45" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ45" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="AR45" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="AS45" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="29" t="str">
         <f t="shared" si="0"/>
         <v>G_03_22_00_00</v>
       </c>
-      <c r="I45" s="27" t="s">
+      <c r="I46" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="29" t="s">
+      <c r="J46" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="K45" s="27" t="s">
+      <c r="K46" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="29" t="str">
+      <c r="L46" s="29" t="str">
         <f t="shared" si="1"/>
         <v>G03</v>
       </c>
-      <c r="M45" s="27" t="s">
+      <c r="M46" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="27" t="s">
+      <c r="O46" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P45" s="29" t="s">
+      <c r="P46" s="29" t="s">
         <v>508</v>
       </c>
-      <c r="Q45" s="27" t="s">
+      <c r="Q46" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S45" s="27" t="s">
+      <c r="S46" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="27" t="s">
+      <c r="U46" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="W45" s="27" t="s">
+      <c r="W46" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="X45" s="30" t="str">
+      <c r="X46" s="30" t="str">
         <f t="shared" si="2"/>
         <v>/netiveUI/html/components/tooltip.html</v>
       </c>
-      <c r="Y45" s="27" t="s">
+      <c r="Y46" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="Z45" s="30" t="str">
+      <c r="Z46" s="30" t="str">
         <f t="shared" si="3"/>
         <v>/netiveUI/html/components/tooltip.html</v>
       </c>
-      <c r="AA45" s="27" t="s">
+      <c r="AA46" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AC45" s="27" t="s">
+      <c r="AC46" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AE45" s="27" t="s">
+      <c r="AE46" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AF45" s="29" t="s">
+      <c r="AF46" s="29" t="s">
         <v>508</v>
       </c>
-      <c r="AG45" s="27" t="s">
+      <c r="AG46" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AH45" s="29" t="s">
+      <c r="AH46" s="29" t="s">
         <v>508</v>
       </c>
-      <c r="AI45" s="1" t="s">
+      <c r="AI46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AJ45" s="31"/>
-      <c r="AK45" s="32" t="s">
+      <c r="AJ46" s="31"/>
+      <c r="AK46" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AL45" s="33" t="s">
+      <c r="AL46" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="AM45" s="33" t="s">
+      <c r="AM46" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="AN45" s="34" t="s">
+      <c r="AN46" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AO45" s="34" t="s">
+      <c r="AO46" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AP45" s="35" t="s">
+      <c r="AP46" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="AQ45" s="35" t="s">
+      <c r="AQ46" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="AR45" s="35" t="s">
+      <c r="AR46" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="AS45" s="36" t="s">
+      <c r="AS46" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="AT45" s="36"/>
-      <c r="AU45" s="36"/>
-    </row>
-    <row r="46" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" s="19" t="str">
-        <f t="shared" ref="H46" si="16">CONCATENATE(AK46,"_",AL46,"_",AM46,"_",AN46,"_",AO46)</f>
-        <v>G_04_00_00_00</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K46" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="19" t="str">
-        <f t="shared" ref="L46" si="17">CONCATENATE(AK46,AL46)</f>
-        <v>G04</v>
-      </c>
-      <c r="M46" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="O46" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q46" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="S46" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="U46" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="W46" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="X46" s="20" t="str">
-        <f t="shared" ref="X46" si="18">CONCATENATE(AP46,AQ46,AR46,AS46)</f>
-        <v>/netiveUI/html/memory/issue.html</v>
-      </c>
-      <c r="Y46" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z46" s="20" t="str">
-        <f t="shared" ref="Z46" si="19">CONCATENATE(AP46,AQ46,AR46,AS46)</f>
-        <v>/netiveUI/html/memory/issue.html</v>
-      </c>
-      <c r="AA46" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC46" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE46" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF46" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="AG46" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH46" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="AI46" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ46" s="21"/>
-      <c r="AK46" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL46" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="AM46" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN46" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO46" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP46" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="AQ46" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="AR46" s="25" t="s">
-        <v>553</v>
-      </c>
-      <c r="AS46" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="AT46" s="26"/>
-      <c r="AU46" s="26"/>
+      <c r="AT46" s="36"/>
+      <c r="AU46" s="36"/>
     </row>
     <row r="47" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
@@ -17886,7 +17895,7 @@
       </c>
       <c r="H47" s="19" t="str">
         <f t="shared" ref="H47" si="20">CONCATENATE(AK47,"_",AL47,"_",AM47,"_",AN47,"_",AO47)</f>
-        <v>G_04_01_00_00</v>
+        <v>G_04_00_00_00</v>
       </c>
       <c r="I47" s="17" t="s">
         <v>3</v>
@@ -17904,11 +17913,11 @@
       <c r="M47" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="N47" s="19" t="s">
+        <v>549</v>
+      </c>
       <c r="O47" s="17" t="s">
         <v>6</v>
-      </c>
-      <c r="P47" s="19" t="s">
-        <v>551</v>
       </c>
       <c r="Q47" s="17" t="s">
         <v>7</v>
@@ -17943,13 +17952,13 @@
         <v>14</v>
       </c>
       <c r="AF47" s="19" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AG47" s="17" t="s">
         <v>15</v>
       </c>
       <c r="AH47" s="19" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AI47" s="17" t="s">
         <v>16</v>
@@ -17962,7 +17971,7 @@
         <v>444</v>
       </c>
       <c r="AM47" s="23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AN47" s="24" t="s">
         <v>25</v>
@@ -17985,236 +17994,247 @@
       <c r="AT47" s="26"/>
       <c r="AU47" s="26"/>
     </row>
-    <row r="48" spans="1:47" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="37" t="s">
+    <row r="48" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="38" t="s">
+      <c r="D48" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="38" t="s">
+      <c r="F48" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="37" t="s">
+      <c r="G48" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H48" s="39" t="str">
+      <c r="H48" s="19" t="str">
         <f t="shared" ref="H48" si="24">CONCATENATE(AK48,"_",AL48,"_",AM48,"_",AN48,"_",AO48)</f>
+        <v>G_04_01_00_00</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="19" t="str">
+        <f t="shared" ref="L48" si="25">CONCATENATE(AK48,AL48)</f>
+        <v>G04</v>
+      </c>
+      <c r="M48" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P48" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q48" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="S48" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="W48" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="X48" s="20" t="str">
+        <f t="shared" ref="X48" si="26">CONCATENATE(AP48,AQ48,AR48,AS48)</f>
+        <v>/netiveUI/html/memory/issue.html</v>
+      </c>
+      <c r="Y48" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z48" s="20" t="str">
+        <f t="shared" ref="Z48" si="27">CONCATENATE(AP48,AQ48,AR48,AS48)</f>
+        <v>/netiveUI/html/memory/issue.html</v>
+      </c>
+      <c r="AA48" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC48" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE48" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF48" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="AG48" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH48" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="AI48" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ48" s="21"/>
+      <c r="AK48" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL48" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="AM48" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN48" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO48" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP48" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ48" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="AR48" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="AS48" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="AT48" s="26"/>
+      <c r="AU48" s="26"/>
+    </row>
+    <row r="49" spans="1:47" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="39" t="str">
+        <f t="shared" ref="H49" si="28">CONCATENATE(AK49,"_",AL49,"_",AM49,"_",AN49,"_",AO49)</f>
         <v>P_00_00_00_00</v>
       </c>
-      <c r="I48" s="37" t="s">
+      <c r="I49" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="J48" s="39" t="s">
+      <c r="J49" s="39" t="s">
         <v>536</v>
       </c>
-      <c r="K48" s="37" t="s">
+      <c r="K49" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="39" t="str">
-        <f t="shared" ref="L48" si="25">CONCATENATE(AK48,AL48)</f>
+      <c r="L49" s="39" t="str">
+        <f t="shared" ref="L49" si="29">CONCATENATE(AK49,AL49)</f>
         <v>P00</v>
       </c>
-      <c r="M48" s="37" t="s">
+      <c r="M49" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="39" t="s">
+      <c r="N49" s="39" t="s">
         <v>513</v>
       </c>
-      <c r="O48" s="37" t="s">
+      <c r="O49" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="Q48" s="37" t="s">
+      <c r="Q49" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="S48" s="37" t="s">
+      <c r="S49" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="U48" s="37" t="s">
+      <c r="U49" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="W48" s="37" t="s">
+      <c r="W49" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="X48" s="40" t="str">
-        <f t="shared" ref="X48" si="26">CONCATENATE(AP48,AQ48,AR48,AS48)</f>
+      <c r="X49" s="40" t="str">
+        <f t="shared" ref="X49" si="30">CONCATENATE(AP49,AQ49,AR49,AS49)</f>
         <v>#</v>
       </c>
-      <c r="Y48" s="37" t="s">
+      <c r="Y49" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="Z48" s="40" t="str">
-        <f t="shared" ref="Z48" si="27">CONCATENATE(AP48,AQ48,AR48,AS48)</f>
+      <c r="Z49" s="40" t="str">
+        <f t="shared" ref="Z49" si="31">CONCATENATE(AP49,AQ49,AR49,AS49)</f>
         <v>#</v>
       </c>
-      <c r="AA48" s="37" t="s">
+      <c r="AA49" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AC48" s="37" t="s">
+      <c r="AC49" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AE48" s="37" t="s">
+      <c r="AE49" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AF48" s="39" t="s">
+      <c r="AF49" s="39" t="s">
         <v>513</v>
       </c>
-      <c r="AG48" s="37" t="s">
+      <c r="AG49" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="AH48" s="39" t="s">
+      <c r="AH49" s="39" t="s">
         <v>513</v>
       </c>
-      <c r="AI48" s="37" t="s">
+      <c r="AI49" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="AJ48" s="41"/>
-      <c r="AK48" s="42" t="s">
+      <c r="AJ49" s="41"/>
+      <c r="AK49" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="AL48" s="43" t="s">
+      <c r="AL49" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="AM48" s="43" t="s">
+      <c r="AM49" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="AN48" s="44" t="s">
+      <c r="AN49" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AO48" s="44" t="s">
+      <c r="AO49" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AP48" s="45" t="s">
+      <c r="AP49" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="AQ48" s="45"/>
-      <c r="AR48" s="45"/>
-      <c r="AS48" s="46"/>
-      <c r="AT48" s="46"/>
-      <c r="AU48" s="46"/>
-    </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="3" t="str">
-        <f t="shared" ref="H49:H67" si="28">CONCATENATE(AK49,"_",AL49,"_",AM49,"_",AN49,"_",AO49)</f>
-        <v>P_01_00_00_00</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="19" t="s">
-        <v>536</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3" t="str">
-        <f t="shared" ref="L49:L67" si="29">CONCATENATE(AK49,AL49)</f>
-        <v>P01</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X49" s="16" t="str">
-        <f t="shared" ref="X49:X67" si="30">CONCATENATE(AP49,AQ49,AR49,AS49)</f>
-        <v>#</v>
-      </c>
-      <c r="Y49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z49" s="16" t="str">
-        <f t="shared" ref="Z49:Z67" si="31">CONCATENATE(AP49,AQ49,AR49,AS49)</f>
-        <v>#</v>
-      </c>
-      <c r="AA49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF49" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="AG49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH49" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="AI49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK49" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="AL49" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM49" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN49" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO49" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP49" s="25" t="s">
-        <v>535</v>
-      </c>
-      <c r="AQ49" s="13"/>
-    </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ49" s="45"/>
+      <c r="AR49" s="45"/>
+      <c r="AS49" s="46"/>
+      <c r="AT49" s="46"/>
+      <c r="AU49" s="46"/>
+    </row>
+    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
@@ -18237,8 +18257,8 @@
         <v>2</v>
       </c>
       <c r="H50" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>P_01_01_00_00</v>
+        <f t="shared" ref="H50:H68" si="32">CONCATENATE(AK50,"_",AL50,"_",AM50,"_",AN50,"_",AO50)</f>
+        <v>P_01_00_00_00</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>3</v>
@@ -18250,18 +18270,18 @@
         <v>4</v>
       </c>
       <c r="L50" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="L50:L68" si="33">CONCATENATE(AK50,AL50)</f>
         <v>P01</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N50" s="3" t="s">
+        <v>514</v>
+      </c>
       <c r="O50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P50" s="3" t="s">
-        <v>515</v>
-      </c>
       <c r="Q50" s="1" t="s">
         <v>7</v>
       </c>
@@ -18275,14 +18295,14 @@
         <v>10</v>
       </c>
       <c r="X50" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="X50:X68" si="34">CONCATENATE(AP50,AQ50,AR50,AS50)</f>
         <v>#</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z50" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="Z50:Z68" si="35">CONCATENATE(AP50,AQ50,AR50,AS50)</f>
         <v>#</v>
       </c>
       <c r="AA50" s="1" t="s">
@@ -18295,13 +18315,13 @@
         <v>14</v>
       </c>
       <c r="AF50" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH50" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AI50" s="1" t="s">
         <v>16</v>
@@ -18313,7 +18333,7 @@
         <v>30</v>
       </c>
       <c r="AM50" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AN50" s="12" t="s">
         <v>25</v>
@@ -18326,7 +18346,7 @@
       </c>
       <c r="AQ50" s="13"/>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
@@ -18349,8 +18369,8 @@
         <v>2</v>
       </c>
       <c r="H51" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>P_01_02_00_00</v>
+        <f t="shared" si="32"/>
+        <v>P_01_01_00_00</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>3</v>
@@ -18362,7 +18382,7 @@
         <v>4</v>
       </c>
       <c r="L51" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>P01</v>
       </c>
       <c r="M51" s="1" t="s">
@@ -18372,7 +18392,7 @@
         <v>6</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>7</v>
@@ -18387,14 +18407,14 @@
         <v>10</v>
       </c>
       <c r="X51" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>#</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z51" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#</v>
       </c>
       <c r="AA51" s="1" t="s">
@@ -18407,13 +18427,13 @@
         <v>14</v>
       </c>
       <c r="AF51" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH51" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AI51" s="1" t="s">
         <v>16</v>
@@ -18425,7 +18445,7 @@
         <v>30</v>
       </c>
       <c r="AM51" s="15" t="s">
-        <v>402</v>
+        <v>29</v>
       </c>
       <c r="AN51" s="12" t="s">
         <v>25</v>
@@ -18438,7 +18458,7 @@
       </c>
       <c r="AQ51" s="13"/>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
@@ -18461,8 +18481,8 @@
         <v>2</v>
       </c>
       <c r="H52" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>P_01_03_00_00</v>
+        <f t="shared" si="32"/>
+        <v>P_01_02_00_00</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>3</v>
@@ -18474,7 +18494,7 @@
         <v>4</v>
       </c>
       <c r="L52" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>P01</v>
       </c>
       <c r="M52" s="1" t="s">
@@ -18484,7 +18504,7 @@
         <v>6</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>7</v>
@@ -18499,14 +18519,14 @@
         <v>10</v>
       </c>
       <c r="X52" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>#</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z52" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#</v>
       </c>
       <c r="AA52" s="1" t="s">
@@ -18519,13 +18539,13 @@
         <v>14</v>
       </c>
       <c r="AF52" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AG52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH52" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI52" s="1" t="s">
         <v>16</v>
@@ -18537,7 +18557,7 @@
         <v>30</v>
       </c>
       <c r="AM52" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AN52" s="12" t="s">
         <v>25</v>
@@ -18550,7 +18570,7 @@
       </c>
       <c r="AQ52" s="13"/>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -18573,8 +18593,8 @@
         <v>2</v>
       </c>
       <c r="H53" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>P_02_00_00_00</v>
+        <f t="shared" si="32"/>
+        <v>P_01_03_00_00</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>3</v>
@@ -18586,18 +18606,18 @@
         <v>4</v>
       </c>
       <c r="L53" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>P02</v>
+        <f t="shared" si="33"/>
+        <v>P01</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N53" s="3" t="s">
-        <v>518</v>
-      </c>
       <c r="O53" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P53" s="3" t="s">
+        <v>517</v>
+      </c>
       <c r="Q53" s="1" t="s">
         <v>7</v>
       </c>
@@ -18611,14 +18631,14 @@
         <v>10</v>
       </c>
       <c r="X53" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>#</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z53" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#</v>
       </c>
       <c r="AA53" s="1" t="s">
@@ -18631,13 +18651,13 @@
         <v>14</v>
       </c>
       <c r="AF53" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH53" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI53" s="1" t="s">
         <v>16</v>
@@ -18646,10 +18666,10 @@
         <v>512</v>
       </c>
       <c r="AL53" s="15" t="s">
-        <v>403</v>
+        <v>30</v>
       </c>
       <c r="AM53" s="15" t="s">
-        <v>25</v>
+        <v>404</v>
       </c>
       <c r="AN53" s="12" t="s">
         <v>25</v>
@@ -18662,7 +18682,7 @@
       </c>
       <c r="AQ53" s="13"/>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -18685,8 +18705,8 @@
         <v>2</v>
       </c>
       <c r="H54" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>P_02_01_00_00</v>
+        <f t="shared" si="32"/>
+        <v>P_02_00_00_00</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>3</v>
@@ -18698,18 +18718,18 @@
         <v>4</v>
       </c>
       <c r="L54" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>P02</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N54" s="3" t="s">
+        <v>518</v>
+      </c>
       <c r="O54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>519</v>
-      </c>
       <c r="Q54" s="1" t="s">
         <v>7</v>
       </c>
@@ -18723,14 +18743,14 @@
         <v>10</v>
       </c>
       <c r="X54" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>#</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z54" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#</v>
       </c>
       <c r="AA54" s="1" t="s">
@@ -18743,13 +18763,13 @@
         <v>14</v>
       </c>
       <c r="AF54" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AG54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH54" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AI54" s="1" t="s">
         <v>16</v>
@@ -18761,7 +18781,7 @@
         <v>403</v>
       </c>
       <c r="AM54" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AN54" s="12" t="s">
         <v>25</v>
@@ -18774,7 +18794,7 @@
       </c>
       <c r="AQ54" s="13"/>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>17</v>
       </c>
@@ -18797,8 +18817,8 @@
         <v>2</v>
       </c>
       <c r="H55" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>P_02_01_01_00</v>
+        <f t="shared" si="32"/>
+        <v>P_02_01_00_00</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>3</v>
@@ -18810,7 +18830,7 @@
         <v>4</v>
       </c>
       <c r="L55" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>P02</v>
       </c>
       <c r="M55" s="1" t="s">
@@ -18819,15 +18839,15 @@
       <c r="O55" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P55" s="3" t="s">
+        <v>519</v>
+      </c>
       <c r="Q55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T55" s="3" t="s">
-        <v>520</v>
-      </c>
       <c r="U55" s="1" t="s">
         <v>9</v>
       </c>
@@ -18835,14 +18855,14 @@
         <v>10</v>
       </c>
       <c r="X55" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>#</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z55" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#</v>
       </c>
       <c r="AA55" s="1" t="s">
@@ -18855,13 +18875,13 @@
         <v>14</v>
       </c>
       <c r="AF55" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AG55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH55" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI55" s="1" t="s">
         <v>16</v>
@@ -18876,7 +18896,7 @@
         <v>30</v>
       </c>
       <c r="AN55" s="12" t="s">
-        <v>438</v>
+        <v>25</v>
       </c>
       <c r="AO55" s="12" t="s">
         <v>25</v>
@@ -18886,7 +18906,7 @@
       </c>
       <c r="AQ55" s="13"/>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>17</v>
       </c>
@@ -18909,8 +18929,8 @@
         <v>2</v>
       </c>
       <c r="H56" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>P_02_01_02_00</v>
+        <f t="shared" si="32"/>
+        <v>P_02_01_01_00</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>3</v>
@@ -18922,7 +18942,7 @@
         <v>4</v>
       </c>
       <c r="L56" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>P02</v>
       </c>
       <c r="M56" s="1" t="s">
@@ -18938,7 +18958,7 @@
         <v>8</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>9</v>
@@ -18947,14 +18967,14 @@
         <v>10</v>
       </c>
       <c r="X56" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>#</v>
       </c>
       <c r="Y56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z56" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#</v>
       </c>
       <c r="AA56" s="1" t="s">
@@ -18967,13 +18987,13 @@
         <v>14</v>
       </c>
       <c r="AF56" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH56" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AI56" s="1" t="s">
         <v>16</v>
@@ -18988,7 +19008,7 @@
         <v>30</v>
       </c>
       <c r="AN56" s="12" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="AO56" s="12" t="s">
         <v>25</v>
@@ -18998,7 +19018,7 @@
       </c>
       <c r="AQ56" s="13"/>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>17</v>
       </c>
@@ -19021,8 +19041,8 @@
         <v>2</v>
       </c>
       <c r="H57" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>P_02_01_02_01</v>
+        <f t="shared" si="32"/>
+        <v>P_02_01_02_00</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>3</v>
@@ -19034,7 +19054,7 @@
         <v>4</v>
       </c>
       <c r="L57" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>P02</v>
       </c>
       <c r="M57" s="1" t="s">
@@ -19049,24 +19069,24 @@
       <c r="S57" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="T57" s="3" t="s">
+        <v>521</v>
+      </c>
       <c r="U57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>522</v>
-      </c>
       <c r="W57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X57" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>#</v>
       </c>
       <c r="Y57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z57" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#</v>
       </c>
       <c r="AA57" s="1" t="s">
@@ -19079,13 +19099,13 @@
         <v>14</v>
       </c>
       <c r="AF57" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH57" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AI57" s="1" t="s">
         <v>16</v>
@@ -19103,14 +19123,14 @@
         <v>402</v>
       </c>
       <c r="AO57" s="12" t="s">
-        <v>438</v>
+        <v>25</v>
       </c>
       <c r="AP57" s="25" t="s">
         <v>535</v>
       </c>
       <c r="AQ57" s="13"/>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>17</v>
       </c>
@@ -19133,8 +19153,8 @@
         <v>2</v>
       </c>
       <c r="H58" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>P_02_02_00_00</v>
+        <f t="shared" si="32"/>
+        <v>P_02_01_02_01</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>3</v>
@@ -19146,7 +19166,7 @@
         <v>4</v>
       </c>
       <c r="L58" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>P02</v>
       </c>
       <c r="M58" s="1" t="s">
@@ -19155,9 +19175,6 @@
       <c r="O58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>523</v>
-      </c>
       <c r="Q58" s="1" t="s">
         <v>7</v>
       </c>
@@ -19167,18 +19184,21 @@
       <c r="U58" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="V58" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="W58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X58" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>#</v>
       </c>
       <c r="Y58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z58" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#</v>
       </c>
       <c r="AA58" s="1" t="s">
@@ -19191,13 +19211,13 @@
         <v>14</v>
       </c>
       <c r="AF58" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH58" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AI58" s="1" t="s">
         <v>16</v>
@@ -19209,20 +19229,20 @@
         <v>403</v>
       </c>
       <c r="AM58" s="15" t="s">
-        <v>403</v>
+        <v>30</v>
       </c>
       <c r="AN58" s="12" t="s">
-        <v>25</v>
+        <v>402</v>
       </c>
       <c r="AO58" s="12" t="s">
-        <v>25</v>
+        <v>438</v>
       </c>
       <c r="AP58" s="25" t="s">
         <v>535</v>
       </c>
       <c r="AQ58" s="13"/>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>17</v>
       </c>
@@ -19245,8 +19265,8 @@
         <v>2</v>
       </c>
       <c r="H59" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>P_02_02_01_00</v>
+        <f t="shared" si="32"/>
+        <v>P_02_02_00_00</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>3</v>
@@ -19258,7 +19278,7 @@
         <v>4</v>
       </c>
       <c r="L59" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>P02</v>
       </c>
       <c r="M59" s="1" t="s">
@@ -19267,15 +19287,15 @@
       <c r="O59" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P59" s="3" t="s">
+        <v>523</v>
+      </c>
       <c r="Q59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>530</v>
-      </c>
       <c r="U59" s="1" t="s">
         <v>9</v>
       </c>
@@ -19283,14 +19303,14 @@
         <v>10</v>
       </c>
       <c r="X59" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>#</v>
       </c>
       <c r="Y59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z59" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#</v>
       </c>
       <c r="AA59" s="1" t="s">
@@ -19303,13 +19323,13 @@
         <v>14</v>
       </c>
       <c r="AF59" s="3" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="AG59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH59" s="3" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="AI59" s="1" t="s">
         <v>16</v>
@@ -19324,7 +19344,7 @@
         <v>403</v>
       </c>
       <c r="AN59" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AO59" s="12" t="s">
         <v>25</v>
@@ -19334,7 +19354,7 @@
       </c>
       <c r="AQ59" s="13"/>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>17</v>
       </c>
@@ -19357,8 +19377,8 @@
         <v>2</v>
       </c>
       <c r="H60" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>P_02_02_01_01</v>
+        <f t="shared" si="32"/>
+        <v>P_02_02_01_00</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>3</v>
@@ -19370,7 +19390,7 @@
         <v>4</v>
       </c>
       <c r="L60" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>P02</v>
       </c>
       <c r="M60" s="1" t="s">
@@ -19385,24 +19405,24 @@
       <c r="S60" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="T60" s="3" t="s">
+        <v>530</v>
+      </c>
       <c r="U60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>532</v>
-      </c>
       <c r="W60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X60" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>#</v>
       </c>
       <c r="Y60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z60" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#</v>
       </c>
       <c r="AA60" s="1" t="s">
@@ -19415,13 +19435,13 @@
         <v>14</v>
       </c>
       <c r="AF60" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AG60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH60" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AI60" s="1" t="s">
         <v>16</v>
@@ -19439,14 +19459,14 @@
         <v>30</v>
       </c>
       <c r="AO60" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AP60" s="25" t="s">
         <v>535</v>
       </c>
       <c r="AQ60" s="13"/>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>17</v>
       </c>
@@ -19469,8 +19489,8 @@
         <v>2</v>
       </c>
       <c r="H61" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>P_02_02_01_02</v>
+        <f t="shared" si="32"/>
+        <v>P_02_02_01_01</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>3</v>
@@ -19482,7 +19502,7 @@
         <v>4</v>
       </c>
       <c r="L61" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>P02</v>
       </c>
       <c r="M61" s="1" t="s">
@@ -19501,20 +19521,20 @@
         <v>9</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="W61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X61" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>#</v>
       </c>
       <c r="Y61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z61" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#</v>
       </c>
       <c r="AA61" s="1" t="s">
@@ -19527,13 +19547,13 @@
         <v>14</v>
       </c>
       <c r="AF61" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH61" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AI61" s="1" t="s">
         <v>16</v>
@@ -19551,14 +19571,14 @@
         <v>30</v>
       </c>
       <c r="AO61" s="12" t="s">
-        <v>402</v>
+        <v>29</v>
       </c>
       <c r="AP61" s="25" t="s">
         <v>535</v>
       </c>
       <c r="AQ61" s="13"/>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
@@ -19581,8 +19601,8 @@
         <v>2</v>
       </c>
       <c r="H62" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>P_02_02_01_03</v>
+        <f t="shared" si="32"/>
+        <v>P_02_02_01_02</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>3</v>
@@ -19594,7 +19614,7 @@
         <v>4</v>
       </c>
       <c r="L62" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>P02</v>
       </c>
       <c r="M62" s="1" t="s">
@@ -19613,20 +19633,20 @@
         <v>9</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="W62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X62" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>#</v>
       </c>
       <c r="Y62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z62" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#</v>
       </c>
       <c r="AA62" s="1" t="s">
@@ -19639,13 +19659,13 @@
         <v>14</v>
       </c>
       <c r="AF62" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AG62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH62" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI62" s="1" t="s">
         <v>16</v>
@@ -19663,14 +19683,14 @@
         <v>30</v>
       </c>
       <c r="AO62" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AP62" s="25" t="s">
         <v>535</v>
       </c>
       <c r="AQ62" s="13"/>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>17</v>
       </c>
@@ -19693,8 +19713,8 @@
         <v>2</v>
       </c>
       <c r="H63" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>P_02_02_02_00</v>
+        <f t="shared" si="32"/>
+        <v>P_02_02_01_03</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>3</v>
@@ -19706,7 +19726,7 @@
         <v>4</v>
       </c>
       <c r="L63" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>P02</v>
       </c>
       <c r="M63" s="1" t="s">
@@ -19721,24 +19741,24 @@
       <c r="S63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T63" s="3" t="s">
-        <v>531</v>
-      </c>
       <c r="U63" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="V63" s="3" t="s">
+        <v>534</v>
+      </c>
       <c r="W63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X63" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>#</v>
       </c>
       <c r="Y63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z63" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#</v>
       </c>
       <c r="AA63" s="1" t="s">
@@ -19751,13 +19771,13 @@
         <v>14</v>
       </c>
       <c r="AF63" s="3" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="AG63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH63" s="3" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="AI63" s="1" t="s">
         <v>16</v>
@@ -19772,17 +19792,17 @@
         <v>403</v>
       </c>
       <c r="AN63" s="12" t="s">
-        <v>529</v>
+        <v>30</v>
       </c>
       <c r="AO63" s="12" t="s">
-        <v>25</v>
+        <v>404</v>
       </c>
       <c r="AP63" s="25" t="s">
         <v>535</v>
       </c>
       <c r="AQ63" s="13"/>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>17</v>
       </c>
@@ -19805,8 +19825,8 @@
         <v>2</v>
       </c>
       <c r="H64" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>P_03_00_00_00</v>
+        <f t="shared" si="32"/>
+        <v>P_02_02_02_00</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>3</v>
@@ -19818,15 +19838,12 @@
         <v>4</v>
       </c>
       <c r="L64" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>P03</v>
+        <f t="shared" si="33"/>
+        <v>P02</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N64" s="3" t="s">
-        <v>524</v>
-      </c>
       <c r="O64" s="1" t="s">
         <v>6</v>
       </c>
@@ -19836,6 +19853,9 @@
       <c r="S64" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="T64" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="U64" s="1" t="s">
         <v>9</v>
       </c>
@@ -19843,14 +19863,14 @@
         <v>10</v>
       </c>
       <c r="X64" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>#</v>
       </c>
       <c r="Y64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z64" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#</v>
       </c>
       <c r="AA64" s="1" t="s">
@@ -19863,13 +19883,13 @@
         <v>14</v>
       </c>
       <c r="AF64" s="3" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="AG64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH64" s="3" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="AI64" s="1" t="s">
         <v>16</v>
@@ -19878,13 +19898,13 @@
         <v>512</v>
       </c>
       <c r="AL64" s="15" t="s">
-        <v>528</v>
+        <v>403</v>
       </c>
       <c r="AM64" s="15" t="s">
-        <v>25</v>
+        <v>403</v>
       </c>
       <c r="AN64" s="12" t="s">
-        <v>25</v>
+        <v>529</v>
       </c>
       <c r="AO64" s="12" t="s">
         <v>25</v>
@@ -19917,8 +19937,8 @@
         <v>2</v>
       </c>
       <c r="H65" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>P_03_01_00_00</v>
+        <f t="shared" si="32"/>
+        <v>P_03_00_00_00</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>3</v>
@@ -19930,18 +19950,18 @@
         <v>4</v>
       </c>
       <c r="L65" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>P03</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N65" s="3" t="s">
+        <v>524</v>
+      </c>
       <c r="O65" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P65" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="Q65" s="1" t="s">
         <v>7</v>
       </c>
@@ -19955,14 +19975,14 @@
         <v>10</v>
       </c>
       <c r="X65" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>#</v>
       </c>
       <c r="Y65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z65" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#</v>
       </c>
       <c r="AA65" s="1" t="s">
@@ -19975,13 +19995,13 @@
         <v>14</v>
       </c>
       <c r="AF65" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH65" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AI65" s="1" t="s">
         <v>16</v>
@@ -19993,7 +20013,7 @@
         <v>528</v>
       </c>
       <c r="AM65" s="15" t="s">
-        <v>438</v>
+        <v>25</v>
       </c>
       <c r="AN65" s="12" t="s">
         <v>25</v>
@@ -20029,8 +20049,8 @@
         <v>2</v>
       </c>
       <c r="H66" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>P_03_02_00_00</v>
+        <f t="shared" si="32"/>
+        <v>P_03_01_00_00</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>3</v>
@@ -20042,7 +20062,7 @@
         <v>4</v>
       </c>
       <c r="L66" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>P03</v>
       </c>
       <c r="M66" s="1" t="s">
@@ -20052,7 +20072,7 @@
         <v>6</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Q66" s="1" t="s">
         <v>7</v>
@@ -20067,14 +20087,14 @@
         <v>10</v>
       </c>
       <c r="X66" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>#</v>
       </c>
       <c r="Y66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z66" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#</v>
       </c>
       <c r="AA66" s="1" t="s">
@@ -20087,13 +20107,13 @@
         <v>14</v>
       </c>
       <c r="AF66" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AG66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH66" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AI66" s="1" t="s">
         <v>16</v>
@@ -20105,7 +20125,7 @@
         <v>528</v>
       </c>
       <c r="AM66" s="15" t="s">
-        <v>529</v>
+        <v>438</v>
       </c>
       <c r="AN66" s="12" t="s">
         <v>25</v>
@@ -20141,8 +20161,8 @@
         <v>2</v>
       </c>
       <c r="H67" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>P_03_02_01_00</v>
+        <f t="shared" si="32"/>
+        <v>P_03_02_00_00</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>3</v>
@@ -20154,7 +20174,7 @@
         <v>4</v>
       </c>
       <c r="L67" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>P03</v>
       </c>
       <c r="M67" s="1" t="s">
@@ -20163,15 +20183,15 @@
       <c r="O67" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P67" s="3" t="s">
+        <v>526</v>
+      </c>
       <c r="Q67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S67" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T67" s="3" t="s">
-        <v>527</v>
-      </c>
       <c r="U67" s="1" t="s">
         <v>9</v>
       </c>
@@ -20179,14 +20199,14 @@
         <v>10</v>
       </c>
       <c r="X67" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>#</v>
       </c>
       <c r="Y67" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z67" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#</v>
       </c>
       <c r="AA67" s="1" t="s">
@@ -20199,13 +20219,13 @@
         <v>14</v>
       </c>
       <c r="AF67" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AH67" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AI67" s="1" t="s">
         <v>16</v>
@@ -20220,7 +20240,7 @@
         <v>529</v>
       </c>
       <c r="AN67" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AO67" s="12" t="s">
         <v>25</v>
@@ -20230,60 +20250,172 @@
       </c>
       <c r="AQ67" s="13"/>
     </row>
-    <row r="68" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="47" t="s">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>P_03_02_01_00</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L68" s="3" t="str">
+        <f t="shared" si="33"/>
+        <v>P03</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X68" s="16" t="str">
+        <f t="shared" si="34"/>
+        <v>#</v>
+      </c>
+      <c r="Y68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z68" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>#</v>
+      </c>
+      <c r="AA68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF68" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH68" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="AI68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK68" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="AL68" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="AM68" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="AN68" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO68" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP68" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="AQ68" s="13"/>
+    </row>
+    <row r="69" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="47" t="s">
         <v>511</v>
       </c>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="48"/>
-      <c r="M68" s="48"/>
-      <c r="N68" s="48"/>
-      <c r="O68" s="48"/>
-      <c r="P68" s="48"/>
-      <c r="Q68" s="48"/>
-      <c r="R68" s="48"/>
-      <c r="S68" s="48"/>
-      <c r="T68" s="48"/>
-      <c r="U68" s="48"/>
-      <c r="V68" s="48"/>
-      <c r="W68" s="48"/>
-      <c r="X68" s="48"/>
-      <c r="Y68" s="48"/>
-      <c r="Z68" s="48"/>
-      <c r="AA68" s="48"/>
-      <c r="AB68" s="48"/>
-      <c r="AC68" s="48"/>
-      <c r="AD68" s="48"/>
-      <c r="AE68" s="48"/>
-      <c r="AF68" s="48"/>
-      <c r="AG68" s="48"/>
-      <c r="AH68" s="48"/>
-      <c r="AI68" s="49"/>
-      <c r="AJ68" s="5"/>
-      <c r="AK68" s="10"/>
-      <c r="AL68" s="11"/>
-      <c r="AM68" s="11"/>
-      <c r="AU68" s="6" t="s">
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="48"/>
+      <c r="P69" s="48"/>
+      <c r="Q69" s="48"/>
+      <c r="R69" s="48"/>
+      <c r="S69" s="48"/>
+      <c r="T69" s="48"/>
+      <c r="U69" s="48"/>
+      <c r="V69" s="48"/>
+      <c r="W69" s="48"/>
+      <c r="X69" s="48"/>
+      <c r="Y69" s="48"/>
+      <c r="Z69" s="48"/>
+      <c r="AA69" s="48"/>
+      <c r="AB69" s="48"/>
+      <c r="AC69" s="48"/>
+      <c r="AD69" s="48"/>
+      <c r="AE69" s="48"/>
+      <c r="AF69" s="48"/>
+      <c r="AG69" s="48"/>
+      <c r="AH69" s="48"/>
+      <c r="AI69" s="49"/>
+      <c r="AJ69" s="5"/>
+      <c r="AK69" s="10"/>
+      <c r="AL69" s="11"/>
+      <c r="AM69" s="11"/>
+      <c r="AU69" s="6" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:AI2"/>
-    <mergeCell ref="A68:AI68"/>
+    <mergeCell ref="A69:AI69"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D67 B3:B67 F3:F67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F68 B3:B68 D3:D68">
       <formula1>$AU$3:$AU$4</formula1>
     </dataValidation>
   </dataValidations>
